--- a/OneClick Hotel/FOURNISSEURS 2022 one.xlsx
+++ b/OneClick Hotel/FOURNISSEURS 2022 one.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\OneClick Hotel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3AA91F5-25A4-49A5-8F54-C4EEABFA5B59}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0929EFF-6E3C-4133-8AE3-C75B8C00F169}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,9 +17,7 @@
     <sheet name="MUKAMUGEMA ANNONCIATA" sheetId="3" r:id="rId2"/>
     <sheet name=" BISANGABAGABO JACKSON" sheetId="2" r:id="rId3"/>
     <sheet name="KABANDA" sheetId="4" r:id="rId4"/>
-    <sheet name="PARADIS DU COEUR" sheetId="6" r:id="rId5"/>
-    <sheet name="LIQUID" sheetId="7" r:id="rId6"/>
-    <sheet name="KEYNES GROUP" sheetId="8" r:id="rId7"/>
+    <sheet name="LIQUID" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="36">
   <si>
     <r>
       <t>N</t>
@@ -68,22 +66,13 @@
     <t>KABANDA</t>
   </si>
   <si>
-    <t>PARADIS DU COEUR</t>
-  </si>
-  <si>
     <t>LIQUID</t>
   </si>
   <si>
-    <t>KEYNES GROUP</t>
-  </si>
-  <si>
     <t>DATE FACTURE</t>
   </si>
   <si>
     <t>TOTAL PAID</t>
-  </si>
-  <si>
-    <t>BK</t>
   </si>
   <si>
     <t>SDC002800063/351046</t>
@@ -266,7 +255,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -355,24 +344,6 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -397,46 +368,58 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -444,42 +427,6 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -822,7 +769,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -838,56 +785,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="44" t="s">
+      <c r="E1" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="44" t="s">
+      <c r="F1" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="38" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="41">
+      <c r="A2" s="35">
         <v>1</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="43">
+        <v>12</v>
+      </c>
+      <c r="D2" s="37">
         <v>154394</v>
       </c>
-      <c r="E2" s="44">
+      <c r="E2" s="38">
         <v>44606</v>
       </c>
-      <c r="F2" s="43"/>
-      <c r="G2" s="44"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="38"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="41">
+      <c r="A3" s="35">
         <v>2</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D3" s="15">
         <v>55344</v>
@@ -899,14 +846,14 @@
       <c r="G3" s="16"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="41">
+      <c r="A4" s="35">
         <v>3</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D4" s="15">
         <v>123660</v>
@@ -918,14 +865,14 @@
       <c r="G4" s="16"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="41">
+      <c r="A5" s="35">
         <v>4</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D5" s="15">
         <v>49000</v>
@@ -937,14 +884,14 @@
       <c r="G5" s="16"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="41">
+      <c r="A6" s="35">
         <v>5</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D6" s="15">
         <v>187380</v>
@@ -956,38 +903,38 @@
       <c r="G6" s="16"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="41">
+      <c r="A7" s="35">
         <v>6</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="42" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="43">
+        <v>13</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="37">
         <v>14407</v>
       </c>
-      <c r="E7" s="44">
+      <c r="E7" s="38">
         <v>44602</v>
       </c>
-      <c r="F7" s="67">
+      <c r="F7" s="44">
         <f>D12+D11+D10+D9+D8+D7</f>
         <v>108260.5</v>
       </c>
-      <c r="G7" s="58" t="s">
-        <v>38</v>
+      <c r="G7" s="47" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="41">
+      <c r="A8" s="35">
         <v>7</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D8" s="15">
         <v>29385</v>
@@ -995,18 +942,18 @@
       <c r="E8" s="16">
         <v>44608</v>
       </c>
-      <c r="F8" s="69"/>
-      <c r="G8" s="71"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="48"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="41">
+      <c r="A9" s="35">
         <v>8</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D9" s="15">
         <v>7600</v>
@@ -1014,18 +961,18 @@
       <c r="E9" s="16">
         <v>44617</v>
       </c>
-      <c r="F9" s="69"/>
-      <c r="G9" s="71"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="48"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="41">
+      <c r="A10" s="35">
         <v>9</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D10" s="15">
         <v>15106</v>
@@ -1033,18 +980,18 @@
       <c r="E10" s="16">
         <v>44618</v>
       </c>
-      <c r="F10" s="69"/>
-      <c r="G10" s="71"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="48"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="41">
+      <c r="A11" s="35">
         <v>10</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D11" s="15">
         <v>29262.5</v>
@@ -1052,18 +999,18 @@
       <c r="E11" s="16">
         <v>44623</v>
       </c>
-      <c r="F11" s="69"/>
-      <c r="G11" s="71"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="48"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="41">
+      <c r="A12" s="35">
         <v>11</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D12" s="15">
         <v>12500</v>
@@ -1071,15 +1018,15 @@
       <c r="E12" s="16">
         <v>44620</v>
       </c>
-      <c r="F12" s="68"/>
-      <c r="G12" s="59"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="49"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="41">
+      <c r="A13" s="35">
         <v>12</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="15"/>
@@ -1088,11 +1035,11 @@
       <c r="G13" s="16"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="41">
+      <c r="A14" s="35">
         <v>13</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="15"/>
@@ -1101,11 +1048,11 @@
       <c r="G14" s="16"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="41">
+      <c r="A15" s="35">
         <v>14</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C15" s="14"/>
       <c r="D15" s="15"/>
@@ -1114,11 +1061,11 @@
       <c r="G15" s="16"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="41">
+      <c r="A16" s="35">
         <v>15</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C16" s="14"/>
       <c r="D16" s="15"/>
@@ -1127,11 +1074,11 @@
       <c r="G16" s="16"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="41">
+      <c r="A17" s="35">
         <v>16</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C17" s="14"/>
       <c r="D17" s="15"/>
@@ -1140,11 +1087,11 @@
       <c r="G17" s="16"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="41">
+      <c r="A18" s="35">
         <v>17</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C18" s="14"/>
       <c r="D18" s="20"/>
@@ -1153,11 +1100,11 @@
       <c r="G18" s="16"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="41">
+      <c r="A19" s="35">
         <v>18</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C19" s="14"/>
       <c r="D19" s="15"/>
@@ -1166,11 +1113,11 @@
       <c r="G19" s="16"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="41">
+      <c r="A20" s="35">
         <v>19</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C20" s="14"/>
       <c r="D20" s="15"/>
@@ -1179,11 +1126,11 @@
       <c r="G20" s="16"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="41">
+      <c r="A21" s="35">
         <v>20</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C21" s="14"/>
       <c r="D21" s="15"/>
@@ -1192,11 +1139,11 @@
       <c r="G21" s="16"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="41">
+      <c r="A22" s="35">
         <v>21</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C22" s="14"/>
       <c r="D22" s="15"/>
@@ -1205,11 +1152,11 @@
       <c r="G22" s="16"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="41">
+      <c r="A23" s="35">
         <v>22</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C23" s="14"/>
       <c r="D23" s="15"/>
@@ -1218,11 +1165,11 @@
       <c r="G23" s="16"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="41">
+      <c r="A24" s="35">
         <v>23</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C24" s="14"/>
       <c r="D24" s="15"/>
@@ -1231,11 +1178,11 @@
       <c r="G24" s="16"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="41">
+      <c r="A25" s="35">
         <v>24</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C25" s="14"/>
       <c r="D25" s="15"/>
@@ -1244,11 +1191,11 @@
       <c r="G25" s="16"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="41">
+      <c r="A26" s="35">
         <v>25</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C26" s="14"/>
       <c r="D26" s="15"/>
@@ -1257,11 +1204,11 @@
       <c r="G26" s="16"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="41">
+      <c r="A27" s="35">
         <v>26</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C27" s="14"/>
       <c r="D27" s="15"/>
@@ -1270,11 +1217,11 @@
       <c r="G27" s="16"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="41">
+      <c r="A28" s="35">
         <v>27</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C28" s="14"/>
       <c r="D28" s="15"/>
@@ -1283,11 +1230,11 @@
       <c r="G28" s="16"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="41">
+      <c r="A29" s="35">
         <v>28</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C29" s="14"/>
       <c r="D29" s="15"/>
@@ -1296,11 +1243,11 @@
       <c r="G29" s="16"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="41">
+      <c r="A30" s="35">
         <v>29</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C30" s="14"/>
       <c r="D30" s="15"/>
@@ -1332,300 +1279,300 @@
     <col min="2" max="2" width="28" style="17" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7109375" style="17" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="31"/>
-    <col min="5" max="5" width="14" style="54" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" style="42" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.28515625" style="31" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="54" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="42" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="64" t="s">
+      <c r="C1" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="65" t="s">
+      <c r="D1" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="66" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="67" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="62" t="s">
+      <c r="E1" s="56" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="50" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="57"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="63"/>
+      <c r="A2" s="53"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="51"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
         <v>1</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D3" s="29">
         <v>135390</v>
       </c>
-      <c r="E3" s="53">
+      <c r="E3" s="41">
         <v>44604</v>
       </c>
       <c r="F3" s="29"/>
-      <c r="G3" s="53"/>
+      <c r="G3" s="41"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
         <v>2</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D4" s="29">
         <v>200620</v>
       </c>
-      <c r="E4" s="53">
+      <c r="E4" s="41">
         <v>44611</v>
       </c>
       <c r="F4" s="29"/>
-      <c r="G4" s="53"/>
+      <c r="G4" s="41"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
         <v>3</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D5" s="29">
         <v>169860</v>
       </c>
-      <c r="E5" s="53">
+      <c r="E5" s="41">
         <v>44620</v>
       </c>
       <c r="F5" s="29"/>
-      <c r="G5" s="53"/>
+      <c r="G5" s="41"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>4</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D6" s="29">
         <v>345590</v>
       </c>
-      <c r="E6" s="53">
+      <c r="E6" s="41">
         <v>44628</v>
       </c>
       <c r="F6" s="29"/>
-      <c r="G6" s="53"/>
+      <c r="G6" s="41"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>5</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="29"/>
-      <c r="E7" s="53"/>
+      <c r="E7" s="41"/>
       <c r="F7" s="29"/>
-      <c r="G7" s="53"/>
+      <c r="G7" s="41"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <v>6</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="51"/>
-      <c r="E8" s="53"/>
+        <v>20</v>
+      </c>
+      <c r="C8" s="40"/>
+      <c r="E8" s="41"/>
       <c r="F8" s="29"/>
-      <c r="G8" s="53"/>
+      <c r="G8" s="41"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
         <v>7</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="29"/>
-      <c r="E9" s="53"/>
+      <c r="E9" s="41"/>
       <c r="F9" s="29"/>
-      <c r="G9" s="53"/>
-    </row>
-    <row r="10" spans="1:7" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="38">
+      <c r="G9" s="41"/>
+    </row>
+    <row r="10" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="32">
         <v>8</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="38"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="40"/>
+        <v>20</v>
+      </c>
+      <c r="C10" s="32"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="34"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
         <v>9</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="29"/>
-      <c r="E11" s="53"/>
+      <c r="E11" s="41"/>
       <c r="F11" s="29"/>
-      <c r="G11" s="53"/>
+      <c r="G11" s="41"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
         <v>10</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="29"/>
-      <c r="E12" s="53"/>
+      <c r="E12" s="41"/>
       <c r="F12" s="29"/>
-      <c r="G12" s="53"/>
+      <c r="G12" s="41"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
         <v>11</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="29"/>
-      <c r="E13" s="53"/>
+      <c r="E13" s="41"/>
       <c r="F13" s="29"/>
-      <c r="G13" s="53"/>
+      <c r="G13" s="41"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="13">
         <v>12</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="29"/>
-      <c r="E14" s="53"/>
+      <c r="E14" s="41"/>
       <c r="F14" s="29"/>
-      <c r="G14" s="53"/>
+      <c r="G14" s="41"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="13">
         <v>13</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="29"/>
-      <c r="E15" s="53"/>
+      <c r="E15" s="41"/>
       <c r="F15" s="29"/>
-      <c r="G15" s="53"/>
+      <c r="G15" s="41"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
         <v>14</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C16" s="13"/>
       <c r="D16" s="29"/>
-      <c r="E16" s="53"/>
+      <c r="E16" s="41"/>
       <c r="F16" s="29"/>
-      <c r="G16" s="53"/>
+      <c r="G16" s="41"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
         <v>15</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C17" s="13"/>
       <c r="D17" s="29"/>
-      <c r="E17" s="53"/>
+      <c r="E17" s="41"/>
       <c r="F17" s="29"/>
-      <c r="G17" s="53"/>
+      <c r="G17" s="41"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
         <v>16</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C18" s="13"/>
       <c r="D18" s="29"/>
-      <c r="E18" s="53"/>
+      <c r="E18" s="41"/>
       <c r="F18" s="29"/>
-      <c r="G18" s="53"/>
+      <c r="G18" s="41"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
         <v>17</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="29"/>
-      <c r="E19" s="53"/>
+      <c r="E19" s="41"/>
       <c r="F19" s="29"/>
-      <c r="G19" s="53"/>
+      <c r="G19" s="41"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="13">
         <v>18</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="29"/>
-      <c r="E20" s="53"/>
+      <c r="E20" s="41"/>
       <c r="F20" s="29"/>
-      <c r="G20" s="53"/>
+      <c r="G20" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1662,47 +1609,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="64" t="s">
+      <c r="C1" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="70" t="s">
+      <c r="D1" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="67" t="s">
+      <c r="E1" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="58" t="s">
+      <c r="F1" s="47" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="57"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="59"/>
+      <c r="A2" s="53"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="49"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>1</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="42" t="s">
-        <v>19</v>
+        <v>15</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>16</v>
       </c>
       <c r="D3" s="11">
         <v>44609</v>
       </c>
-      <c r="E3" s="43">
+      <c r="E3" s="37">
         <v>227000</v>
       </c>
       <c r="F3" s="10"/>
@@ -1712,15 +1659,15 @@
         <v>2</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="42" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>17</v>
       </c>
       <c r="D4" s="9">
         <v>44609</v>
       </c>
-      <c r="E4" s="43">
+      <c r="E4" s="37">
         <v>408400</v>
       </c>
       <c r="F4" s="30"/>
@@ -1730,33 +1677,33 @@
         <v>3</v>
       </c>
       <c r="B5" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="36" t="s">
         <v>18</v>
-      </c>
-      <c r="C5" s="42" t="s">
-        <v>21</v>
       </c>
       <c r="D5" s="9">
         <v>44611</v>
       </c>
-      <c r="E5" s="43">
+      <c r="E5" s="37">
         <v>14400</v>
       </c>
       <c r="F5" s="30"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="41">
+      <c r="A6" s="35">
         <v>4</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="42" t="s">
-        <v>24</v>
+        <v>15</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>21</v>
       </c>
       <c r="D6" s="9">
         <v>44614</v>
       </c>
-      <c r="E6" s="43">
+      <c r="E6" s="37">
         <v>227400</v>
       </c>
       <c r="F6" s="30"/>
@@ -1766,15 +1713,15 @@
         <v>5</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="42" t="s">
-        <v>30</v>
+        <v>15</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>27</v>
       </c>
       <c r="D7" s="9">
         <v>44621</v>
       </c>
-      <c r="E7" s="43">
+      <c r="E7" s="37">
         <v>289000</v>
       </c>
       <c r="F7" s="30"/>
@@ -1784,33 +1731,33 @@
         <v>6</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="42" t="s">
-        <v>32</v>
+        <v>15</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>29</v>
       </c>
       <c r="D8" s="9">
         <v>44623</v>
       </c>
-      <c r="E8" s="43">
+      <c r="E8" s="37">
         <v>15000</v>
       </c>
       <c r="F8" s="30"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="41">
+      <c r="A9" s="35">
         <v>7</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="42" t="s">
-        <v>34</v>
+        <v>15</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>31</v>
       </c>
       <c r="D9" s="9">
         <v>44627</v>
       </c>
-      <c r="E9" s="43">
+      <c r="E9" s="37">
         <v>191300</v>
       </c>
       <c r="F9" s="30"/>
@@ -1820,11 +1767,11 @@
         <v>8</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="42"/>
+        <v>15</v>
+      </c>
+      <c r="C10" s="36"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="43"/>
+      <c r="E10" s="37"/>
       <c r="F10" s="30"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1832,23 +1779,23 @@
         <v>9</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="42"/>
+        <v>15</v>
+      </c>
+      <c r="C11" s="36"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="43"/>
+      <c r="E11" s="37"/>
       <c r="F11" s="30"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="41">
+      <c r="A12" s="35">
         <v>10</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="42"/>
+        <v>15</v>
+      </c>
+      <c r="C12" s="36"/>
       <c r="D12" s="9"/>
-      <c r="E12" s="43"/>
+      <c r="E12" s="37"/>
       <c r="F12" s="30"/>
     </row>
     <row r="13" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
@@ -1856,7 +1803,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C13" s="21"/>
       <c r="D13" s="22"/>
@@ -1868,7 +1815,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C14" s="25"/>
       <c r="D14" s="22"/>
@@ -1876,13 +1823,13 @@
       <c r="F14" s="30"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="41">
+      <c r="A15" s="35">
         <v>13</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="42"/>
+        <v>15</v>
+      </c>
+      <c r="C15" s="36"/>
       <c r="D15" s="16"/>
       <c r="E15" s="15"/>
       <c r="F15" s="30"/>
@@ -1892,7 +1839,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C16" s="14"/>
       <c r="D16" s="16"/>
@@ -1904,7 +1851,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C17" s="14"/>
       <c r="D17" s="16"/>
@@ -1912,11 +1859,11 @@
       <c r="F17" s="30"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="41">
+      <c r="A18" s="35">
         <v>16</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C18" s="14"/>
       <c r="D18" s="16"/>
@@ -1928,7 +1875,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C19" s="14"/>
       <c r="D19" s="16"/>
@@ -1940,7 +1887,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C20" s="14"/>
       <c r="D20" s="16"/>
@@ -1948,11 +1895,11 @@
       <c r="F20" s="16"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="41">
+      <c r="A21" s="35">
         <v>19</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C21" s="14"/>
       <c r="D21" s="16"/>
@@ -1964,7 +1911,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C22" s="14"/>
       <c r="D22" s="16"/>
@@ -1976,7 +1923,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C23" s="14"/>
       <c r="D23" s="16"/>
@@ -1984,11 +1931,11 @@
       <c r="F23" s="16"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="41">
+      <c r="A24" s="35">
         <v>22</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C24" s="14"/>
       <c r="D24" s="16"/>
@@ -2000,7 +1947,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C25" s="14"/>
       <c r="D25" s="16"/>
@@ -2012,7 +1959,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C26" s="14"/>
       <c r="D26" s="16"/>
@@ -2020,11 +1967,11 @@
       <c r="F26" s="16"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="41">
+      <c r="A27" s="35">
         <v>25</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C27" s="14"/>
       <c r="D27" s="16"/>
@@ -2036,7 +1983,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C28" s="14"/>
       <c r="D28" s="16"/>
@@ -2048,7 +1995,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C29" s="14"/>
       <c r="D29" s="16"/>
@@ -2056,11 +2003,11 @@
       <c r="F29" s="16"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="41">
+      <c r="A30" s="35">
         <v>28</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C30" s="14"/>
       <c r="D30" s="16"/>
@@ -2072,7 +2019,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C31" s="14"/>
       <c r="D31" s="16"/>
@@ -2084,7 +2031,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C32" s="14"/>
       <c r="D32" s="16"/>
@@ -2092,11 +2039,11 @@
       <c r="F32" s="16"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="41">
+      <c r="A33" s="35">
         <v>31</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C33" s="14"/>
       <c r="D33" s="16"/>
@@ -2108,7 +2055,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C34" s="14"/>
       <c r="D34" s="16"/>
@@ -2117,12 +2064,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="F1:F2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="D1:D2"/>
-    <mergeCell ref="F1:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -2151,36 +2098,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="64" t="s">
+      <c r="C1" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="60" t="s">
+      <c r="D1" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="66" t="s">
+      <c r="E1" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="67" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="62" t="s">
+      <c r="F1" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="50" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="57"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="63"/>
+      <c r="A2" s="53"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="51"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
@@ -2193,7 +2140,7 @@
       <c r="D3" s="15"/>
       <c r="E3" s="26"/>
       <c r="F3" s="29"/>
-      <c r="G3" s="53"/>
+      <c r="G3" s="41"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
@@ -2206,7 +2153,7 @@
       <c r="D4" s="15"/>
       <c r="E4" s="26"/>
       <c r="F4" s="29"/>
-      <c r="G4" s="53"/>
+      <c r="G4" s="41"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
@@ -2219,7 +2166,7 @@
       <c r="D5" s="15"/>
       <c r="E5" s="26"/>
       <c r="F5" s="29"/>
-      <c r="G5" s="53"/>
+      <c r="G5" s="41"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
@@ -2232,7 +2179,7 @@
       <c r="D6" s="15"/>
       <c r="E6" s="26"/>
       <c r="F6" s="29"/>
-      <c r="G6" s="53"/>
+      <c r="G6" s="41"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
@@ -2245,7 +2192,7 @@
       <c r="D7" s="15"/>
       <c r="E7" s="26"/>
       <c r="F7" s="29"/>
-      <c r="G7" s="53"/>
+      <c r="G7" s="41"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
@@ -2258,7 +2205,7 @@
       <c r="D8" s="15"/>
       <c r="E8" s="26"/>
       <c r="F8" s="29"/>
-      <c r="G8" s="53"/>
+      <c r="G8" s="41"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
@@ -2271,7 +2218,7 @@
       <c r="D9" s="15"/>
       <c r="E9" s="26"/>
       <c r="F9" s="29"/>
-      <c r="G9" s="53"/>
+      <c r="G9" s="41"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
@@ -2284,7 +2231,7 @@
       <c r="D10" s="15"/>
       <c r="E10" s="26"/>
       <c r="F10" s="29"/>
-      <c r="G10" s="53"/>
+      <c r="G10" s="41"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
@@ -2297,7 +2244,7 @@
       <c r="D11" s="15"/>
       <c r="E11" s="27"/>
       <c r="F11" s="29"/>
-      <c r="G11" s="53"/>
+      <c r="G11" s="41"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
@@ -2310,7 +2257,7 @@
       <c r="D12" s="15"/>
       <c r="E12" s="27"/>
       <c r="F12" s="29"/>
-      <c r="G12" s="53"/>
+      <c r="G12" s="41"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
@@ -2323,7 +2270,7 @@
       <c r="D13" s="15"/>
       <c r="E13" s="27"/>
       <c r="F13" s="29"/>
-      <c r="G13" s="53"/>
+      <c r="G13" s="41"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="13">
@@ -2336,7 +2283,7 @@
       <c r="D14" s="15"/>
       <c r="E14" s="27"/>
       <c r="F14" s="29"/>
-      <c r="G14" s="53"/>
+      <c r="G14" s="41"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="13">
@@ -2349,7 +2296,7 @@
       <c r="D15" s="15"/>
       <c r="E15" s="27"/>
       <c r="F15" s="29"/>
-      <c r="G15" s="53"/>
+      <c r="G15" s="41"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
@@ -2362,7 +2309,7 @@
       <c r="D16" s="15"/>
       <c r="E16" s="27"/>
       <c r="F16" s="29"/>
-      <c r="G16" s="53"/>
+      <c r="G16" s="41"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
@@ -2375,7 +2322,7 @@
       <c r="D17" s="15"/>
       <c r="E17" s="27"/>
       <c r="F17" s="29"/>
-      <c r="G17" s="53"/>
+      <c r="G17" s="41"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
@@ -2388,7 +2335,7 @@
       <c r="D18" s="15"/>
       <c r="E18" s="27"/>
       <c r="F18" s="29"/>
-      <c r="G18" s="53"/>
+      <c r="G18" s="41"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
@@ -2574,454 +2521,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:G31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B3:B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="17"/>
-    <col min="2" max="2" width="19.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="31"/>
-    <col min="5" max="5" width="10.7109375" style="32" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" style="31" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="32" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="17"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="56" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="64" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="64" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="65" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="70" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="67" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="58" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="57"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="59"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="37"/>
-      <c r="B3" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="44"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="13">
-        <v>1</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="45"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="44"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="13">
-        <v>2</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="45"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="44"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="13">
-        <v>3</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="45"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="16"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="13">
-        <v>4</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="45"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="16"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="13">
-        <v>5</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="45"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="16"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="13">
-        <v>6</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="45"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="16"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="13">
-        <v>7</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="45"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="16"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="13">
-        <v>9</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="49"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="16"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="13">
-        <v>10</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="49"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="16"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="13">
-        <v>11</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="49"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="16"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="13">
-        <v>12</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="16"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="13">
-        <v>13</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="16"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="13">
-        <v>14</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="30"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="13">
-        <v>15</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="30"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="13">
-        <v>16</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="30"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="13">
-        <v>17</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="30"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="13">
-        <v>18</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="30"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="13">
-        <v>19</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="30"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="13">
-        <v>20</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="30"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="13">
-        <v>21</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="30"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="13">
-        <v>22</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="30"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="13">
-        <v>23</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="30"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="13">
-        <v>24</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="30"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="13">
-        <v>25</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="30"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="13">
-        <v>26</v>
-      </c>
-      <c r="B28" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="30"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="13">
-        <v>27</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="30"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="13">
-        <v>28</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="30"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="13">
-        <v>29</v>
-      </c>
-      <c r="B31" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="30"/>
-    </row>
-  </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="F1:F2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3032,39 +2536,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="64" t="s">
+      <c r="C1" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="65" t="s">
+      <c r="D1" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="70" t="s">
+      <c r="E1" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="58" t="s">
+      <c r="F1" s="47" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="57"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="59"/>
+      <c r="A2" s="53"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="49"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="6"/>
@@ -3076,7 +2580,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="2"/>
@@ -3088,7 +2592,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="2"/>
@@ -3106,538 +2610,4 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:H35"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="17"/>
-    <col min="2" max="2" width="19.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="31"/>
-    <col min="5" max="5" width="10.7109375" style="32" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" style="31" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="32" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="17"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="56" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="64" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="64" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="65" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="70" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="67" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="58" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="72" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="57"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="73"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="33">
-        <v>1</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="13"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="13">
-        <v>2</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="13"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="33">
-        <v>3</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="13"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="13">
-        <v>4</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="34"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="13"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="33">
-        <v>5</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="13"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="13">
-        <v>6</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="13"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="33">
-        <v>7</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="34"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="13"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="13">
-        <v>8</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="34"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="13"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="33">
-        <v>9</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="34"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="13"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="13">
-        <v>10</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="34"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="13"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="33">
-        <v>11</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="13"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="13">
-        <v>12</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="13"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="33">
-        <v>13</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="13"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="13">
-        <v>14</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="13"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="33">
-        <v>15</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="13"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="13">
-        <v>16</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="13"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="33">
-        <v>17</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="13"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="13">
-        <v>18</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="13"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="33">
-        <v>19</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="13"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="13">
-        <v>20</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="13"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="33">
-        <v>21</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="13"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="13">
-        <v>22</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="13"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="33">
-        <v>23</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="13"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="13">
-        <v>24</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="13"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="33">
-        <v>25</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="13"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="13">
-        <v>26</v>
-      </c>
-      <c r="B28" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="13"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="33">
-        <v>27</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="13"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="13">
-        <v>28</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="13"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="33">
-        <v>29</v>
-      </c>
-      <c r="B31" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="13"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="13">
-        <v>30</v>
-      </c>
-      <c r="B32" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="30"/>
-      <c r="H32" s="13"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="33">
-        <v>31</v>
-      </c>
-      <c r="B33" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="13"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="13">
-        <v>32</v>
-      </c>
-      <c r="B34" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="13"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="33">
-        <v>33</v>
-      </c>
-      <c r="B35" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C35" s="13"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="13"/>
-    </row>
-  </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/OneClick Hotel/FOURNISSEURS 2022 one.xlsx
+++ b/OneClick Hotel/FOURNISSEURS 2022 one.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\OneClick Hotel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0929EFF-6E3C-4133-8AE3-C75B8C00F169}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D67DE1-87F8-417E-8D92-6C9C9C19621A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -769,7 +769,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/OneClick Hotel/FOURNISSEURS 2022 one.xlsx
+++ b/OneClick Hotel/FOURNISSEURS 2022 one.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\OneClick Hotel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D67DE1-87F8-417E-8D92-6C9C9C19621A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9A1F185-7016-42EA-9891-0A336C5FA9A1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name=" KIME SUPERMARKET" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="38">
   <si>
     <r>
       <t>N</t>
@@ -151,6 +151,12 @@
   </si>
   <si>
     <t>3/3/2022 by cash</t>
+  </si>
+  <si>
+    <t>SDC010014500/2492</t>
+  </si>
+  <si>
+    <t>SDC010014500/2494</t>
   </si>
 </sst>
 </file>
@@ -311,15 +317,9 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -428,6 +428,8 @@
     <xf numFmtId="3" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -768,7 +770,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
@@ -785,30 +787,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="38" t="s">
+      <c r="G1" s="36" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="35">
+      <c r="A2" s="33">
         <v>1</v>
       </c>
       <c r="B2" s="14" t="s">
@@ -817,17 +819,17 @@
       <c r="C2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="37">
+      <c r="D2" s="35">
         <v>154394</v>
       </c>
-      <c r="E2" s="38">
+      <c r="E2" s="36">
         <v>44606</v>
       </c>
-      <c r="F2" s="37"/>
-      <c r="G2" s="38"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="36"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="35">
+      <c r="A3" s="33">
         <v>2</v>
       </c>
       <c r="B3" s="14" t="s">
@@ -846,7 +848,7 @@
       <c r="G3" s="16"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="35">
+      <c r="A4" s="33">
         <v>3</v>
       </c>
       <c r="B4" s="14" t="s">
@@ -865,7 +867,7 @@
       <c r="G4" s="16"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="35">
+      <c r="A5" s="33">
         <v>4</v>
       </c>
       <c r="B5" s="14" t="s">
@@ -884,7 +886,7 @@
       <c r="G5" s="16"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="35">
+      <c r="A6" s="33">
         <v>5</v>
       </c>
       <c r="B6" s="14" t="s">
@@ -903,31 +905,31 @@
       <c r="G6" s="16"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="35">
+      <c r="A7" s="33">
         <v>6</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="37">
+      <c r="D7" s="35">
         <v>14407</v>
       </c>
-      <c r="E7" s="38">
+      <c r="E7" s="36">
         <v>44602</v>
       </c>
-      <c r="F7" s="44">
+      <c r="F7" s="42">
         <f>D12+D11+D10+D9+D8+D7</f>
         <v>108260.5</v>
       </c>
-      <c r="G7" s="47" t="s">
+      <c r="G7" s="45" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="35">
+      <c r="A8" s="33">
         <v>7</v>
       </c>
       <c r="B8" s="14" t="s">
@@ -942,11 +944,11 @@
       <c r="E8" s="16">
         <v>44608</v>
       </c>
-      <c r="F8" s="45"/>
-      <c r="G8" s="48"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="46"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="35">
+      <c r="A9" s="33">
         <v>8</v>
       </c>
       <c r="B9" s="14" t="s">
@@ -961,11 +963,11 @@
       <c r="E9" s="16">
         <v>44617</v>
       </c>
-      <c r="F9" s="45"/>
-      <c r="G9" s="48"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="46"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="35">
+      <c r="A10" s="33">
         <v>9</v>
       </c>
       <c r="B10" s="14" t="s">
@@ -980,11 +982,11 @@
       <c r="E10" s="16">
         <v>44618</v>
       </c>
-      <c r="F10" s="45"/>
-      <c r="G10" s="48"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="46"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="35">
+      <c r="A11" s="33">
         <v>10</v>
       </c>
       <c r="B11" s="14" t="s">
@@ -999,11 +1001,11 @@
       <c r="E11" s="16">
         <v>44623</v>
       </c>
-      <c r="F11" s="45"/>
-      <c r="G11" s="48"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="46"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="35">
+      <c r="A12" s="33">
         <v>11</v>
       </c>
       <c r="B12" s="14" t="s">
@@ -1018,11 +1020,11 @@
       <c r="E12" s="16">
         <v>44620</v>
       </c>
-      <c r="F12" s="46"/>
-      <c r="G12" s="49"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="47"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="35">
+      <c r="A13" s="33">
         <v>12</v>
       </c>
       <c r="B13" s="14" t="s">
@@ -1035,7 +1037,7 @@
       <c r="G13" s="16"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="35">
+      <c r="A14" s="33">
         <v>13</v>
       </c>
       <c r="B14" s="14" t="s">
@@ -1048,7 +1050,7 @@
       <c r="G14" s="16"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="35">
+      <c r="A15" s="33">
         <v>14</v>
       </c>
       <c r="B15" s="14" t="s">
@@ -1061,7 +1063,7 @@
       <c r="G15" s="16"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="35">
+      <c r="A16" s="33">
         <v>15</v>
       </c>
       <c r="B16" s="14" t="s">
@@ -1074,7 +1076,7 @@
       <c r="G16" s="16"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="35">
+      <c r="A17" s="33">
         <v>16</v>
       </c>
       <c r="B17" s="14" t="s">
@@ -1087,7 +1089,7 @@
       <c r="G17" s="16"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="35">
+      <c r="A18" s="33">
         <v>17</v>
       </c>
       <c r="B18" s="14" t="s">
@@ -1100,7 +1102,7 @@
       <c r="G18" s="16"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="35">
+      <c r="A19" s="33">
         <v>18</v>
       </c>
       <c r="B19" s="14" t="s">
@@ -1113,7 +1115,7 @@
       <c r="G19" s="16"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="35">
+      <c r="A20" s="33">
         <v>19</v>
       </c>
       <c r="B20" s="14" t="s">
@@ -1126,7 +1128,7 @@
       <c r="G20" s="16"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="35">
+      <c r="A21" s="33">
         <v>20</v>
       </c>
       <c r="B21" s="14" t="s">
@@ -1139,7 +1141,7 @@
       <c r="G21" s="16"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="35">
+      <c r="A22" s="33">
         <v>21</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -1152,7 +1154,7 @@
       <c r="G22" s="16"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="35">
+      <c r="A23" s="33">
         <v>22</v>
       </c>
       <c r="B23" s="14" t="s">
@@ -1165,7 +1167,7 @@
       <c r="G23" s="16"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="35">
+      <c r="A24" s="33">
         <v>23</v>
       </c>
       <c r="B24" s="14" t="s">
@@ -1178,7 +1180,7 @@
       <c r="G24" s="16"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="35">
+      <c r="A25" s="33">
         <v>24</v>
       </c>
       <c r="B25" s="14" t="s">
@@ -1191,7 +1193,7 @@
       <c r="G25" s="16"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="35">
+      <c r="A26" s="33">
         <v>25</v>
       </c>
       <c r="B26" s="14" t="s">
@@ -1204,7 +1206,7 @@
       <c r="G26" s="16"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="35">
+      <c r="A27" s="33">
         <v>26</v>
       </c>
       <c r="B27" s="14" t="s">
@@ -1217,7 +1219,7 @@
       <c r="G27" s="16"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="35">
+      <c r="A28" s="33">
         <v>27</v>
       </c>
       <c r="B28" s="14" t="s">
@@ -1230,7 +1232,7 @@
       <c r="G28" s="16"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="35">
+      <c r="A29" s="33">
         <v>28</v>
       </c>
       <c r="B29" s="14" t="s">
@@ -1243,7 +1245,7 @@
       <c r="G29" s="16"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="35">
+      <c r="A30" s="33">
         <v>29</v>
       </c>
       <c r="B30" s="14" t="s">
@@ -1278,44 +1280,44 @@
     <col min="1" max="1" width="9.140625" style="17"/>
     <col min="2" max="2" width="28" style="17" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="31"/>
-    <col min="5" max="5" width="14" style="42" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" style="31" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="42" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="29"/>
+    <col min="5" max="5" width="14" style="40" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" style="29" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="40" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="54" t="s">
+      <c r="C1" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="55" t="s">
+      <c r="D1" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="56" t="s">
+      <c r="E1" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="F1" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="50" t="s">
+      <c r="G1" s="48" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="53"/>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="51"/>
+      <c r="A2" s="51"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="49"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
@@ -1327,14 +1329,14 @@
       <c r="C3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="29">
+      <c r="D3" s="27">
         <v>135390</v>
       </c>
-      <c r="E3" s="41">
+      <c r="E3" s="39">
         <v>44604</v>
       </c>
-      <c r="F3" s="29"/>
-      <c r="G3" s="41"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="39"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
@@ -1346,14 +1348,14 @@
       <c r="C4" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="29">
+      <c r="D4" s="27">
         <v>200620</v>
       </c>
-      <c r="E4" s="41">
+      <c r="E4" s="39">
         <v>44611</v>
       </c>
-      <c r="F4" s="29"/>
-      <c r="G4" s="41"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="39"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
@@ -1365,14 +1367,14 @@
       <c r="C5" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="29">
+      <c r="D5" s="27">
         <v>169860</v>
       </c>
-      <c r="E5" s="41">
+      <c r="E5" s="39">
         <v>44620</v>
       </c>
-      <c r="F5" s="29"/>
-      <c r="G5" s="41"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="39"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
@@ -1384,14 +1386,14 @@
       <c r="C6" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="29">
+      <c r="D6" s="27">
         <v>345590</v>
       </c>
-      <c r="E6" s="41">
+      <c r="E6" s="39">
         <v>44628</v>
       </c>
-      <c r="F6" s="29"/>
-      <c r="G6" s="41"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="39"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
@@ -1401,10 +1403,10 @@
         <v>20</v>
       </c>
       <c r="C7" s="13"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="41"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="39"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
@@ -1413,10 +1415,10 @@
       <c r="B8" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="40"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="41"/>
+      <c r="C8" s="38"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="39"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
@@ -1426,23 +1428,23 @@
         <v>20</v>
       </c>
       <c r="C9" s="13"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="41"/>
-    </row>
-    <row r="10" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="32">
+      <c r="D9" s="27"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="39"/>
+    </row>
+    <row r="10" spans="1:7" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="30">
         <v>8</v>
       </c>
       <c r="B10" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="32"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="34"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="32"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
@@ -1452,10 +1454,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="13"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="41"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="39"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
@@ -1465,10 +1467,10 @@
         <v>20</v>
       </c>
       <c r="C12" s="13"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="41"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="39"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
@@ -1478,10 +1480,10 @@
         <v>20</v>
       </c>
       <c r="C13" s="13"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="41"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="39"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="13">
@@ -1491,10 +1493,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="13"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="41"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="39"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="13">
@@ -1504,10 +1506,10 @@
         <v>20</v>
       </c>
       <c r="C15" s="13"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="41"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="39"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
@@ -1517,10 +1519,10 @@
         <v>20</v>
       </c>
       <c r="C16" s="13"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="41"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="39"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
@@ -1530,10 +1532,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="13"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="41"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="39"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
@@ -1543,10 +1545,10 @@
         <v>20</v>
       </c>
       <c r="C18" s="13"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="41"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="39"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
@@ -1556,10 +1558,10 @@
         <v>20</v>
       </c>
       <c r="C19" s="13"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="41"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="39"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="13">
@@ -1569,10 +1571,10 @@
         <v>20</v>
       </c>
       <c r="C20" s="13"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="41"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1591,10 +1593,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1609,234 +1611,246 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="54" t="s">
+      <c r="C1" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="44" t="s">
+      <c r="E1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="47" t="s">
+      <c r="F1" s="45" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="53"/>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="49"/>
+      <c r="A2" s="51"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="47"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
-        <v>1</v>
+      <c r="A3" s="13">
+        <v>5</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="11">
-        <v>44609</v>
-      </c>
-      <c r="E3" s="37">
-        <v>227000</v>
-      </c>
-      <c r="F3" s="10"/>
+      <c r="C3" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="9">
+        <v>44621</v>
+      </c>
+      <c r="E3" s="35">
+        <v>289000</v>
+      </c>
+      <c r="F3" s="28"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="13">
-        <v>2</v>
+      <c r="A4" s="33">
+        <v>7</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="36" t="s">
-        <v>17</v>
+      <c r="C4" s="34" t="s">
+        <v>31</v>
       </c>
       <c r="D4" s="9">
-        <v>44609</v>
-      </c>
-      <c r="E4" s="37">
-        <v>408400</v>
-      </c>
-      <c r="F4" s="30"/>
+        <v>44627</v>
+      </c>
+      <c r="E4" s="35">
+        <v>191300</v>
+      </c>
+      <c r="F4" s="28"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="9">
-        <v>44611</v>
-      </c>
-      <c r="E5" s="37">
-        <v>14400</v>
-      </c>
-      <c r="F5" s="30"/>
+      <c r="C5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="58">
+        <v>44634</v>
+      </c>
+      <c r="E5" s="6">
+        <v>297200</v>
+      </c>
+      <c r="F5" s="28"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="35">
-        <v>4</v>
+      <c r="A6" s="13">
+        <v>9</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="9">
-        <v>44614</v>
-      </c>
-      <c r="E6" s="37">
-        <v>227400</v>
-      </c>
-      <c r="F6" s="30"/>
+      <c r="C6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="59">
+        <v>44634</v>
+      </c>
+      <c r="E6" s="6">
+        <v>103550</v>
+      </c>
+      <c r="F6" s="28"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="36" t="s">
-        <v>27</v>
+      <c r="C7" s="34" t="s">
+        <v>29</v>
       </c>
       <c r="D7" s="9">
-        <v>44621</v>
-      </c>
-      <c r="E7" s="37">
-        <v>289000</v>
-      </c>
-      <c r="F7" s="30"/>
+        <v>44623</v>
+      </c>
+      <c r="E7" s="35">
+        <v>15000</v>
+      </c>
+      <c r="F7" s="28"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="13">
-        <v>6</v>
+      <c r="A8" s="7">
+        <v>1</v>
       </c>
       <c r="B8" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="9">
-        <v>44623</v>
-      </c>
-      <c r="E8" s="37">
-        <v>15000</v>
-      </c>
-      <c r="F8" s="30"/>
+      <c r="C8" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="11">
+        <v>44609</v>
+      </c>
+      <c r="E8" s="35">
+        <v>227000</v>
+      </c>
+      <c r="F8" s="10"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="35">
-        <v>7</v>
+      <c r="A9" s="13">
+        <v>2</v>
       </c>
       <c r="B9" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="36" t="s">
-        <v>31</v>
+      <c r="C9" s="34" t="s">
+        <v>17</v>
       </c>
       <c r="D9" s="9">
-        <v>44627</v>
-      </c>
-      <c r="E9" s="37">
-        <v>191300</v>
-      </c>
-      <c r="F9" s="30"/>
+        <v>44609</v>
+      </c>
+      <c r="E9" s="35">
+        <v>408400</v>
+      </c>
+      <c r="F9" s="28"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="13">
-        <v>8</v>
+      <c r="A10" s="33">
+        <v>4</v>
       </c>
       <c r="B10" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="36"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="30"/>
+      <c r="C10" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="9">
+        <v>44614</v>
+      </c>
+      <c r="E10" s="35">
+        <v>227400</v>
+      </c>
+      <c r="F10" s="28"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B11" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="36"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="30"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="35">
-        <v>10</v>
+      <c r="C11" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="9">
+        <v>44611</v>
+      </c>
+      <c r="E11" s="35">
+        <v>14400</v>
+      </c>
+      <c r="F11" s="28"/>
+    </row>
+    <row r="12" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="13">
+        <v>12</v>
       </c>
       <c r="B12" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="36"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="30"/>
-    </row>
-    <row r="13" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="13">
-        <v>11</v>
+      <c r="C12" s="23"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="28"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="33">
+        <v>13</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="30"/>
-    </row>
-    <row r="14" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="34"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="28"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="13">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B14" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="25"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="30"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="28"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="35">
-        <v>13</v>
+      <c r="A15" s="13">
+        <v>15</v>
       </c>
       <c r="B15" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="36"/>
+      <c r="C15" s="14"/>
       <c r="D15" s="16"/>
       <c r="E15" s="15"/>
-      <c r="F15" s="30"/>
+      <c r="F15" s="28"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="13">
-        <v>14</v>
+      <c r="A16" s="33">
+        <v>16</v>
       </c>
       <c r="B16" s="13" t="s">
         <v>15</v>
@@ -1844,11 +1858,11 @@
       <c r="C16" s="14"/>
       <c r="D16" s="16"/>
       <c r="E16" s="15"/>
-      <c r="F16" s="30"/>
+      <c r="F16" s="28"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B17" s="13" t="s">
         <v>15</v>
@@ -1856,11 +1870,11 @@
       <c r="C17" s="14"/>
       <c r="D17" s="16"/>
       <c r="E17" s="15"/>
-      <c r="F17" s="30"/>
+      <c r="F17" s="16"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="35">
-        <v>16</v>
+      <c r="A18" s="13">
+        <v>18</v>
       </c>
       <c r="B18" s="13" t="s">
         <v>15</v>
@@ -1868,11 +1882,11 @@
       <c r="C18" s="14"/>
       <c r="D18" s="16"/>
       <c r="E18" s="15"/>
-      <c r="F18" s="30"/>
+      <c r="F18" s="16"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="13">
-        <v>17</v>
+      <c r="A19" s="33">
+        <v>19</v>
       </c>
       <c r="B19" s="13" t="s">
         <v>15</v>
@@ -1884,7 +1898,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="13">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B20" s="13" t="s">
         <v>15</v>
@@ -1895,8 +1909,8 @@
       <c r="F20" s="16"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="35">
-        <v>19</v>
+      <c r="A21" s="13">
+        <v>21</v>
       </c>
       <c r="B21" s="13" t="s">
         <v>15</v>
@@ -1907,8 +1921,8 @@
       <c r="F21" s="16"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="13">
-        <v>20</v>
+      <c r="A22" s="33">
+        <v>22</v>
       </c>
       <c r="B22" s="13" t="s">
         <v>15</v>
@@ -1920,7 +1934,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="13">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B23" s="13" t="s">
         <v>15</v>
@@ -1931,8 +1945,8 @@
       <c r="F23" s="16"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="35">
-        <v>22</v>
+      <c r="A24" s="13">
+        <v>24</v>
       </c>
       <c r="B24" s="13" t="s">
         <v>15</v>
@@ -1943,8 +1957,8 @@
       <c r="F24" s="16"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="13">
-        <v>23</v>
+      <c r="A25" s="33">
+        <v>25</v>
       </c>
       <c r="B25" s="13" t="s">
         <v>15</v>
@@ -1956,7 +1970,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="13">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B26" s="13" t="s">
         <v>15</v>
@@ -1967,8 +1981,8 @@
       <c r="F26" s="16"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="35">
-        <v>25</v>
+      <c r="A27" s="13">
+        <v>27</v>
       </c>
       <c r="B27" s="13" t="s">
         <v>15</v>
@@ -1979,8 +1993,8 @@
       <c r="F27" s="16"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="13">
-        <v>26</v>
+      <c r="A28" s="33">
+        <v>28</v>
       </c>
       <c r="B28" s="13" t="s">
         <v>15</v>
@@ -1992,7 +2006,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="13">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B29" s="13" t="s">
         <v>15</v>
@@ -2003,8 +2017,8 @@
       <c r="F29" s="16"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="35">
-        <v>28</v>
+      <c r="A30" s="13">
+        <v>30</v>
       </c>
       <c r="B30" s="13" t="s">
         <v>15</v>
@@ -2015,8 +2029,8 @@
       <c r="F30" s="16"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="13">
-        <v>29</v>
+      <c r="A31" s="33">
+        <v>31</v>
       </c>
       <c r="B31" s="13" t="s">
         <v>15</v>
@@ -2028,7 +2042,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="13">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B32" s="13" t="s">
         <v>15</v>
@@ -2037,30 +2051,6 @@
       <c r="D32" s="16"/>
       <c r="E32" s="15"/>
       <c r="F32" s="16"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="35">
-        <v>31</v>
-      </c>
-      <c r="B33" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C33" s="14"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="16"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="13">
-        <v>32</v>
-      </c>
-      <c r="B34" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C34" s="14"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2090,44 +2080,44 @@
     <col min="2" max="2" width="19.7109375" style="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.5703125" style="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="18"/>
-    <col min="5" max="5" width="10.7109375" style="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="26" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.28515625" style="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="28" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="26" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.7109375" style="12" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="54" t="s">
+      <c r="C1" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="58" t="s">
+      <c r="D1" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="56" t="s">
+      <c r="E1" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="F1" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="50" t="s">
+      <c r="G1" s="48" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="53"/>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="51"/>
+      <c r="A2" s="51"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="49"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
@@ -2138,9 +2128,9 @@
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="15"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="41"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="39"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
@@ -2151,9 +2141,9 @@
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="15"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="41"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="39"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
@@ -2164,9 +2154,9 @@
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="15"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="41"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="39"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
@@ -2177,9 +2167,9 @@
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="15"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="41"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="39"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
@@ -2190,9 +2180,9 @@
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="15"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="41"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="39"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
@@ -2203,9 +2193,9 @@
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="15"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="41"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="39"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
@@ -2216,9 +2206,9 @@
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="15"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="41"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="39"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
@@ -2229,9 +2219,9 @@
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="15"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="41"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="39"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
@@ -2242,9 +2232,9 @@
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="15"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="41"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="39"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
@@ -2255,9 +2245,9 @@
       </c>
       <c r="C12" s="14"/>
       <c r="D12" s="15"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="41"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="39"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
@@ -2268,9 +2258,9 @@
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="15"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="41"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="39"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="13">
@@ -2281,9 +2271,9 @@
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="15"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="41"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="39"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="13">
@@ -2294,9 +2284,9 @@
       </c>
       <c r="C15" s="14"/>
       <c r="D15" s="15"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="41"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="39"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
@@ -2307,9 +2297,9 @@
       </c>
       <c r="C16" s="14"/>
       <c r="D16" s="15"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="41"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="39"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
@@ -2320,9 +2310,9 @@
       </c>
       <c r="C17" s="14"/>
       <c r="D17" s="15"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="41"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="39"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
@@ -2333,9 +2323,9 @@
       </c>
       <c r="C18" s="14"/>
       <c r="D18" s="15"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="41"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="39"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
@@ -2346,9 +2336,9 @@
       </c>
       <c r="C19" s="14"/>
       <c r="D19" s="15"/>
-      <c r="E19" s="27"/>
+      <c r="E19" s="25"/>
       <c r="F19" s="15"/>
-      <c r="G19" s="27"/>
+      <c r="G19" s="25"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="13">
@@ -2359,9 +2349,9 @@
       </c>
       <c r="C20" s="14"/>
       <c r="D20" s="15"/>
-      <c r="E20" s="27"/>
+      <c r="E20" s="25"/>
       <c r="F20" s="15"/>
-      <c r="G20" s="27"/>
+      <c r="G20" s="25"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
@@ -2372,9 +2362,9 @@
       </c>
       <c r="C21" s="14"/>
       <c r="D21" s="15"/>
-      <c r="E21" s="27"/>
+      <c r="E21" s="25"/>
       <c r="F21" s="15"/>
-      <c r="G21" s="27"/>
+      <c r="G21" s="25"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="13">
@@ -2385,9 +2375,9 @@
       </c>
       <c r="C22" s="14"/>
       <c r="D22" s="15"/>
-      <c r="E22" s="27"/>
+      <c r="E22" s="25"/>
       <c r="F22" s="15"/>
-      <c r="G22" s="27"/>
+      <c r="G22" s="25"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="13">
@@ -2398,9 +2388,9 @@
       </c>
       <c r="C23" s="14"/>
       <c r="D23" s="15"/>
-      <c r="E23" s="27"/>
+      <c r="E23" s="25"/>
       <c r="F23" s="15"/>
-      <c r="G23" s="27"/>
+      <c r="G23" s="25"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="13">
@@ -2411,9 +2401,9 @@
       </c>
       <c r="C24" s="14"/>
       <c r="D24" s="15"/>
-      <c r="E24" s="27"/>
+      <c r="E24" s="25"/>
       <c r="F24" s="15"/>
-      <c r="G24" s="27"/>
+      <c r="G24" s="25"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="13">
@@ -2424,9 +2414,9 @@
       </c>
       <c r="C25" s="14"/>
       <c r="D25" s="15"/>
-      <c r="E25" s="27"/>
+      <c r="E25" s="25"/>
       <c r="F25" s="15"/>
-      <c r="G25" s="27"/>
+      <c r="G25" s="25"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="13">
@@ -2437,9 +2427,9 @@
       </c>
       <c r="C26" s="14"/>
       <c r="D26" s="15"/>
-      <c r="E26" s="27"/>
+      <c r="E26" s="25"/>
       <c r="F26" s="15"/>
-      <c r="G26" s="27"/>
+      <c r="G26" s="25"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="13">
@@ -2450,9 +2440,9 @@
       </c>
       <c r="C27" s="14"/>
       <c r="D27" s="15"/>
-      <c r="E27" s="27"/>
+      <c r="E27" s="25"/>
       <c r="F27" s="15"/>
-      <c r="G27" s="27"/>
+      <c r="G27" s="25"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="13">
@@ -2463,9 +2453,9 @@
       </c>
       <c r="C28" s="14"/>
       <c r="D28" s="15"/>
-      <c r="E28" s="27"/>
+      <c r="E28" s="25"/>
       <c r="F28" s="15"/>
-      <c r="G28" s="27"/>
+      <c r="G28" s="25"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="13">
@@ -2476,9 +2466,9 @@
       </c>
       <c r="C29" s="14"/>
       <c r="D29" s="15"/>
-      <c r="E29" s="27"/>
+      <c r="E29" s="25"/>
       <c r="F29" s="15"/>
-      <c r="G29" s="27"/>
+      <c r="G29" s="25"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="13">
@@ -2489,9 +2479,9 @@
       </c>
       <c r="C30" s="14"/>
       <c r="D30" s="15"/>
-      <c r="E30" s="27"/>
+      <c r="E30" s="25"/>
       <c r="F30" s="15"/>
-      <c r="G30" s="27"/>
+      <c r="G30" s="25"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="13">
@@ -2502,9 +2492,9 @@
       </c>
       <c r="C31" s="14"/>
       <c r="D31" s="15"/>
-      <c r="E31" s="27"/>
+      <c r="E31" s="25"/>
       <c r="F31" s="15"/>
-      <c r="G31" s="27"/>
+      <c r="G31" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2536,32 +2526,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="54" t="s">
+      <c r="C1" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="55" t="s">
+      <c r="D1" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="57" t="s">
+      <c r="E1" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="47" t="s">
+      <c r="F1" s="45" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="53"/>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="49"/>
+      <c r="A2" s="51"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="47"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">

--- a/OneClick Hotel/FOURNISSEURS 2022 one.xlsx
+++ b/OneClick Hotel/FOURNISSEURS 2022 one.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\OneClick Hotel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BAA5E54-0626-488E-9B83-06E2B48F8870}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18F16226-787F-4CE4-B0CD-298F67CE85E8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,6 +19,7 @@
     <sheet name="QUICK STAR SERVICE RWANDA LTD" sheetId="8" r:id="rId4"/>
     <sheet name="KABANDA" sheetId="4" r:id="rId5"/>
     <sheet name="LIQUID" sheetId="7" r:id="rId6"/>
+    <sheet name="SOBANUKA LTD" sheetId="11" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="53">
   <si>
     <r>
       <t>N</t>
@@ -197,6 +198,12 @@
   </si>
   <si>
     <t>SDC007063634/59</t>
+  </si>
+  <si>
+    <t>SOBANUKA LTD</t>
+  </si>
+  <si>
+    <t>SDC007063999/38</t>
   </si>
 </sst>
 </file>
@@ -307,7 +314,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -445,6 +452,9 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -853,7 +863,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -907,11 +917,11 @@
       <c r="E2" s="35">
         <v>44602</v>
       </c>
-      <c r="F2" s="50">
+      <c r="F2" s="51">
         <f>D7+D6+D5+D4+D3+D2</f>
         <v>108260.5</v>
       </c>
-      <c r="G2" s="53" t="s">
+      <c r="G2" s="54" t="s">
         <v>35</v>
       </c>
     </row>
@@ -931,8 +941,8 @@
       <c r="E3" s="15">
         <v>44608</v>
       </c>
-      <c r="F3" s="51"/>
-      <c r="G3" s="54"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="55"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="32">
@@ -950,8 +960,8 @@
       <c r="E4" s="15">
         <v>44617</v>
       </c>
-      <c r="F4" s="51"/>
-      <c r="G4" s="54"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="55"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="32">
@@ -969,8 +979,8 @@
       <c r="E5" s="15">
         <v>44618</v>
       </c>
-      <c r="F5" s="51"/>
-      <c r="G5" s="54"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="55"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="32">
@@ -988,8 +998,8 @@
       <c r="E6" s="15">
         <v>44623</v>
       </c>
-      <c r="F6" s="51"/>
-      <c r="G6" s="54"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="55"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="32">
@@ -1007,8 +1017,8 @@
       <c r="E7" s="15">
         <v>44620</v>
       </c>
-      <c r="F7" s="52"/>
-      <c r="G7" s="55"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="56"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="32">
@@ -1026,11 +1036,11 @@
       <c r="E8" s="35">
         <v>44606</v>
       </c>
-      <c r="F8" s="56">
+      <c r="F8" s="57">
         <f>D12+D11+D10+D9+D8</f>
         <v>569778</v>
       </c>
-      <c r="G8" s="59">
+      <c r="G8" s="60">
         <v>44635</v>
       </c>
     </row>
@@ -1050,8 +1060,8 @@
       <c r="E9" s="15">
         <v>44614</v>
       </c>
-      <c r="F9" s="57"/>
-      <c r="G9" s="60"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="61"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="32">
@@ -1069,8 +1079,8 @@
       <c r="E10" s="15">
         <v>44621</v>
       </c>
-      <c r="F10" s="57"/>
-      <c r="G10" s="60"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="61"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="32">
@@ -1088,8 +1098,8 @@
       <c r="E11" s="15">
         <v>44627</v>
       </c>
-      <c r="F11" s="57"/>
-      <c r="G11" s="60"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="61"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="32">
@@ -1107,8 +1117,8 @@
       <c r="E12" s="15">
         <v>44629</v>
       </c>
-      <c r="F12" s="58"/>
-      <c r="G12" s="61"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="62"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="32">
@@ -1395,36 +1405,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="66" t="s">
+      <c r="C1" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="67" t="s">
+      <c r="D1" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="68" t="s">
+      <c r="E1" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="50" t="s">
+      <c r="F1" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="62" t="s">
+      <c r="G1" s="63" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="65"/>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="63"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="64"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
@@ -1798,36 +1808,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="66" t="s">
+      <c r="C1" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="50" t="s">
+      <c r="D1" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="69" t="s">
+      <c r="E1" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="50" t="s">
+      <c r="F1" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="53" t="s">
+      <c r="G1" s="54" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="65"/>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="55"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="56"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
@@ -1866,11 +1876,11 @@
       <c r="E4" s="10">
         <v>44609</v>
       </c>
-      <c r="F4" s="50">
+      <c r="F4" s="51">
         <f>D6+D5+D4</f>
         <v>862800</v>
       </c>
-      <c r="G4" s="53">
+      <c r="G4" s="54">
         <v>44615</v>
       </c>
     </row>
@@ -1890,8 +1900,8 @@
       <c r="E5" s="9">
         <v>44609</v>
       </c>
-      <c r="F5" s="51"/>
-      <c r="G5" s="54"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="55"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
@@ -1909,8 +1919,8 @@
       <c r="E6" s="9">
         <v>44614</v>
       </c>
-      <c r="F6" s="52"/>
-      <c r="G6" s="55"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="56"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="43">
@@ -1952,11 +1962,11 @@
       <c r="E8" s="9">
         <v>44621</v>
       </c>
-      <c r="F8" s="50">
+      <c r="F8" s="51">
         <f>D11+D10+D9+D8</f>
         <v>881050</v>
       </c>
-      <c r="G8" s="59">
+      <c r="G8" s="60">
         <v>44638</v>
       </c>
     </row>
@@ -1976,8 +1986,8 @@
       <c r="E9" s="9">
         <v>44627</v>
       </c>
-      <c r="F9" s="51"/>
-      <c r="G9" s="60"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="61"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="43">
@@ -1995,8 +2005,8 @@
       <c r="E10" s="41">
         <v>44634</v>
       </c>
-      <c r="F10" s="51"/>
-      <c r="G10" s="60"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="61"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
@@ -2014,8 +2024,8 @@
       <c r="E11" s="42">
         <v>44634</v>
       </c>
-      <c r="F11" s="52"/>
-      <c r="G11" s="61"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="62"/>
     </row>
     <row r="12" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
@@ -2297,17 +2307,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="G1:G2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
     <mergeCell ref="F8:F11"/>
     <mergeCell ref="G8:G11"/>
     <mergeCell ref="G4:G6"/>
     <mergeCell ref="F4:F6"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="F1:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2335,36 +2345,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="66" t="s">
+      <c r="C1" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="67" t="s">
+      <c r="D1" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="68" t="s">
+      <c r="E1" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="50" t="s">
+      <c r="F1" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="62" t="s">
+      <c r="G1" s="63" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="65"/>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="63"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="64"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
@@ -2655,36 +2665,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="66" t="s">
+      <c r="C1" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="70" t="s">
+      <c r="D1" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="68" t="s">
+      <c r="E1" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="50" t="s">
+      <c r="F1" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="62" t="s">
+      <c r="G1" s="63" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="65"/>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="63"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="64"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
@@ -3082,7 +3092,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3093,32 +3103,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="66" t="s">
+      <c r="C1" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="67" t="s">
+      <c r="D1" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="69" t="s">
+      <c r="E1" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="53" t="s">
+      <c r="F1" s="54" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="65"/>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="55"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="56"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -3150,6 +3160,106 @@
       </c>
       <c r="B5" s="1" t="s">
         <v>7</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE7398D5-8711-4EED-AAC4-9A4B0738DA5D}">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="67" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="70" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="54" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="66"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="56"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="6">
+        <v>600000</v>
+      </c>
+      <c r="E3" s="5">
+        <v>44651</v>
+      </c>
+      <c r="F3" s="50">
+        <v>44610</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="2"/>

--- a/OneClick Hotel/FOURNISSEURS 2022 one.xlsx
+++ b/OneClick Hotel/FOURNISSEURS 2022 one.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\OneClick Hotel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18F16226-787F-4CE4-B0CD-298F67CE85E8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0930BB9-E65A-4B47-9382-46B77C4706E7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -314,7 +314,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -455,6 +455,9 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -863,7 +866,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -903,7 +906,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="32">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>13</v>
@@ -917,17 +920,17 @@
       <c r="E2" s="35">
         <v>44602</v>
       </c>
-      <c r="F2" s="51">
+      <c r="F2" s="52">
         <f>D7+D6+D5+D4+D3+D2</f>
         <v>108260.5</v>
       </c>
-      <c r="G2" s="54" t="s">
+      <c r="G2" s="55" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="32">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>13</v>
@@ -941,12 +944,12 @@
       <c r="E3" s="15">
         <v>44608</v>
       </c>
-      <c r="F3" s="52"/>
-      <c r="G3" s="55"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="56"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="32">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>13</v>
@@ -960,12 +963,12 @@
       <c r="E4" s="15">
         <v>44617</v>
       </c>
-      <c r="F4" s="52"/>
-      <c r="G4" s="55"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="56"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="32">
-        <v>9</v>
+      <c r="A5" s="51">
+        <v>4</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>13</v>
@@ -979,12 +982,12 @@
       <c r="E5" s="15">
         <v>44618</v>
       </c>
-      <c r="F5" s="52"/>
-      <c r="G5" s="55"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="56"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="32">
-        <v>10</v>
+      <c r="A6" s="51">
+        <v>5</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>13</v>
@@ -998,12 +1001,12 @@
       <c r="E6" s="15">
         <v>44623</v>
       </c>
-      <c r="F6" s="52"/>
-      <c r="G6" s="55"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="56"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="32">
-        <v>11</v>
+      <c r="A7" s="51">
+        <v>6</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>13</v>
@@ -1017,12 +1020,12 @@
       <c r="E7" s="15">
         <v>44620</v>
       </c>
-      <c r="F7" s="53"/>
-      <c r="G7" s="56"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="57"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="32">
-        <v>1</v>
+      <c r="A8" s="51">
+        <v>7</v>
       </c>
       <c r="B8" s="13" t="s">
         <v>13</v>
@@ -1036,17 +1039,17 @@
       <c r="E8" s="35">
         <v>44606</v>
       </c>
-      <c r="F8" s="57">
+      <c r="F8" s="58">
         <f>D12+D11+D10+D9+D8</f>
         <v>569778</v>
       </c>
-      <c r="G8" s="60">
+      <c r="G8" s="55">
         <v>44635</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="32">
-        <v>2</v>
+      <c r="A9" s="51">
+        <v>8</v>
       </c>
       <c r="B9" s="13" t="s">
         <v>13</v>
@@ -1060,12 +1063,12 @@
       <c r="E9" s="15">
         <v>44614</v>
       </c>
-      <c r="F9" s="58"/>
-      <c r="G9" s="61"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="56"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="32">
-        <v>3</v>
+      <c r="A10" s="51">
+        <v>9</v>
       </c>
       <c r="B10" s="13" t="s">
         <v>13</v>
@@ -1079,12 +1082,12 @@
       <c r="E10" s="15">
         <v>44621</v>
       </c>
-      <c r="F10" s="58"/>
-      <c r="G10" s="61"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="56"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="32">
-        <v>4</v>
+      <c r="A11" s="51">
+        <v>10</v>
       </c>
       <c r="B11" s="13" t="s">
         <v>13</v>
@@ -1098,12 +1101,12 @@
       <c r="E11" s="15">
         <v>44627</v>
       </c>
-      <c r="F11" s="58"/>
-      <c r="G11" s="61"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="56"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="32">
-        <v>5</v>
+      <c r="A12" s="51">
+        <v>11</v>
       </c>
       <c r="B12" s="13" t="s">
         <v>13</v>
@@ -1117,11 +1120,11 @@
       <c r="E12" s="15">
         <v>44629</v>
       </c>
-      <c r="F12" s="59"/>
-      <c r="G12" s="62"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="57"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="32">
+      <c r="A13" s="51">
         <v>12</v>
       </c>
       <c r="B13" s="13" t="s">
@@ -1140,7 +1143,7 @@
       <c r="G13" s="15"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="32">
+      <c r="A14" s="51">
         <v>13</v>
       </c>
       <c r="B14" s="13" t="s">
@@ -1159,7 +1162,7 @@
       <c r="G14" s="15"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="32">
+      <c r="A15" s="51">
         <v>14</v>
       </c>
       <c r="B15" s="13" t="s">
@@ -1178,7 +1181,7 @@
       <c r="G15" s="15"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="32">
+      <c r="A16" s="51">
         <v>15</v>
       </c>
       <c r="B16" s="13" t="s">
@@ -1191,7 +1194,7 @@
       <c r="G16" s="15"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="32">
+      <c r="A17" s="51">
         <v>16</v>
       </c>
       <c r="B17" s="13" t="s">
@@ -1204,7 +1207,7 @@
       <c r="G17" s="15"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="32">
+      <c r="A18" s="51">
         <v>17</v>
       </c>
       <c r="B18" s="13" t="s">
@@ -1217,7 +1220,7 @@
       <c r="G18" s="15"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="32">
+      <c r="A19" s="51">
         <v>18</v>
       </c>
       <c r="B19" s="13" t="s">
@@ -1230,7 +1233,7 @@
       <c r="G19" s="15"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="32">
+      <c r="A20" s="51">
         <v>19</v>
       </c>
       <c r="B20" s="13" t="s">
@@ -1243,7 +1246,7 @@
       <c r="G20" s="15"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="32">
+      <c r="A21" s="51">
         <v>20</v>
       </c>
       <c r="B21" s="13" t="s">
@@ -1256,7 +1259,7 @@
       <c r="G21" s="15"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="32">
+      <c r="A22" s="51">
         <v>21</v>
       </c>
       <c r="B22" s="13" t="s">
@@ -1269,7 +1272,7 @@
       <c r="G22" s="15"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="32">
+      <c r="A23" s="51">
         <v>22</v>
       </c>
       <c r="B23" s="13" t="s">
@@ -1282,7 +1285,7 @@
       <c r="G23" s="15"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="32">
+      <c r="A24" s="51">
         <v>23</v>
       </c>
       <c r="B24" s="13" t="s">
@@ -1295,7 +1298,7 @@
       <c r="G24" s="15"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="32">
+      <c r="A25" s="51">
         <v>24</v>
       </c>
       <c r="B25" s="13" t="s">
@@ -1308,7 +1311,7 @@
       <c r="G25" s="15"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="32">
+      <c r="A26" s="51">
         <v>25</v>
       </c>
       <c r="B26" s="13" t="s">
@@ -1321,7 +1324,7 @@
       <c r="G26" s="15"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="32">
+      <c r="A27" s="51">
         <v>26</v>
       </c>
       <c r="B27" s="13" t="s">
@@ -1334,7 +1337,7 @@
       <c r="G27" s="15"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="32">
+      <c r="A28" s="51">
         <v>27</v>
       </c>
       <c r="B28" s="13" t="s">
@@ -1347,7 +1350,7 @@
       <c r="G28" s="15"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="32">
+      <c r="A29" s="51">
         <v>28</v>
       </c>
       <c r="B29" s="13" t="s">
@@ -1360,7 +1363,7 @@
       <c r="G29" s="15"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="32">
+      <c r="A30" s="51">
         <v>29</v>
       </c>
       <c r="B30" s="13" t="s">
@@ -1405,36 +1408,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="67" t="s">
+      <c r="C1" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="68" t="s">
+      <c r="D1" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="69" t="s">
+      <c r="E1" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="51" t="s">
+      <c r="F1" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="63" t="s">
+      <c r="G1" s="64" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="66"/>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="64"/>
+      <c r="A2" s="67"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="65"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
@@ -1808,36 +1811,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="67" t="s">
+      <c r="C1" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="70" t="s">
+      <c r="E1" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="51" t="s">
+      <c r="F1" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="54" t="s">
+      <c r="G1" s="55" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="66"/>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="56"/>
+      <c r="A2" s="67"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="57"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
@@ -1876,11 +1879,11 @@
       <c r="E4" s="10">
         <v>44609</v>
       </c>
-      <c r="F4" s="51">
+      <c r="F4" s="52">
         <f>D6+D5+D4</f>
         <v>862800</v>
       </c>
-      <c r="G4" s="54">
+      <c r="G4" s="55">
         <v>44615</v>
       </c>
     </row>
@@ -1900,8 +1903,8 @@
       <c r="E5" s="9">
         <v>44609</v>
       </c>
-      <c r="F5" s="52"/>
-      <c r="G5" s="55"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="56"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
@@ -1919,8 +1922,8 @@
       <c r="E6" s="9">
         <v>44614</v>
       </c>
-      <c r="F6" s="53"/>
-      <c r="G6" s="56"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="57"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="43">
@@ -1962,11 +1965,11 @@
       <c r="E8" s="9">
         <v>44621</v>
       </c>
-      <c r="F8" s="51">
+      <c r="F8" s="52">
         <f>D11+D10+D9+D8</f>
         <v>881050</v>
       </c>
-      <c r="G8" s="60">
+      <c r="G8" s="61">
         <v>44638</v>
       </c>
     </row>
@@ -1986,8 +1989,8 @@
       <c r="E9" s="9">
         <v>44627</v>
       </c>
-      <c r="F9" s="52"/>
-      <c r="G9" s="61"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="62"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="43">
@@ -2005,8 +2008,8 @@
       <c r="E10" s="41">
         <v>44634</v>
       </c>
-      <c r="F10" s="52"/>
-      <c r="G10" s="61"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="62"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
@@ -2024,8 +2027,8 @@
       <c r="E11" s="42">
         <v>44634</v>
       </c>
-      <c r="F11" s="53"/>
-      <c r="G11" s="62"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="63"/>
     </row>
     <row r="12" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
@@ -2307,17 +2310,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
     <mergeCell ref="F8:F11"/>
     <mergeCell ref="G8:G11"/>
     <mergeCell ref="G4:G6"/>
     <mergeCell ref="F4:F6"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2345,36 +2348,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="67" t="s">
+      <c r="C1" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="68" t="s">
+      <c r="D1" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="69" t="s">
+      <c r="E1" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="51" t="s">
+      <c r="F1" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="63" t="s">
+      <c r="G1" s="64" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="66"/>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="64"/>
+      <c r="A2" s="67"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="65"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
@@ -2665,36 +2668,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="67" t="s">
+      <c r="C1" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="71" t="s">
+      <c r="D1" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="69" t="s">
+      <c r="E1" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="51" t="s">
+      <c r="F1" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="63" t="s">
+      <c r="G1" s="64" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="66"/>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="64"/>
+      <c r="A2" s="67"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="65"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
@@ -3103,32 +3106,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="67" t="s">
+      <c r="C1" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="68" t="s">
+      <c r="D1" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="70" t="s">
+      <c r="E1" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="54" t="s">
+      <c r="F1" s="55" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="66"/>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="56"/>
+      <c r="A2" s="67"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="57"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -3195,32 +3198,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="67" t="s">
+      <c r="C1" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="68" t="s">
+      <c r="D1" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="70" t="s">
+      <c r="E1" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="54" t="s">
+      <c r="F1" s="55" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="66"/>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="56"/>
+      <c r="A2" s="67"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="57"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">

--- a/OneClick Hotel/FOURNISSEURS 2022 one.xlsx
+++ b/OneClick Hotel/FOURNISSEURS 2022 one.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\OneClick Hotel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0930BB9-E65A-4B47-9382-46B77C4706E7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60BB4F82-3BF2-4F1B-BD80-8850EDB84D2B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name=" KIME SUPERMARKET" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="KABANDA" sheetId="4" r:id="rId5"/>
     <sheet name="LIQUID" sheetId="7" r:id="rId6"/>
     <sheet name="SOBANUKA LTD" sheetId="11" r:id="rId7"/>
+    <sheet name="NIMEN GENERAL BUSINESS LTD" sheetId="12" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="69">
   <si>
     <r>
       <t>N</t>
@@ -204,6 +205,54 @@
   </si>
   <si>
     <t>SDC007063999/38</t>
+  </si>
+  <si>
+    <t>SDC002800324/7387</t>
+  </si>
+  <si>
+    <t>SDC002800324/7476</t>
+  </si>
+  <si>
+    <t>SDC002800324/7512</t>
+  </si>
+  <si>
+    <t>SDC002800324/7520</t>
+  </si>
+  <si>
+    <t>NIMEN GENERAL BUSINESS LTD</t>
+  </si>
+  <si>
+    <t>SDC010024405/164</t>
+  </si>
+  <si>
+    <t>SDC007063634/60</t>
+  </si>
+  <si>
+    <t>SDC010014500/2846</t>
+  </si>
+  <si>
+    <t>SDC010014500/2901</t>
+  </si>
+  <si>
+    <t>SDC010014500/2941</t>
+  </si>
+  <si>
+    <t>SDC002800324/7531</t>
+  </si>
+  <si>
+    <t>SDC002800324/7530</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>SDC007069937/288745</t>
+  </si>
+  <si>
+    <t>SDC011000445/37109</t>
+  </si>
+  <si>
+    <t>SDC011000445/36978</t>
   </si>
 </sst>
 </file>
@@ -250,7 +299,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -310,11 +359,359 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -328,129 +725,91 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -459,71 +818,300 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -865,522 +1453,565 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5" style="16" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="17"/>
-    <col min="5" max="5" width="10.7109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" style="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="11"/>
+    <col min="1" max="1" width="5" style="13" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="14"/>
+    <col min="5" max="5" width="10.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="35" t="s">
+      <c r="G1" s="70" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="32">
+      <c r="A2" s="48">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="34">
+      <c r="D2" s="51">
         <v>14407</v>
       </c>
-      <c r="E2" s="35">
+      <c r="E2" s="59">
         <v>44602</v>
       </c>
-      <c r="F2" s="52">
+      <c r="F2" s="96">
         <f>D7+D6+D5+D4+D3+D2</f>
         <v>108260.5</v>
       </c>
-      <c r="G2" s="55" t="s">
+      <c r="G2" s="99" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="32">
+      <c r="A3" s="52">
         <v>2</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="11">
         <v>29385</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="60">
         <v>44608</v>
       </c>
-      <c r="F3" s="53"/>
-      <c r="G3" s="56"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="100"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="32">
+      <c r="A4" s="52">
         <v>3</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="11">
         <v>7600</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="60">
         <v>44617</v>
       </c>
-      <c r="F4" s="53"/>
-      <c r="G4" s="56"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="100"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="51">
+      <c r="A5" s="52">
         <v>4</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="11">
         <v>15106</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="60">
         <v>44618</v>
       </c>
-      <c r="F5" s="53"/>
-      <c r="G5" s="56"/>
+      <c r="F5" s="97"/>
+      <c r="G5" s="100"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="51">
+      <c r="A6" s="52">
         <v>5</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="11">
         <v>29262.5</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="60">
         <v>44623</v>
       </c>
-      <c r="F6" s="53"/>
-      <c r="G6" s="56"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="51">
+      <c r="F6" s="97"/>
+      <c r="G6" s="100"/>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="53">
         <v>6</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="55">
         <v>12500</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="61">
         <v>44620</v>
       </c>
-      <c r="F7" s="54"/>
-      <c r="G7" s="57"/>
+      <c r="F7" s="98"/>
+      <c r="G7" s="101"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="51">
+      <c r="A8" s="48">
         <v>7</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="34">
+      <c r="D8" s="51">
         <v>154394</v>
       </c>
-      <c r="E8" s="35">
+      <c r="E8" s="59">
         <v>44606</v>
       </c>
-      <c r="F8" s="58">
+      <c r="F8" s="102">
         <f>D12+D11+D10+D9+D8</f>
         <v>569778</v>
       </c>
-      <c r="G8" s="55">
+      <c r="G8" s="105">
         <v>44635</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="51">
+      <c r="A9" s="52">
         <v>8</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="11">
         <v>55344</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="60">
         <v>44614</v>
       </c>
-      <c r="F9" s="59"/>
-      <c r="G9" s="56"/>
+      <c r="F9" s="103"/>
+      <c r="G9" s="106"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="51">
+      <c r="A10" s="52">
         <v>9</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="11">
         <v>123660</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="60">
         <v>44621</v>
       </c>
-      <c r="F10" s="59"/>
-      <c r="G10" s="56"/>
+      <c r="F10" s="103"/>
+      <c r="G10" s="106"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="51">
+      <c r="A11" s="52">
         <v>10</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="11">
         <v>49000</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="60">
         <v>44627</v>
       </c>
-      <c r="F11" s="59"/>
-      <c r="G11" s="56"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="51">
+      <c r="F11" s="103"/>
+      <c r="G11" s="106"/>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="53">
         <v>11</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="55">
         <v>187380</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="61">
         <v>44629</v>
       </c>
-      <c r="F12" s="60"/>
-      <c r="G12" s="57"/>
+      <c r="F12" s="104"/>
+      <c r="G12" s="107"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="51">
+      <c r="A13" s="48">
         <v>12</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="62">
         <v>41400</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="63">
         <v>44635</v>
       </c>
-      <c r="F13" s="14"/>
-      <c r="G13" s="15"/>
+      <c r="F13" s="102">
+        <f>D16+D15+D14+D13</f>
+        <v>350480</v>
+      </c>
+      <c r="G13" s="108">
+        <v>44656</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="51">
+      <c r="A14" s="52">
         <v>13</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D14" s="11">
         <v>133400</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E14" s="64">
         <v>44648</v>
       </c>
-      <c r="F14" s="14"/>
-      <c r="G14" s="15"/>
+      <c r="F14" s="103"/>
+      <c r="G14" s="109"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="51">
+      <c r="A15" s="52">
         <v>14</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="11">
         <v>140200</v>
       </c>
-      <c r="E15" s="15">
+      <c r="E15" s="64">
         <v>44648</v>
       </c>
-      <c r="F15" s="14"/>
-      <c r="G15" s="15"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="51">
+      <c r="F15" s="103"/>
+      <c r="G15" s="109"/>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="53">
         <v>15</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="15"/>
+      <c r="C16" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="55">
+        <v>35480</v>
+      </c>
+      <c r="E16" s="65">
+        <v>44641</v>
+      </c>
+      <c r="F16" s="104"/>
+      <c r="G16" s="110"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="51">
+      <c r="A17" s="37">
         <v>16</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="15"/>
+      <c r="C17" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="56">
+        <v>103900</v>
+      </c>
+      <c r="E17" s="57">
+        <v>44651</v>
+      </c>
+      <c r="F17" s="56"/>
+      <c r="G17" s="57"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="51">
+      <c r="A18" s="37">
         <v>17</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="15"/>
+      <c r="C18" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="16">
+        <v>109700</v>
+      </c>
+      <c r="E18" s="12">
+        <v>44655</v>
+      </c>
+      <c r="F18" s="11"/>
+      <c r="G18" s="12"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="51">
+      <c r="A19" s="37">
         <v>18</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="15"/>
+      <c r="C19" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="11">
+        <v>24400</v>
+      </c>
+      <c r="E19" s="12">
+        <v>44656</v>
+      </c>
+      <c r="F19" s="11"/>
+      <c r="G19" s="12"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="51">
+      <c r="A20" s="37">
         <v>19</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="15"/>
+      <c r="C20" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" s="11">
+        <v>11000</v>
+      </c>
+      <c r="E20" s="12">
+        <v>44657</v>
+      </c>
+      <c r="F20" s="11"/>
+      <c r="G20" s="12"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="51">
+      <c r="A21" s="37">
         <v>20</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="15"/>
+      <c r="C21" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" s="11">
+        <v>47700</v>
+      </c>
+      <c r="E21" s="12">
+        <v>44657</v>
+      </c>
+      <c r="F21" s="11"/>
+      <c r="G21" s="12"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="51">
+      <c r="A22" s="37">
         <v>21</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="15"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="12"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="51">
+      <c r="A23" s="37">
         <v>22</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="15"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="12"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="51">
+      <c r="A24" s="37">
         <v>23</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="15"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="12"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="51">
+      <c r="A25" s="37">
         <v>24</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="15"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="12"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="51">
+      <c r="A26" s="37">
         <v>25</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="15"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="12"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="51">
+      <c r="A27" s="37">
         <v>26</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="15"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="12"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="51">
+      <c r="A28" s="37">
         <v>27</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="15"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="12"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="51">
+      <c r="A29" s="37">
         <v>28</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="15"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="12"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="51">
+      <c r="A30" s="37">
         <v>29</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="15"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
     <mergeCell ref="F2:F7"/>
     <mergeCell ref="G2:G7"/>
     <mergeCell ref="F8:F12"/>
     <mergeCell ref="G8:G12"/>
+    <mergeCell ref="F13:F16"/>
+    <mergeCell ref="G13:G16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1392,388 +2023,396 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="16"/>
-    <col min="2" max="2" width="28" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="28"/>
-    <col min="5" max="5" width="14" style="39" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" style="28" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" style="39" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="16"/>
+    <col min="1" max="1" width="9.140625" style="13"/>
+    <col min="2" max="2" width="28" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="23"/>
+    <col min="5" max="5" width="14" style="31" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" style="23" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="31" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="69" t="s">
+      <c r="D1" s="116" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="70" t="s">
+      <c r="E1" s="117" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="52" t="s">
+      <c r="F1" s="118" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="64" t="s">
+      <c r="G1" s="111" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="67"/>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="65"/>
+      <c r="A2" s="114"/>
+      <c r="B2" s="115"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="112"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
+      <c r="A3" s="9">
         <v>1</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="26">
+      <c r="D3" s="21">
         <v>135390</v>
       </c>
-      <c r="E3" s="38">
+      <c r="E3" s="30">
         <v>44604</v>
       </c>
-      <c r="F3" s="26">
+      <c r="F3" s="21">
         <f>D3</f>
         <v>135390</v>
       </c>
-      <c r="G3" s="38" t="s">
+      <c r="G3" s="30" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
+      <c r="A4" s="9">
         <v>2</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="26">
+      <c r="D4" s="21">
         <v>200620</v>
       </c>
-      <c r="E4" s="38">
+      <c r="E4" s="30">
         <v>44611</v>
       </c>
-      <c r="F4" s="26">
+      <c r="F4" s="21">
         <f t="shared" ref="F4:F20" si="0">D4</f>
         <v>200620</v>
       </c>
-      <c r="G4" s="38">
+      <c r="G4" s="30">
         <v>44613</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
+      <c r="A5" s="9">
         <v>3</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="26">
+      <c r="D5" s="21">
         <v>169860</v>
       </c>
-      <c r="E5" s="38">
+      <c r="E5" s="30">
         <v>44620</v>
       </c>
-      <c r="F5" s="26">
+      <c r="F5" s="21">
         <f t="shared" si="0"/>
         <v>169860</v>
       </c>
-      <c r="G5" s="38">
+      <c r="G5" s="30">
         <v>44621</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
+      <c r="A6" s="9">
         <v>4</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="26">
+      <c r="D6" s="21">
         <v>345590</v>
       </c>
-      <c r="E6" s="38">
+      <c r="E6" s="30">
         <v>44628</v>
       </c>
-      <c r="F6" s="26">
+      <c r="F6" s="21">
         <f t="shared" si="0"/>
         <v>345590</v>
       </c>
-      <c r="G6" s="48">
+      <c r="G6" s="35">
         <v>44628</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="12">
+      <c r="A7" s="9">
         <v>5</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="26">
+      <c r="D7" s="21">
         <v>319290</v>
       </c>
-      <c r="E7" s="38">
+      <c r="E7" s="30">
         <v>44637</v>
       </c>
-      <c r="F7" s="26">
+      <c r="F7" s="21">
         <f t="shared" si="0"/>
         <v>319290</v>
       </c>
-      <c r="G7" s="48">
+      <c r="G7" s="35">
         <v>44638</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="12">
+      <c r="A8" s="9">
         <v>6</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="37" t="s">
+      <c r="C8" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="28">
+      <c r="D8" s="23">
         <v>308250</v>
       </c>
-      <c r="E8" s="38">
+      <c r="E8" s="30">
         <v>44646</v>
       </c>
-      <c r="F8" s="26">
+      <c r="F8" s="21">
         <f t="shared" si="0"/>
         <v>308250</v>
       </c>
-      <c r="G8" s="48">
+      <c r="G8" s="35">
         <v>44646</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="12">
+      <c r="A9" s="9">
         <v>7</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="26">
+      <c r="C9" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="21">
+        <v>403650</v>
+      </c>
+      <c r="E9" s="30">
+        <v>44652</v>
+      </c>
+      <c r="F9" s="21">
+        <f t="shared" si="0"/>
+        <v>403650</v>
+      </c>
+      <c r="G9" s="35">
+        <v>44652</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="24">
+        <v>8</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="24"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G9" s="38"/>
-    </row>
-    <row r="10" spans="1:7" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="29">
-        <v>8</v>
-      </c>
-      <c r="B10" s="12" t="s">
+      <c r="G10" s="26"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
+        <v>9</v>
+      </c>
+      <c r="B11" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="29"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="26">
+      <c r="C11" s="9"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G10" s="31"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="12">
-        <v>9</v>
-      </c>
-      <c r="B11" s="12" t="s">
+      <c r="G11" s="30"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
+        <v>10</v>
+      </c>
+      <c r="B12" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="26">
+      <c r="C12" s="9"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G11" s="38"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="12">
-        <v>10</v>
-      </c>
-      <c r="B12" s="12" t="s">
+      <c r="G12" s="30"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
+        <v>11</v>
+      </c>
+      <c r="B13" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="26">
+      <c r="C13" s="9"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G12" s="38"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="12">
-        <v>11</v>
-      </c>
-      <c r="B13" s="12" t="s">
+      <c r="G13" s="30"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
+        <v>12</v>
+      </c>
+      <c r="B14" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="26">
+      <c r="C14" s="9"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G13" s="38"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="12">
-        <v>12</v>
-      </c>
-      <c r="B14" s="12" t="s">
+      <c r="G14" s="30"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
+        <v>13</v>
+      </c>
+      <c r="B15" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="26">
+      <c r="C15" s="9"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G14" s="38"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="12">
-        <v>13</v>
-      </c>
-      <c r="B15" s="12" t="s">
+      <c r="G15" s="30"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
+        <v>14</v>
+      </c>
+      <c r="B16" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="26">
+      <c r="C16" s="9"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G15" s="38"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="12">
-        <v>14</v>
-      </c>
-      <c r="B16" s="12" t="s">
+      <c r="G16" s="30"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
+        <v>15</v>
+      </c>
+      <c r="B17" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="26">
+      <c r="C17" s="9"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G16" s="38"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="12">
-        <v>15</v>
-      </c>
-      <c r="B17" s="12" t="s">
+      <c r="G17" s="30"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
+        <v>16</v>
+      </c>
+      <c r="B18" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="26">
+      <c r="C18" s="9"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G17" s="38"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="12">
-        <v>16</v>
-      </c>
-      <c r="B18" s="12" t="s">
+      <c r="G18" s="30"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="9">
+        <v>17</v>
+      </c>
+      <c r="B19" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="26">
+      <c r="C19" s="9"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G18" s="38"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="12">
-        <v>17</v>
-      </c>
-      <c r="B19" s="12" t="s">
+      <c r="G19" s="30"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
+        <v>18</v>
+      </c>
+      <c r="B20" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="26">
+      <c r="C20" s="9"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G19" s="38"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="12">
-        <v>18</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G20" s="38"/>
+      <c r="G20" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1795,208 +2434,211 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D4:D6"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="11"/>
-    <col min="2" max="2" width="25.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="17"/>
-    <col min="5" max="5" width="10.7109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" style="28" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.85546875" style="47" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="11"/>
+    <col min="1" max="1" width="9.140625" style="8"/>
+    <col min="2" max="2" width="25.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="14"/>
+    <col min="5" max="5" width="10.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" style="23" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" style="34" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="52" t="s">
+      <c r="D1" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="71" t="s">
+      <c r="E1" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="52" t="s">
+      <c r="F1" s="118" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="55" t="s">
+      <c r="G1" s="123" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="67"/>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="57"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
+    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="120"/>
+      <c r="B2" s="113"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="124"/>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="72">
         <v>1</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="34">
+      <c r="D3" s="68">
         <v>15000</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="92">
         <v>44623</v>
       </c>
-      <c r="F3" s="45"/>
-      <c r="G3" s="27" t="s">
+      <c r="F3" s="94">
+        <f>D3</f>
+        <v>15000</v>
+      </c>
+      <c r="G3" s="93" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+      <c r="A4" s="48">
         <v>2</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="34">
+      <c r="D4" s="51">
         <v>227000</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="81">
         <v>44609</v>
       </c>
-      <c r="F4" s="52">
+      <c r="F4" s="96">
         <f>D6+D5+D4</f>
         <v>862800</v>
       </c>
-      <c r="G4" s="55">
+      <c r="G4" s="99">
         <v>44615</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
+      <c r="A5" s="76">
         <v>3</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="34">
+      <c r="D5" s="28">
         <v>408400</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="82">
         <v>44609</v>
       </c>
-      <c r="F5" s="53"/>
-      <c r="G5" s="56"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
+      <c r="F5" s="97"/>
+      <c r="G5" s="100"/>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="77">
         <v>4</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="34">
+      <c r="D6" s="80">
         <v>227400</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="83">
         <v>44614</v>
       </c>
-      <c r="F6" s="54"/>
-      <c r="G6" s="57"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="43">
+      <c r="F6" s="98"/>
+      <c r="G6" s="101"/>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="66">
         <v>5</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="34">
+      <c r="D7" s="68">
         <v>14400</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="92">
         <v>44611</v>
       </c>
-      <c r="F7" s="45">
+      <c r="F7" s="94">
         <f>D7</f>
         <v>14400</v>
       </c>
-      <c r="G7" s="27" t="s">
+      <c r="G7" s="93" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="12">
+      <c r="A8" s="84">
         <v>6</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="33" t="s">
+      <c r="C8" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="34">
+      <c r="D8" s="51">
         <v>289000</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="59">
         <v>44621</v>
       </c>
-      <c r="F8" s="52">
+      <c r="F8" s="96">
         <f>D11+D10+D9+D8</f>
         <v>881050</v>
       </c>
-      <c r="G8" s="61">
+      <c r="G8" s="105">
         <v>44638</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="12">
+      <c r="A9" s="76">
         <v>7</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="33" t="s">
+      <c r="C9" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="34">
+      <c r="D9" s="28">
         <v>191300</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="82">
         <v>44627</v>
       </c>
-      <c r="F9" s="53"/>
-      <c r="G9" s="62"/>
+      <c r="F9" s="97"/>
+      <c r="G9" s="106"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="43">
+      <c r="A10" s="52">
         <v>8</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -2005,322 +2647,347 @@
       <c r="D10" s="6">
         <v>297200</v>
       </c>
-      <c r="E10" s="41">
+      <c r="E10" s="87">
         <v>44634</v>
       </c>
-      <c r="F10" s="53"/>
-      <c r="G10" s="62"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="12">
+      <c r="F10" s="97"/>
+      <c r="G10" s="106"/>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="77">
         <v>9</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="86">
         <v>103550</v>
       </c>
-      <c r="E11" s="42">
+      <c r="E11" s="88">
         <v>44634</v>
       </c>
-      <c r="F11" s="54"/>
-      <c r="G11" s="63"/>
-    </row>
-    <row r="12" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="12">
+      <c r="F11" s="98"/>
+      <c r="G11" s="107"/>
+    </row>
+    <row r="12" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="84">
         <v>10</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="89" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="19">
+      <c r="D12" s="90">
         <v>130300</v>
       </c>
-      <c r="E12" s="20">
+      <c r="E12" s="91">
         <v>44641</v>
       </c>
-      <c r="F12" s="49"/>
-      <c r="G12" s="27"/>
+      <c r="F12" s="102">
+        <f>D17+D16+D15+D14+D13+D12</f>
+        <v>1185900</v>
+      </c>
+      <c r="G12" s="105">
+        <v>44655</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="43">
+      <c r="A13" s="52">
         <v>11</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="33" t="s">
+      <c r="C13" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="11">
         <v>322300</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="60">
         <v>44643</v>
       </c>
-      <c r="F13" s="26"/>
-      <c r="G13" s="27"/>
+      <c r="F13" s="103"/>
+      <c r="G13" s="106"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="12">
+      <c r="A14" s="76">
         <v>12</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D14" s="11">
         <v>224200</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E14" s="60">
         <v>44648</v>
       </c>
-      <c r="F14" s="26"/>
-      <c r="G14" s="27"/>
+      <c r="F14" s="103"/>
+      <c r="G14" s="106"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="43">
+      <c r="A15" s="52">
         <v>14</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="27"/>
+      <c r="C15" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="11">
+        <v>200250</v>
+      </c>
+      <c r="E15" s="60">
+        <v>44651</v>
+      </c>
+      <c r="F15" s="103"/>
+      <c r="G15" s="106"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="12">
+      <c r="A16" s="76">
         <v>15</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="27"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="12">
+      <c r="C16" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="11">
+        <v>64400</v>
+      </c>
+      <c r="E16" s="60">
+        <v>44653</v>
+      </c>
+      <c r="F16" s="103"/>
+      <c r="G16" s="106"/>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="77">
         <v>16</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="27"/>
+      <c r="C17" s="54" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="55">
+        <v>244450</v>
+      </c>
+      <c r="E17" s="61">
+        <v>44655</v>
+      </c>
+      <c r="F17" s="104"/>
+      <c r="G17" s="107"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="43">
+      <c r="A18" s="33">
         <v>17</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="27"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="74"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="12">
+      <c r="A19" s="9">
         <v>18</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="27"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="22"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="12">
+      <c r="A20" s="9">
         <v>19</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="27"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="22"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="43">
+      <c r="A21" s="33">
         <v>20</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="27"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="22"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="12">
+      <c r="A22" s="9">
         <v>21</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="27"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="22"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="12">
+      <c r="A23" s="9">
         <v>22</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="27"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="22"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="43">
+      <c r="A24" s="33">
         <v>23</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="27"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="22"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="12">
+      <c r="A25" s="9">
         <v>24</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="27"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="22"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="12">
+      <c r="A26" s="9">
         <v>25</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="27"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="22"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="43">
+      <c r="A27" s="33">
         <v>26</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="27"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="22"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="12">
+      <c r="A28" s="9">
         <v>27</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="27"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="22"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="12">
+      <c r="A29" s="9">
         <v>28</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="27"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="22"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="43">
+      <c r="A30" s="33">
         <v>29</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="27"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="22"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="12">
+      <c r="A31" s="9">
         <v>30</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="27"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="13">
+    <mergeCell ref="F12:F17"/>
+    <mergeCell ref="G12:G17"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="F8:F11"/>
     <mergeCell ref="G8:G11"/>
     <mergeCell ref="G4:G6"/>
     <mergeCell ref="F4:F6"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2329,308 +2996,95 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0039B9C7-FAB8-43B0-A06D-2703ADD462D7}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="16"/>
-    <col min="2" max="2" width="32" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="28"/>
-    <col min="5" max="5" width="14" style="39" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" style="28" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" style="39" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="16"/>
+    <col min="1" max="1" width="9.140625" style="13"/>
+    <col min="2" max="2" width="32" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="23"/>
+    <col min="5" max="5" width="14" style="31" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" style="23" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="31" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="69" t="s">
+      <c r="D1" s="116" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="70" t="s">
+      <c r="E1" s="117" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="52" t="s">
+      <c r="F1" s="118" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="64" t="s">
+      <c r="G1" s="111" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="67"/>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="65"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
+      <c r="A2" s="114"/>
+      <c r="B2" s="115"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="112"/>
+    </row>
+    <row r="3" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="39">
         <v>1</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="26">
+      <c r="D3" s="40">
         <v>150000</v>
       </c>
-      <c r="E3" s="38">
+      <c r="E3" s="41">
         <v>44634</v>
       </c>
-      <c r="F3" s="26">
+      <c r="F3" s="40">
         <f>D3</f>
         <v>150000</v>
       </c>
-      <c r="G3" s="48">
+      <c r="G3" s="41">
         <v>44636</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
+      <c r="A4" s="9">
         <v>2</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="26">
-        <f t="shared" ref="F4:F6" si="0">D4</f>
+      <c r="C4" s="9"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="21">
+        <f t="shared" ref="F4" si="0">D4</f>
         <v>0</v>
       </c>
-      <c r="G4" s="38"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
-        <v>3</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G5" s="38"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
-        <v>4</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G6" s="38"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="12">
-        <v>5</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="38"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="12">
-        <v>6</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="37"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="38"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="12">
-        <v>7</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="38"/>
-    </row>
-    <row r="10" spans="1:7" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="44">
-        <v>8</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="44"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="46"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="12">
-        <v>9</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="38"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="12">
-        <v>10</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="38"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="12">
-        <v>11</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="38"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="12">
-        <v>12</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="38"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="12">
-        <v>13</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="38"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="12">
-        <v>14</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="38"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="12">
-        <v>15</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="38"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="12">
-        <v>16</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="38"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="12">
-        <v>17</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="38"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="12">
-        <v>18</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="38"/>
+      <c r="G4" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2651,433 +3105,462 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="11"/>
-    <col min="2" max="2" width="19.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="17"/>
-    <col min="5" max="5" width="10.7109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" style="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="11"/>
+    <col min="1" max="1" width="9.140625" style="8"/>
+    <col min="2" max="2" width="19.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="14"/>
+    <col min="5" max="5" width="10.7109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="72" t="s">
+      <c r="D1" s="129" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="70" t="s">
+      <c r="E1" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="52" t="s">
+      <c r="F1" s="118" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="64" t="s">
+      <c r="G1" s="111" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="67"/>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="65"/>
+      <c r="A2" s="114"/>
+      <c r="B2" s="115"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="130"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="112"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
+      <c r="A3" s="9">
         <v>1</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="38"/>
+      <c r="C3" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="11">
+        <v>150000</v>
+      </c>
+      <c r="E3" s="18">
+        <v>44606</v>
+      </c>
+      <c r="F3" s="125">
+        <f>D4+D3</f>
+        <v>300000</v>
+      </c>
+      <c r="G3" s="127">
+        <v>44607</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
+      <c r="A4" s="9">
         <v>2</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="38"/>
+      <c r="C4" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="11">
+        <v>150000</v>
+      </c>
+      <c r="E4" s="18">
+        <v>44606</v>
+      </c>
+      <c r="F4" s="126"/>
+      <c r="G4" s="128"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
+      <c r="A5" s="9">
         <v>3</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="38"/>
+      <c r="C5" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="11">
+        <v>200000</v>
+      </c>
+      <c r="E5" s="18">
+        <v>44629</v>
+      </c>
+      <c r="F5" s="21">
+        <v>200000</v>
+      </c>
+      <c r="G5" s="30">
+        <v>44633</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
+      <c r="A6" s="9">
         <v>4</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="38"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="30"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="12">
+      <c r="A7" s="9">
         <v>5</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="38"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="30"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="12">
+      <c r="A8" s="9">
         <v>6</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="38"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="30"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="12">
+      <c r="A9" s="9">
         <v>7</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="38"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="30"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="12">
+      <c r="A10" s="9">
         <v>8</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="38"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="30"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="12">
+      <c r="A11" s="9">
         <v>9</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="38"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="30"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="12">
+      <c r="A12" s="9">
         <v>10</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="38"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="30"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="12">
+      <c r="A13" s="9">
         <v>11</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="38"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="30"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="12">
+      <c r="A14" s="9">
         <v>12</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="38"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="30"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="12">
+      <c r="A15" s="9">
         <v>13</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="38"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="30"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="12">
+      <c r="A16" s="9">
         <v>14</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="38"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="30"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="12">
+      <c r="A17" s="9">
         <v>15</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="38"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="30"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="12">
+      <c r="A18" s="9">
         <v>16</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="38"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="30"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="12">
+      <c r="A19" s="9">
         <v>17</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="24"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="19"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="12">
+      <c r="A20" s="9">
         <v>18</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="24"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="19"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="12">
+      <c r="A21" s="9">
         <v>19</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="24"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="19"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="12">
+      <c r="A22" s="9">
         <v>20</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="24"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="19"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="12">
+      <c r="A23" s="9">
         <v>21</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="24"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="19"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="12">
+      <c r="A24" s="9">
         <v>22</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="24"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="19"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="12">
+      <c r="A25" s="9">
         <v>23</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="24"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="19"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="12">
+      <c r="A26" s="9">
         <v>24</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="24"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="19"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="12">
+      <c r="A27" s="9">
         <v>25</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="24"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="19"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="12">
+      <c r="A28" s="9">
         <v>26</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="24"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="19"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="12">
+      <c r="A29" s="9">
         <v>27</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="24"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="19"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="12">
+      <c r="A30" s="9">
         <v>28</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="24"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="19"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="12">
+      <c r="A31" s="9">
         <v>29</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="24"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="9">
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -3092,85 +3575,311 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="13"/>
+    <col min="2" max="2" width="19.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="23"/>
+    <col min="5" max="5" width="14" style="31" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" style="23" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="31" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="69" t="s">
+      <c r="D1" s="116" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="71" t="s">
+      <c r="E1" s="117" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="118" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="111" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="120"/>
+      <c r="B2" s="113"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="132"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="84">
+        <v>1</v>
+      </c>
+      <c r="B3" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="133">
+        <v>176850.57</v>
+      </c>
+      <c r="E3" s="135">
+        <v>44649</v>
+      </c>
+      <c r="F3" s="102">
+        <f>D4+D3</f>
+        <v>530650.96</v>
+      </c>
+      <c r="G3" s="137">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="77">
+        <v>2</v>
+      </c>
+      <c r="B4" s="78" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="78" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="134">
+        <v>353800.39</v>
+      </c>
+      <c r="E4" s="136">
+        <v>44649</v>
+      </c>
+      <c r="F4" s="104"/>
+      <c r="G4" s="138"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="71">
+        <v>3</v>
+      </c>
+      <c r="B5" s="71" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="71"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="95"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="43"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
         <v>4</v>
       </c>
-      <c r="F1" s="55" t="s">
+      <c r="B6" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="46"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="67"/>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="57"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="B7" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="C7" s="9"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="46"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <v>6</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="C8" s="29"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="46"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
         <v>7</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
+      <c r="B9" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="46"/>
+    </row>
+    <row r="10" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="44">
+        <v>8</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="44"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="46"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
+        <v>9</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="46"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
+        <v>10</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="46"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
+        <v>11</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="46"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
+        <v>12</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="46"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
+        <v>13</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="30"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
+        <v>14</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="30"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
+        <v>15</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="30"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
+        <v>16</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="30"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="9">
+        <v>17</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="30"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
+        <v>18</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="30"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="9">
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -3187,7 +3896,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3198,32 +3907,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="69" t="s">
+      <c r="D1" s="116" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="71" t="s">
+      <c r="E1" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="55" t="s">
+      <c r="F1" s="123" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="67"/>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="57"/>
+      <c r="A2" s="114"/>
+      <c r="B2" s="115"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="131"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -3241,7 +3950,7 @@
       <c r="E3" s="5">
         <v>44651</v>
       </c>
-      <c r="F3" s="50">
+      <c r="F3" s="36">
         <v>44610</v>
       </c>
     </row>
@@ -3263,6 +3972,106 @@
       </c>
       <c r="B5" s="1" t="s">
         <v>51</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{461CFA21-11EF-4A7E-9198-58C844FBFE59}">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="113" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="115" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="115" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="116" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="122" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="123" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="114"/>
+      <c r="B2" s="115"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="131"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="6">
+        <v>199400</v>
+      </c>
+      <c r="E3" s="5">
+        <v>44648</v>
+      </c>
+      <c r="F3" s="36">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="2"/>

--- a/OneClick Hotel/FOURNISSEURS 2022 one.xlsx
+++ b/OneClick Hotel/FOURNISSEURS 2022 one.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\OneClick Hotel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60BB4F82-3BF2-4F1B-BD80-8850EDB84D2B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D802CAC9-EFA4-4D91-8A20-9881FB7CD0BD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name=" KIME SUPERMARKET" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="79">
   <si>
     <r>
       <t>N</t>
@@ -253,6 +253,36 @@
   </si>
   <si>
     <t>SDC011000445/36978</t>
+  </si>
+  <si>
+    <t>SDC002800324/7564</t>
+  </si>
+  <si>
+    <t>SDC002800324/7606</t>
+  </si>
+  <si>
+    <t>SDC007063634/63</t>
+  </si>
+  <si>
+    <t>SDC007063634/65</t>
+  </si>
+  <si>
+    <t>BANK</t>
+  </si>
+  <si>
+    <t>BK</t>
+  </si>
+  <si>
+    <t>BPR</t>
+  </si>
+  <si>
+    <t>SDC010014500/3020</t>
+  </si>
+  <si>
+    <t>SDC020024500/3073</t>
+  </si>
+  <si>
+    <t>SDC007063999/40</t>
   </si>
 </sst>
 </file>
@@ -711,7 +741,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -984,6 +1014,21 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1020,15 +1065,6 @@
     <xf numFmtId="164" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1089,28 +1125,31 @@
     <xf numFmtId="3" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1453,8 +1492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1508,11 +1547,11 @@
       <c r="E2" s="59">
         <v>44602</v>
       </c>
-      <c r="F2" s="96">
+      <c r="F2" s="101">
         <f>D7+D6+D5+D4+D3+D2</f>
         <v>108260.5</v>
       </c>
-      <c r="G2" s="99" t="s">
+      <c r="G2" s="104" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1532,8 +1571,8 @@
       <c r="E3" s="60">
         <v>44608</v>
       </c>
-      <c r="F3" s="97"/>
-      <c r="G3" s="100"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="105"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="52">
@@ -1551,8 +1590,8 @@
       <c r="E4" s="60">
         <v>44617</v>
       </c>
-      <c r="F4" s="97"/>
-      <c r="G4" s="100"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="105"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="52">
@@ -1570,8 +1609,8 @@
       <c r="E5" s="60">
         <v>44618</v>
       </c>
-      <c r="F5" s="97"/>
-      <c r="G5" s="100"/>
+      <c r="F5" s="102"/>
+      <c r="G5" s="105"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="52">
@@ -1589,8 +1628,8 @@
       <c r="E6" s="60">
         <v>44623</v>
       </c>
-      <c r="F6" s="97"/>
-      <c r="G6" s="100"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="105"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="53">
@@ -1608,8 +1647,8 @@
       <c r="E7" s="61">
         <v>44620</v>
       </c>
-      <c r="F7" s="98"/>
-      <c r="G7" s="101"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="106"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="48">
@@ -1627,11 +1666,11 @@
       <c r="E8" s="59">
         <v>44606</v>
       </c>
-      <c r="F8" s="102">
+      <c r="F8" s="107">
         <f>D12+D11+D10+D9+D8</f>
         <v>569778</v>
       </c>
-      <c r="G8" s="105">
+      <c r="G8" s="104">
         <v>44635</v>
       </c>
     </row>
@@ -1651,8 +1690,8 @@
       <c r="E9" s="60">
         <v>44614</v>
       </c>
-      <c r="F9" s="103"/>
-      <c r="G9" s="106"/>
+      <c r="F9" s="108"/>
+      <c r="G9" s="105"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="52">
@@ -1670,8 +1709,8 @@
       <c r="E10" s="60">
         <v>44621</v>
       </c>
-      <c r="F10" s="103"/>
-      <c r="G10" s="106"/>
+      <c r="F10" s="108"/>
+      <c r="G10" s="105"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="52">
@@ -1689,8 +1728,8 @@
       <c r="E11" s="60">
         <v>44627</v>
       </c>
-      <c r="F11" s="103"/>
-      <c r="G11" s="106"/>
+      <c r="F11" s="108"/>
+      <c r="G11" s="105"/>
     </row>
     <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="53">
@@ -1708,8 +1747,8 @@
       <c r="E12" s="61">
         <v>44629</v>
       </c>
-      <c r="F12" s="104"/>
-      <c r="G12" s="107"/>
+      <c r="F12" s="109"/>
+      <c r="G12" s="106"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="48">
@@ -1727,11 +1766,11 @@
       <c r="E13" s="63">
         <v>44635</v>
       </c>
-      <c r="F13" s="102">
+      <c r="F13" s="107">
         <f>D16+D15+D14+D13</f>
         <v>350480</v>
       </c>
-      <c r="G13" s="108">
+      <c r="G13" s="139">
         <v>44656</v>
       </c>
     </row>
@@ -1751,8 +1790,8 @@
       <c r="E14" s="64">
         <v>44648</v>
       </c>
-      <c r="F14" s="103"/>
-      <c r="G14" s="109"/>
+      <c r="F14" s="108"/>
+      <c r="G14" s="140"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="52">
@@ -1770,8 +1809,8 @@
       <c r="E15" s="64">
         <v>44648</v>
       </c>
-      <c r="F15" s="103"/>
-      <c r="G15" s="109"/>
+      <c r="F15" s="108"/>
+      <c r="G15" s="140"/>
     </row>
     <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="53">
@@ -1789,8 +1828,8 @@
       <c r="E16" s="65">
         <v>44641</v>
       </c>
-      <c r="F16" s="104"/>
-      <c r="G16" s="110"/>
+      <c r="F16" s="109"/>
+      <c r="G16" s="141"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="37">
@@ -1894,9 +1933,15 @@
       <c r="B22" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="12"/>
+      <c r="C22" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" s="11">
+        <v>70650</v>
+      </c>
+      <c r="E22" s="12">
+        <v>44662</v>
+      </c>
       <c r="F22" s="11"/>
       <c r="G22" s="12"/>
     </row>
@@ -1907,9 +1952,15 @@
       <c r="B23" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="12"/>
+      <c r="C23" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" s="11">
+        <v>89000</v>
+      </c>
+      <c r="E23" s="12">
+        <v>44667</v>
+      </c>
       <c r="F23" s="11"/>
       <c r="G23" s="12"/>
     </row>
@@ -2020,10 +2071,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2038,39 +2089,43 @@
     <col min="8" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="113" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="115" t="s">
+      <c r="B1" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="115" t="s">
+      <c r="C1" s="117" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="116" t="s">
+      <c r="D1" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="117" t="s">
+      <c r="E1" s="119" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="118" t="s">
+      <c r="F1" s="120" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="111" t="s">
+      <c r="G1" s="113" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="114"/>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="119"/>
-      <c r="G2" s="112"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="137" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="116"/>
+      <c r="B2" s="117"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="138"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>1</v>
       </c>
@@ -2093,8 +2148,9 @@
       <c r="G3" s="30" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" s="9"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>2</v>
       </c>
@@ -2117,8 +2173,11 @@
       <c r="G4" s="30">
         <v>44613</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>3</v>
       </c>
@@ -2141,8 +2200,11 @@
       <c r="G5" s="30">
         <v>44621</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>4</v>
       </c>
@@ -2165,8 +2227,11 @@
       <c r="G6" s="35">
         <v>44628</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>5</v>
       </c>
@@ -2189,8 +2254,11 @@
       <c r="G7" s="35">
         <v>44638</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>6</v>
       </c>
@@ -2213,8 +2281,11 @@
       <c r="G8" s="35">
         <v>44646</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>7</v>
       </c>
@@ -2237,40 +2308,65 @@
       <c r="G9" s="35">
         <v>44652</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H9" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="24">
         <v>8</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="26"/>
+      <c r="C10" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="25">
+        <v>291300</v>
+      </c>
+      <c r="E10" s="26">
+        <v>44660</v>
+      </c>
       <c r="F10" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G10" s="26"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>291300</v>
+      </c>
+      <c r="G10" s="26">
+        <v>44660</v>
+      </c>
+      <c r="H10" s="100" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>9</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="30"/>
+      <c r="C11" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" s="21">
+        <v>231520</v>
+      </c>
+      <c r="E11" s="30">
+        <v>44667</v>
+      </c>
       <c r="F11" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G11" s="30"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>231520</v>
+      </c>
+      <c r="G11" s="30">
+        <v>44667</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>10</v>
       </c>
@@ -2285,8 +2381,9 @@
         <v>0</v>
       </c>
       <c r="G12" s="30"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12" s="9"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>11</v>
       </c>
@@ -2301,8 +2398,9 @@
         <v>0</v>
       </c>
       <c r="G13" s="30"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13" s="9"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>12</v>
       </c>
@@ -2317,8 +2415,9 @@
         <v>0</v>
       </c>
       <c r="G14" s="30"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14" s="9"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
         <v>13</v>
       </c>
@@ -2333,8 +2432,9 @@
         <v>0</v>
       </c>
       <c r="G15" s="30"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15" s="9"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
         <v>14</v>
       </c>
@@ -2349,8 +2449,9 @@
         <v>0</v>
       </c>
       <c r="G16" s="30"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16" s="9"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
         <v>15</v>
       </c>
@@ -2365,8 +2466,9 @@
         <v>0</v>
       </c>
       <c r="G17" s="30"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17" s="9"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
         <v>16</v>
       </c>
@@ -2381,8 +2483,9 @@
         <v>0</v>
       </c>
       <c r="G18" s="30"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18" s="9"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
         <v>17</v>
       </c>
@@ -2397,8 +2500,9 @@
         <v>0</v>
       </c>
       <c r="G19" s="30"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19" s="9"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="9">
         <v>18</v>
       </c>
@@ -2413,9 +2517,11 @@
         <v>0</v>
       </c>
       <c r="G20" s="30"/>
+      <c r="H20" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="H1:H2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -2434,7 +2540,7 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2450,36 +2556,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="115" t="s">
+      <c r="B1" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="115" t="s">
+      <c r="C1" s="117" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="118" t="s">
+      <c r="D1" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="122" t="s">
+      <c r="E1" s="124" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="118" t="s">
+      <c r="F1" s="120" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="123" t="s">
+      <c r="G1" s="125" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="120"/>
-      <c r="B2" s="113"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="123"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="124"/>
+      <c r="A2" s="122"/>
+      <c r="B2" s="115"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="125"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="126"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="72">
@@ -2521,11 +2627,11 @@
       <c r="E4" s="81">
         <v>44609</v>
       </c>
-      <c r="F4" s="96">
+      <c r="F4" s="101">
         <f>D6+D5+D4</f>
         <v>862800</v>
       </c>
-      <c r="G4" s="99">
+      <c r="G4" s="104">
         <v>44615</v>
       </c>
     </row>
@@ -2545,8 +2651,8 @@
       <c r="E5" s="82">
         <v>44609</v>
       </c>
-      <c r="F5" s="97"/>
-      <c r="G5" s="100"/>
+      <c r="F5" s="102"/>
+      <c r="G5" s="105"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="77">
@@ -2564,8 +2670,8 @@
       <c r="E6" s="83">
         <v>44614</v>
       </c>
-      <c r="F6" s="98"/>
-      <c r="G6" s="101"/>
+      <c r="F6" s="103"/>
+      <c r="G6" s="106"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="66">
@@ -2607,11 +2713,11 @@
       <c r="E8" s="59">
         <v>44621</v>
       </c>
-      <c r="F8" s="96">
+      <c r="F8" s="101">
         <f>D11+D10+D9+D8</f>
         <v>881050</v>
       </c>
-      <c r="G8" s="105">
+      <c r="G8" s="110">
         <v>44638</v>
       </c>
     </row>
@@ -2631,8 +2737,8 @@
       <c r="E9" s="82">
         <v>44627</v>
       </c>
-      <c r="F9" s="97"/>
-      <c r="G9" s="106"/>
+      <c r="F9" s="102"/>
+      <c r="G9" s="111"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="52">
@@ -2650,8 +2756,8 @@
       <c r="E10" s="87">
         <v>44634</v>
       </c>
-      <c r="F10" s="97"/>
-      <c r="G10" s="106"/>
+      <c r="F10" s="102"/>
+      <c r="G10" s="111"/>
     </row>
     <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="77">
@@ -2669,8 +2775,8 @@
       <c r="E11" s="88">
         <v>44634</v>
       </c>
-      <c r="F11" s="98"/>
-      <c r="G11" s="107"/>
+      <c r="F11" s="103"/>
+      <c r="G11" s="112"/>
     </row>
     <row r="12" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="84">
@@ -2688,11 +2794,11 @@
       <c r="E12" s="91">
         <v>44641</v>
       </c>
-      <c r="F12" s="102">
+      <c r="F12" s="107">
         <f>D17+D16+D15+D14+D13+D12</f>
         <v>1185900</v>
       </c>
-      <c r="G12" s="105">
+      <c r="G12" s="110">
         <v>44655</v>
       </c>
     </row>
@@ -2712,8 +2818,8 @@
       <c r="E13" s="60">
         <v>44643</v>
       </c>
-      <c r="F13" s="103"/>
-      <c r="G13" s="106"/>
+      <c r="F13" s="108"/>
+      <c r="G13" s="111"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="76">
@@ -2731,8 +2837,8 @@
       <c r="E14" s="60">
         <v>44648</v>
       </c>
-      <c r="F14" s="103"/>
-      <c r="G14" s="106"/>
+      <c r="F14" s="108"/>
+      <c r="G14" s="111"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="52">
@@ -2750,8 +2856,8 @@
       <c r="E15" s="60">
         <v>44651</v>
       </c>
-      <c r="F15" s="103"/>
-      <c r="G15" s="106"/>
+      <c r="F15" s="108"/>
+      <c r="G15" s="111"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="76">
@@ -2769,8 +2875,8 @@
       <c r="E16" s="60">
         <v>44653</v>
       </c>
-      <c r="F16" s="103"/>
-      <c r="G16" s="106"/>
+      <c r="F16" s="108"/>
+      <c r="G16" s="111"/>
     </row>
     <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="77">
@@ -2788,8 +2894,8 @@
       <c r="E17" s="61">
         <v>44655</v>
       </c>
-      <c r="F17" s="104"/>
-      <c r="G17" s="107"/>
+      <c r="F17" s="109"/>
+      <c r="G17" s="112"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="33">
@@ -2798,9 +2904,15 @@
       <c r="B18" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="47"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="57"/>
+      <c r="C18" s="47" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" s="56">
+        <v>76400</v>
+      </c>
+      <c r="E18" s="57">
+        <v>44659</v>
+      </c>
       <c r="F18" s="38"/>
       <c r="G18" s="74"/>
     </row>
@@ -2811,9 +2923,15 @@
       <c r="B19" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="12"/>
+      <c r="C19" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" s="11">
+        <v>344500</v>
+      </c>
+      <c r="E19" s="12">
+        <v>44662</v>
+      </c>
       <c r="F19" s="21"/>
       <c r="G19" s="22"/>
     </row>
@@ -2999,7 +3117,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3015,36 +3133,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="115" t="s">
+      <c r="B1" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="115" t="s">
+      <c r="C1" s="117" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="116" t="s">
+      <c r="D1" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="117" t="s">
+      <c r="E1" s="119" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="118" t="s">
+      <c r="F1" s="120" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="111" t="s">
+      <c r="G1" s="113" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="114"/>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="119"/>
-      <c r="G2" s="112"/>
+      <c r="A2" s="116"/>
+      <c r="B2" s="117"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="114"/>
     </row>
     <row r="3" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="39">
@@ -3105,7 +3223,7 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3122,36 +3240,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="115" t="s">
+      <c r="B1" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="115" t="s">
+      <c r="C1" s="117" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="129" t="s">
+      <c r="D1" s="131" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="117" t="s">
+      <c r="E1" s="119" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="118" t="s">
+      <c r="F1" s="120" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="111" t="s">
+      <c r="G1" s="113" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="114"/>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="130"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="119"/>
-      <c r="G2" s="112"/>
+      <c r="A2" s="116"/>
+      <c r="B2" s="117"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="132"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="114"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
@@ -3169,11 +3287,11 @@
       <c r="E3" s="18">
         <v>44606</v>
       </c>
-      <c r="F3" s="125">
+      <c r="F3" s="127">
         <f>D4+D3</f>
         <v>300000</v>
       </c>
-      <c r="G3" s="127">
+      <c r="G3" s="129">
         <v>44607</v>
       </c>
     </row>
@@ -3193,8 +3311,8 @@
       <c r="E4" s="18">
         <v>44606</v>
       </c>
-      <c r="F4" s="126"/>
-      <c r="G4" s="128"/>
+      <c r="F4" s="128"/>
+      <c r="G4" s="130"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
@@ -3577,8 +3695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3594,36 +3712,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="115" t="s">
+      <c r="B1" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="115" t="s">
+      <c r="C1" s="117" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="116" t="s">
+      <c r="D1" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="117" t="s">
+      <c r="E1" s="119" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="118" t="s">
+      <c r="F1" s="120" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="111" t="s">
+      <c r="G1" s="113" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="120"/>
-      <c r="B2" s="113"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="118"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="132"/>
+      <c r="A2" s="122"/>
+      <c r="B2" s="115"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="133"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="84">
@@ -3635,17 +3753,17 @@
       <c r="C3" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="133">
+      <c r="D3" s="96">
         <v>176850.57</v>
       </c>
-      <c r="E3" s="135">
+      <c r="E3" s="98">
         <v>44649</v>
       </c>
-      <c r="F3" s="102">
+      <c r="F3" s="107">
         <f>D4+D3</f>
         <v>530650.96</v>
       </c>
-      <c r="G3" s="137">
+      <c r="G3" s="134">
         <v>44656</v>
       </c>
     </row>
@@ -3659,14 +3777,14 @@
       <c r="C4" s="78" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="134">
+      <c r="D4" s="97">
         <v>353800.39</v>
       </c>
-      <c r="E4" s="136">
+      <c r="E4" s="99">
         <v>44649</v>
       </c>
-      <c r="F4" s="104"/>
-      <c r="G4" s="138"/>
+      <c r="F4" s="109"/>
+      <c r="G4" s="135"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="71">
@@ -3896,7 +4014,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3907,32 +4025,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="115" t="s">
+      <c r="B1" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="115" t="s">
+      <c r="C1" s="117" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="116" t="s">
+      <c r="D1" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="122" t="s">
+      <c r="E1" s="124" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="123" t="s">
+      <c r="F1" s="125" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="114"/>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="131"/>
+      <c r="A2" s="116"/>
+      <c r="B2" s="117"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="136"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -3961,10 +4079,18 @@
       <c r="B4" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
+      <c r="C4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="2">
+        <v>245000</v>
+      </c>
+      <c r="E4" s="3">
+        <v>44651</v>
+      </c>
+      <c r="F4" s="3">
+        <v>44655</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -3996,7 +4122,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4007,32 +4133,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="115" t="s">
+      <c r="B1" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="115" t="s">
+      <c r="C1" s="117" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="116" t="s">
+      <c r="D1" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="122" t="s">
+      <c r="E1" s="124" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="123" t="s">
+      <c r="F1" s="125" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="114"/>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="131"/>
+      <c r="A2" s="116"/>
+      <c r="B2" s="117"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="136"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">

--- a/OneClick Hotel/FOURNISSEURS 2022 one.xlsx
+++ b/OneClick Hotel/FOURNISSEURS 2022 one.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\OneClick Hotel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D802CAC9-EFA4-4D91-8A20-9881FB7CD0BD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDC70D42-9E3D-4A2A-8DCA-46BA519F215A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name=" KIME SUPERMARKET" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="LIQUID" sheetId="7" r:id="rId6"/>
     <sheet name="SOBANUKA LTD" sheetId="11" r:id="rId7"/>
     <sheet name="NIMEN GENERAL BUSINESS LTD" sheetId="12" r:id="rId8"/>
+    <sheet name="GAS" sheetId="15" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="81">
   <si>
     <r>
       <t>N</t>
@@ -283,6 +284,12 @@
   </si>
   <si>
     <t>SDC007063999/40</t>
+  </si>
+  <si>
+    <t>GAS</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
   </si>
 </sst>
 </file>
@@ -329,7 +336,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -737,11 +744,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="152">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1056,6 +1076,48 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1063,33 +1125,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1137,20 +1172,35 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1492,7 +1542,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
@@ -1770,7 +1820,7 @@
         <f>D16+D15+D14+D13</f>
         <v>350480</v>
       </c>
-      <c r="G13" s="139">
+      <c r="G13" s="110">
         <v>44656</v>
       </c>
     </row>
@@ -1791,7 +1841,7 @@
         <v>44648</v>
       </c>
       <c r="F14" s="108"/>
-      <c r="G14" s="140"/>
+      <c r="G14" s="111"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="52">
@@ -1810,7 +1860,7 @@
         <v>44648</v>
       </c>
       <c r="F15" s="108"/>
-      <c r="G15" s="140"/>
+      <c r="G15" s="111"/>
     </row>
     <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="53">
@@ -1829,7 +1879,7 @@
         <v>44641</v>
       </c>
       <c r="F16" s="109"/>
-      <c r="G16" s="141"/>
+      <c r="G16" s="112"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="37">
@@ -2090,40 +2140,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="117" t="s">
+      <c r="B1" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="117" t="s">
+      <c r="C1" s="119" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="118" t="s">
+      <c r="D1" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="119" t="s">
+      <c r="E1" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="120" t="s">
+      <c r="F1" s="122" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="113" t="s">
+      <c r="G1" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="137" t="s">
+      <c r="H1" s="113" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="116"/>
-      <c r="B2" s="117"/>
-      <c r="C2" s="117"/>
-      <c r="D2" s="118"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="114"/>
-      <c r="H2" s="138"/>
+      <c r="A2" s="118"/>
+      <c r="B2" s="119"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="114"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
@@ -2556,36 +2606,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="117" t="s">
+      <c r="B1" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="117" t="s">
+      <c r="C1" s="119" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="120" t="s">
+      <c r="D1" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="124" t="s">
+      <c r="E1" s="129" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="120" t="s">
+      <c r="F1" s="122" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="125" t="s">
+      <c r="G1" s="130" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="122"/>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="125"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="126"/>
+      <c r="A2" s="127"/>
+      <c r="B2" s="117"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="128"/>
+      <c r="G2" s="131"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="72">
@@ -2717,7 +2767,7 @@
         <f>D11+D10+D9+D8</f>
         <v>881050</v>
       </c>
-      <c r="G8" s="110">
+      <c r="G8" s="124">
         <v>44638</v>
       </c>
     </row>
@@ -2738,7 +2788,7 @@
         <v>44627</v>
       </c>
       <c r="F9" s="102"/>
-      <c r="G9" s="111"/>
+      <c r="G9" s="125"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="52">
@@ -2757,7 +2807,7 @@
         <v>44634</v>
       </c>
       <c r="F10" s="102"/>
-      <c r="G10" s="111"/>
+      <c r="G10" s="125"/>
     </row>
     <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="77">
@@ -2776,7 +2826,7 @@
         <v>44634</v>
       </c>
       <c r="F11" s="103"/>
-      <c r="G11" s="112"/>
+      <c r="G11" s="126"/>
     </row>
     <row r="12" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="84">
@@ -2798,7 +2848,7 @@
         <f>D17+D16+D15+D14+D13+D12</f>
         <v>1185900</v>
       </c>
-      <c r="G12" s="110">
+      <c r="G12" s="124">
         <v>44655</v>
       </c>
     </row>
@@ -2819,7 +2869,7 @@
         <v>44643</v>
       </c>
       <c r="F13" s="108"/>
-      <c r="G13" s="111"/>
+      <c r="G13" s="125"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="76">
@@ -2838,7 +2888,7 @@
         <v>44648</v>
       </c>
       <c r="F14" s="108"/>
-      <c r="G14" s="111"/>
+      <c r="G14" s="125"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="52">
@@ -2857,7 +2907,7 @@
         <v>44651</v>
       </c>
       <c r="F15" s="108"/>
-      <c r="G15" s="111"/>
+      <c r="G15" s="125"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="76">
@@ -2876,7 +2926,7 @@
         <v>44653</v>
       </c>
       <c r="F16" s="108"/>
-      <c r="G16" s="111"/>
+      <c r="G16" s="125"/>
     </row>
     <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="77">
@@ -2895,7 +2945,7 @@
         <v>44655</v>
       </c>
       <c r="F17" s="109"/>
-      <c r="G17" s="112"/>
+      <c r="G17" s="126"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="33">
@@ -3133,36 +3183,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="117" t="s">
+      <c r="B1" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="117" t="s">
+      <c r="C1" s="119" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="118" t="s">
+      <c r="D1" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="119" t="s">
+      <c r="E1" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="120" t="s">
+      <c r="F1" s="122" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="113" t="s">
+      <c r="G1" s="115" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="116"/>
-      <c r="B2" s="117"/>
-      <c r="C2" s="117"/>
-      <c r="D2" s="118"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="114"/>
+      <c r="A2" s="118"/>
+      <c r="B2" s="119"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="116"/>
     </row>
     <row r="3" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="39">
@@ -3223,7 +3273,7 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3240,36 +3290,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="117" t="s">
+      <c r="B1" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="117" t="s">
+      <c r="C1" s="119" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="131" t="s">
+      <c r="D1" s="136" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="119" t="s">
+      <c r="E1" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="120" t="s">
+      <c r="F1" s="122" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="113" t="s">
+      <c r="G1" s="115" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="116"/>
-      <c r="B2" s="117"/>
-      <c r="C2" s="117"/>
-      <c r="D2" s="132"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="114"/>
+      <c r="A2" s="118"/>
+      <c r="B2" s="119"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="137"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="116"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
@@ -3287,11 +3337,11 @@
       <c r="E3" s="18">
         <v>44606</v>
       </c>
-      <c r="F3" s="127">
+      <c r="F3" s="132">
         <f>D4+D3</f>
         <v>300000</v>
       </c>
-      <c r="G3" s="129">
+      <c r="G3" s="134">
         <v>44607</v>
       </c>
     </row>
@@ -3311,8 +3361,8 @@
       <c r="E4" s="18">
         <v>44606</v>
       </c>
-      <c r="F4" s="128"/>
-      <c r="G4" s="130"/>
+      <c r="F4" s="133"/>
+      <c r="G4" s="135"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
@@ -3712,36 +3762,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="117" t="s">
+      <c r="B1" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="117" t="s">
+      <c r="C1" s="119" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="118" t="s">
+      <c r="D1" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="119" t="s">
+      <c r="E1" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="120" t="s">
+      <c r="F1" s="122" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="113" t="s">
+      <c r="G1" s="115" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="122"/>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="133"/>
+      <c r="A2" s="127"/>
+      <c r="B2" s="117"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="128"/>
+      <c r="G2" s="138"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="84">
@@ -3763,7 +3813,7 @@
         <f>D4+D3</f>
         <v>530650.96</v>
       </c>
-      <c r="G3" s="134">
+      <c r="G3" s="139">
         <v>44656</v>
       </c>
     </row>
@@ -3784,7 +3834,7 @@
         <v>44649</v>
       </c>
       <c r="F4" s="109"/>
-      <c r="G4" s="135"/>
+      <c r="G4" s="140"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="71">
@@ -4025,32 +4075,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="117" t="s">
+      <c r="B1" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="117" t="s">
+      <c r="C1" s="119" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="118" t="s">
+      <c r="D1" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="124" t="s">
+      <c r="E1" s="129" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="125" t="s">
+      <c r="F1" s="130" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="116"/>
-      <c r="B2" s="117"/>
-      <c r="C2" s="117"/>
-      <c r="D2" s="118"/>
-      <c r="E2" s="124"/>
-      <c r="F2" s="136"/>
+      <c r="A2" s="118"/>
+      <c r="B2" s="119"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="129"/>
+      <c r="F2" s="141"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -4122,7 +4172,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4133,32 +4183,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="117" t="s">
+      <c r="B1" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="117" t="s">
+      <c r="C1" s="119" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="118" t="s">
+      <c r="D1" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="124" t="s">
+      <c r="E1" s="129" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="125" t="s">
+      <c r="F1" s="130" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="116"/>
-      <c r="B2" s="117"/>
-      <c r="C2" s="117"/>
-      <c r="D2" s="118"/>
-      <c r="E2" s="124"/>
-      <c r="F2" s="136"/>
+      <c r="A2" s="118"/>
+      <c r="B2" s="119"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="129"/>
+      <c r="F2" s="141"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -4215,4 +4265,192 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C81F6997-5F18-4A45-8940-017B0B812502}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1:Q1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="144"/>
+    <col min="2" max="2" width="19.7109375" style="144" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="143"/>
+    <col min="4" max="4" width="10.7109375" style="147" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="144"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="117" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="119" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="120" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="121" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="118"/>
+      <c r="B2" s="119"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="121"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="142">
+        <v>8500</v>
+      </c>
+      <c r="D3" s="145">
+        <v>44623</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="2">
+        <v>18000</v>
+      </c>
+      <c r="D4" s="146">
+        <v>44622</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="2">
+        <v>48000</v>
+      </c>
+      <c r="D5" s="146">
+        <v>44628</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="2">
+        <v>30000</v>
+      </c>
+      <c r="D6" s="146">
+        <v>44632</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="2">
+        <v>30000</v>
+      </c>
+      <c r="D7" s="146">
+        <v>44636</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="2">
+        <v>32500</v>
+      </c>
+      <c r="D8" s="146">
+        <v>44640</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="2">
+        <v>33000</v>
+      </c>
+      <c r="D9" s="146">
+        <v>44643</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="2">
+        <v>40000</v>
+      </c>
+      <c r="D10" s="146">
+        <v>44648</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="2">
+        <v>32000</v>
+      </c>
+      <c r="D11" s="146">
+        <v>44650</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="148" t="s">
+        <v>80</v>
+      </c>
+      <c r="B12" s="149"/>
+      <c r="C12" s="150">
+        <f>SUM(C3:C11)</f>
+        <v>272000</v>
+      </c>
+      <c r="D12" s="151"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/OneClick Hotel/FOURNISSEURS 2022 one.xlsx
+++ b/OneClick Hotel/FOURNISSEURS 2022 one.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\OneClick Hotel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDC70D42-9E3D-4A2A-8DCA-46BA519F215A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F27D1E8-E0AB-4EDA-893C-7C6BE5587CE1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name=" KIME SUPERMARKET" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="109">
   <si>
     <r>
       <t>N</t>
@@ -103,9 +103,6 @@
     <t>SDC010014500/2006</t>
   </si>
   <si>
-    <t>SDC010014500/2042</t>
-  </si>
-  <si>
     <t>SDC007063634/50</t>
   </si>
   <si>
@@ -136,9 +133,6 @@
     <t>SDC002800304/72817</t>
   </si>
   <si>
-    <t>SDC010014500/2281</t>
-  </si>
-  <si>
     <t>SDC002800324/7232</t>
   </si>
   <si>
@@ -163,12 +157,6 @@
     <t>SDC010014500/2494</t>
   </si>
   <si>
-    <t>3/3/2022(by cash)</t>
-  </si>
-  <si>
-    <t>2/19/2022(by cash)</t>
-  </si>
-  <si>
     <t>SDC002800324/7317</t>
   </si>
   <si>
@@ -290,6 +278,102 @@
   </si>
   <si>
     <t>TOTAL</t>
+  </si>
+  <si>
+    <t>SDC010014500/3212</t>
+  </si>
+  <si>
+    <t>SDC002800324/7616</t>
+  </si>
+  <si>
+    <t>SDC002800324/7640</t>
+  </si>
+  <si>
+    <t>SDC002800324/7648</t>
+  </si>
+  <si>
+    <t>SDC010014500/3292</t>
+  </si>
+  <si>
+    <t>SDC002800324/7674</t>
+  </si>
+  <si>
+    <t>SDC002800324/7699</t>
+  </si>
+  <si>
+    <t>SDC002800324/7736</t>
+  </si>
+  <si>
+    <t>SDC002800324/7742</t>
+  </si>
+  <si>
+    <t>SDC002800324/7751</t>
+  </si>
+  <si>
+    <t>SDC002800324/7752</t>
+  </si>
+  <si>
+    <t>SDC002800324/7753</t>
+  </si>
+  <si>
+    <t>SDC007063634/69</t>
+  </si>
+  <si>
+    <t>SDC007063634/71</t>
+  </si>
+  <si>
+    <t>SDC010014500/3360</t>
+  </si>
+  <si>
+    <t>SDC010014500/3447</t>
+  </si>
+  <si>
+    <t>SDC010014500/3545</t>
+  </si>
+  <si>
+    <t>SDC007057826/11412</t>
+  </si>
+  <si>
+    <t>SDC007057826/11594</t>
+  </si>
+  <si>
+    <t>SDC007057826/11926</t>
+  </si>
+  <si>
+    <t>SDC007057826/12403</t>
+  </si>
+  <si>
+    <t>SDC007063999/44</t>
+  </si>
+  <si>
+    <t>SDC010014500/3600</t>
+  </si>
+  <si>
+    <t>SDC002800324/7796</t>
+  </si>
+  <si>
+    <t>SDC011000445/39896</t>
+  </si>
+  <si>
+    <t>SDC011000445/45436</t>
+  </si>
+  <si>
+    <t>SDC002800324/7833</t>
+  </si>
+  <si>
+    <t>SDC010014500/3693</t>
+  </si>
+  <si>
+    <t>SDC010014500/3764</t>
+  </si>
+  <si>
+    <t>SDC007063634/83</t>
+  </si>
+  <si>
+    <t>SDC010014500/3824</t>
+  </si>
+  <si>
+    <t>SDC002800324/7874</t>
   </si>
 </sst>
 </file>
@@ -300,7 +384,7 @@
     <numFmt numFmtId="164" formatCode="d/mm/yyyy;@"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -315,8 +399,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -329,14 +421,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="32">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -547,15 +633,6 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -650,9 +727,110 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -662,71 +840,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <right/>
+      <top/>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -736,32 +852,15 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="152">
+  <cellXfs count="199">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -790,9 +889,6 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -805,9 +901,6 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -820,175 +913,109 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -996,9 +1023,6 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1013,24 +1037,6 @@
     <xf numFmtId="3" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1049,127 +1055,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1190,16 +1076,354 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1540,73 +1764,77 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5" style="13" customWidth="1"/>
+    <col min="1" max="1" width="5" style="12" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="14"/>
-    <col min="5" max="5" width="10.7109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="13"/>
+    <col min="5" max="5" width="10.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" style="14" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="66" t="s">
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="67" t="s">
+      <c r="C1" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="68" t="s">
+      <c r="D1" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="69" t="s">
+      <c r="E1" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="68" t="s">
+      <c r="F1" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="70" t="s">
+      <c r="G1" s="106" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="48">
+      <c r="H1" s="103" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="35">
         <v>1</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="51">
+      <c r="D2" s="38">
         <v>14407</v>
       </c>
-      <c r="E2" s="59">
+      <c r="E2" s="44">
         <v>44602</v>
       </c>
-      <c r="F2" s="101">
+      <c r="F2" s="144">
         <f>D7+D6+D5+D4+D3+D2</f>
         <v>108260.5</v>
       </c>
-      <c r="G2" s="104" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="52">
+      <c r="G2" s="129" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="130"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="39">
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
@@ -1618,497 +1846,759 @@
       <c r="D3" s="11">
         <v>29385</v>
       </c>
-      <c r="E3" s="60">
+      <c r="E3" s="45">
         <v>44608</v>
       </c>
-      <c r="F3" s="102"/>
-      <c r="G3" s="105"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="52">
+      <c r="F3" s="145"/>
+      <c r="G3" s="131"/>
+      <c r="H3" s="132"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="39">
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D4" s="11">
         <v>7600</v>
       </c>
-      <c r="E4" s="60">
+      <c r="E4" s="45">
         <v>44617</v>
       </c>
-      <c r="F4" s="102"/>
-      <c r="G4" s="105"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="52">
+      <c r="F4" s="145"/>
+      <c r="G4" s="131"/>
+      <c r="H4" s="132"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="39">
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D5" s="11">
         <v>15106</v>
       </c>
-      <c r="E5" s="60">
+      <c r="E5" s="45">
         <v>44618</v>
       </c>
-      <c r="F5" s="102"/>
-      <c r="G5" s="105"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="52">
+      <c r="F5" s="145"/>
+      <c r="G5" s="131"/>
+      <c r="H5" s="132"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="39">
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6" s="11">
         <v>29262.5</v>
       </c>
-      <c r="E6" s="60">
+      <c r="E6" s="45">
         <v>44623</v>
       </c>
-      <c r="F6" s="102"/>
-      <c r="G6" s="105"/>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="53">
+      <c r="F6" s="145"/>
+      <c r="G6" s="131"/>
+      <c r="H6" s="132"/>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="40">
         <v>6</v>
       </c>
-      <c r="B7" s="54" t="s">
+      <c r="B7" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="54" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="55">
+      <c r="C7" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="42">
         <v>12500</v>
       </c>
-      <c r="E7" s="61">
+      <c r="E7" s="46">
         <v>44620</v>
       </c>
-      <c r="F7" s="103"/>
-      <c r="G7" s="106"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="48">
+      <c r="F7" s="146"/>
+      <c r="G7" s="133"/>
+      <c r="H7" s="134"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="35">
         <v>7</v>
       </c>
-      <c r="B8" s="49" t="s">
+      <c r="B8" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="58" t="s">
+      <c r="C8" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="51">
+      <c r="D8" s="38">
         <v>154394</v>
       </c>
-      <c r="E8" s="59">
+      <c r="E8" s="44">
         <v>44606</v>
       </c>
-      <c r="F8" s="107">
+      <c r="F8" s="135">
         <f>D12+D11+D10+D9+D8</f>
         <v>569778</v>
       </c>
-      <c r="G8" s="104">
+      <c r="G8" s="147">
         <v>44635</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="52">
+      <c r="H8" s="141" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="39">
         <v>8</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="11">
         <v>55344</v>
       </c>
-      <c r="E9" s="60">
+      <c r="E9" s="45">
         <v>44614</v>
       </c>
-      <c r="F9" s="108"/>
-      <c r="G9" s="105"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="52">
+      <c r="F9" s="136"/>
+      <c r="G9" s="148"/>
+      <c r="H9" s="142"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="39">
         <v>9</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D10" s="11">
         <v>123660</v>
       </c>
-      <c r="E10" s="60">
+      <c r="E10" s="45">
         <v>44621</v>
       </c>
-      <c r="F10" s="108"/>
-      <c r="G10" s="105"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="52">
+      <c r="F10" s="136"/>
+      <c r="G10" s="148"/>
+      <c r="H10" s="142"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="39">
         <v>10</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D11" s="11">
         <v>49000</v>
       </c>
-      <c r="E11" s="60">
+      <c r="E11" s="45">
         <v>44627</v>
       </c>
-      <c r="F11" s="108"/>
-      <c r="G11" s="105"/>
-    </row>
-    <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="53">
+      <c r="F11" s="136"/>
+      <c r="G11" s="148"/>
+      <c r="H11" s="142"/>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="40">
         <v>11</v>
       </c>
-      <c r="B12" s="54" t="s">
+      <c r="B12" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="54" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="55">
+      <c r="C12" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="42">
         <v>187380</v>
       </c>
-      <c r="E12" s="61">
+      <c r="E12" s="46">
         <v>44629</v>
       </c>
-      <c r="F12" s="109"/>
-      <c r="G12" s="106"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="48">
+      <c r="F12" s="137"/>
+      <c r="G12" s="149"/>
+      <c r="H12" s="143"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="35">
         <v>12</v>
       </c>
-      <c r="B13" s="49" t="s">
+      <c r="B13" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="49" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="62">
+      <c r="C13" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="47">
         <v>41400</v>
       </c>
-      <c r="E13" s="63">
+      <c r="E13" s="48">
         <v>44635</v>
       </c>
-      <c r="F13" s="107">
+      <c r="F13" s="135">
         <f>D16+D15+D14+D13</f>
         <v>350480</v>
       </c>
-      <c r="G13" s="110">
+      <c r="G13" s="150">
         <v>44656</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="52">
+      <c r="H13" s="141" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="39">
         <v>13</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D14" s="11">
         <v>133400</v>
       </c>
-      <c r="E14" s="64">
+      <c r="E14" s="49">
         <v>44648</v>
       </c>
-      <c r="F14" s="108"/>
-      <c r="G14" s="111"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="52">
+      <c r="F14" s="136"/>
+      <c r="G14" s="151"/>
+      <c r="H14" s="142"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="39">
         <v>14</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D15" s="11">
         <v>140200</v>
       </c>
-      <c r="E15" s="64">
+      <c r="E15" s="49">
         <v>44648</v>
       </c>
-      <c r="F15" s="108"/>
-      <c r="G15" s="111"/>
-    </row>
-    <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="53">
+      <c r="F15" s="136"/>
+      <c r="G15" s="151"/>
+      <c r="H15" s="142"/>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="40">
         <v>15</v>
       </c>
-      <c r="B16" s="54" t="s">
+      <c r="B16" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="54" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" s="55">
+      <c r="C16" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="42">
         <v>35480</v>
       </c>
-      <c r="E16" s="65">
+      <c r="E16" s="50">
         <v>44641</v>
       </c>
-      <c r="F16" s="109"/>
-      <c r="G16" s="112"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="37">
+      <c r="F16" s="137"/>
+      <c r="G16" s="152"/>
+      <c r="H16" s="143"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="35">
         <v>16</v>
       </c>
-      <c r="B17" s="47" t="s">
+      <c r="B17" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="47" t="s">
-        <v>54</v>
-      </c>
-      <c r="D17" s="56">
+      <c r="C17" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="47">
         <v>103900</v>
       </c>
-      <c r="E17" s="57">
+      <c r="E17" s="91">
         <v>44651</v>
       </c>
-      <c r="F17" s="56"/>
-      <c r="G17" s="57"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="37">
+      <c r="F17" s="135">
+        <f>D26+D25+D24+D23+D22+D21+D20+D19+D18+D17+D27+D28</f>
+        <v>968300</v>
+      </c>
+      <c r="G17" s="138">
+        <v>44681</v>
+      </c>
+      <c r="H17" s="141" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="39">
         <v>17</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>13</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D18" s="16">
+        <v>51</v>
+      </c>
+      <c r="D18" s="15">
         <v>109700</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E18" s="45">
         <v>44655</v>
       </c>
-      <c r="F18" s="11"/>
-      <c r="G18" s="12"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="37">
+      <c r="F18" s="136"/>
+      <c r="G18" s="139"/>
+      <c r="H18" s="142"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="39">
         <v>18</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>13</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D19" s="11">
         <v>24400</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E19" s="45">
         <v>44656</v>
       </c>
-      <c r="F19" s="11"/>
-      <c r="G19" s="12"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="37">
+      <c r="F19" s="136"/>
+      <c r="G19" s="139"/>
+      <c r="H19" s="142"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="39">
         <v>19</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>13</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D20" s="11">
         <v>11000</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E20" s="45">
         <v>44657</v>
       </c>
-      <c r="F20" s="11"/>
-      <c r="G20" s="12"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="37">
+      <c r="F20" s="136"/>
+      <c r="G20" s="139"/>
+      <c r="H20" s="142"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="39">
         <v>20</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>13</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D21" s="11">
         <v>47700</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E21" s="45">
         <v>44657</v>
       </c>
-      <c r="F21" s="11"/>
-      <c r="G21" s="12"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="37">
+      <c r="F21" s="136"/>
+      <c r="G21" s="139"/>
+      <c r="H21" s="142"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="39">
         <v>21</v>
       </c>
       <c r="B22" s="10" t="s">
         <v>13</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D22" s="11">
         <v>70650</v>
       </c>
-      <c r="E22" s="12">
+      <c r="E22" s="45">
         <v>44662</v>
       </c>
-      <c r="F22" s="11"/>
-      <c r="G22" s="12"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="37">
+      <c r="F22" s="136"/>
+      <c r="G22" s="139"/>
+      <c r="H22" s="142"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="39">
         <v>22</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>13</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D23" s="11">
         <v>89000</v>
       </c>
-      <c r="E23" s="12">
+      <c r="E23" s="45">
         <v>44667</v>
       </c>
-      <c r="F23" s="11"/>
-      <c r="G23" s="12"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="37">
+      <c r="F23" s="136"/>
+      <c r="G23" s="139"/>
+      <c r="H23" s="142"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="39">
         <v>23</v>
       </c>
       <c r="B24" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="12"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="37">
+      <c r="C24" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" s="11">
+        <v>103550</v>
+      </c>
+      <c r="E24" s="45">
+        <v>44669</v>
+      </c>
+      <c r="F24" s="136"/>
+      <c r="G24" s="139"/>
+      <c r="H24" s="142"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="39">
         <v>24</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="12"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="37">
+      <c r="C25" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25" s="11">
+        <v>112500</v>
+      </c>
+      <c r="E25" s="45">
+        <v>44671</v>
+      </c>
+      <c r="F25" s="136"/>
+      <c r="G25" s="139"/>
+      <c r="H25" s="142"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="102">
         <v>25</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="12"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="37">
+      <c r="C26" s="103" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26" s="104">
+        <v>18400</v>
+      </c>
+      <c r="E26" s="105">
+        <v>44672</v>
+      </c>
+      <c r="F26" s="136"/>
+      <c r="G26" s="139"/>
+      <c r="H26" s="142"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="39">
         <v>26</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="12"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="37">
+      <c r="C27" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D27" s="11">
+        <v>214000</v>
+      </c>
+      <c r="E27" s="45">
+        <v>44676</v>
+      </c>
+      <c r="F27" s="136"/>
+      <c r="G27" s="139"/>
+      <c r="H27" s="142"/>
+    </row>
+    <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="102">
         <v>27</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="10"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="12"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="37">
+      <c r="C28" s="103" t="s">
+        <v>83</v>
+      </c>
+      <c r="D28" s="104">
+        <v>63500</v>
+      </c>
+      <c r="E28" s="105">
+        <v>44679</v>
+      </c>
+      <c r="F28" s="137"/>
+      <c r="G28" s="140"/>
+      <c r="H28" s="143"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="102">
         <v>28</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="10"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="12"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="37">
+      <c r="C29" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D29" s="11">
+        <v>87700</v>
+      </c>
+      <c r="E29" s="107">
+        <v>44683</v>
+      </c>
+      <c r="F29" s="128"/>
+      <c r="G29" s="126"/>
+      <c r="H29" s="127"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="39">
         <v>29</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="10"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="12"/>
+      <c r="C30" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D30" s="11">
+        <v>54000</v>
+      </c>
+      <c r="E30" s="107">
+        <v>44684</v>
+      </c>
       <c r="F30" s="11"/>
-      <c r="G30" s="12"/>
+      <c r="G30" s="107"/>
+      <c r="H30" s="10"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="102">
+        <v>30</v>
+      </c>
+      <c r="B31" s="103" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D31" s="11">
+        <v>91950</v>
+      </c>
+      <c r="E31" s="107">
+        <v>44686</v>
+      </c>
+      <c r="F31" s="11"/>
+      <c r="G31" s="107"/>
+      <c r="H31" s="10"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="102">
+        <v>31</v>
+      </c>
+      <c r="B32" s="103" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D32" s="11">
+        <v>21000</v>
+      </c>
+      <c r="E32" s="107">
+        <v>44686</v>
+      </c>
+      <c r="F32" s="11"/>
+      <c r="G32" s="107"/>
+      <c r="H32" s="10"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="39">
+        <v>32</v>
+      </c>
+      <c r="B33" s="103" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D33" s="11">
+        <v>27500</v>
+      </c>
+      <c r="E33" s="107">
+        <v>44686</v>
+      </c>
+      <c r="F33" s="11"/>
+      <c r="G33" s="107"/>
+      <c r="H33" s="10"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="102">
+        <v>33</v>
+      </c>
+      <c r="B34" s="103" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D34" s="6">
+        <v>131000</v>
+      </c>
+      <c r="E34" s="94">
+        <v>44690</v>
+      </c>
+      <c r="F34" s="11"/>
+      <c r="G34" s="107"/>
+      <c r="H34" s="10"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="102">
+        <v>34</v>
+      </c>
+      <c r="B35" s="103" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D35" s="6">
+        <v>137000</v>
+      </c>
+      <c r="E35" s="94">
+        <v>44693</v>
+      </c>
+      <c r="F35" s="11"/>
+      <c r="G35" s="107"/>
+      <c r="H35" s="10"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="39">
+        <v>35</v>
+      </c>
+      <c r="B36" s="103" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D36" s="11">
+        <v>215777</v>
+      </c>
+      <c r="E36" s="107">
+        <v>44697</v>
+      </c>
+      <c r="F36" s="11"/>
+      <c r="G36" s="107"/>
+      <c r="H36" s="10"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="102">
+        <v>36</v>
+      </c>
+      <c r="B37" s="103" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" s="10"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="107"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="107"/>
+      <c r="H37" s="10"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="102">
+        <v>37</v>
+      </c>
+      <c r="B38" s="103" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" s="10"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="107"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="107"/>
+      <c r="H38" s="10"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="39">
+        <v>38</v>
+      </c>
+      <c r="B39" s="103" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" s="10"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="107"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="107"/>
+      <c r="H39" s="10"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="102">
+        <v>39</v>
+      </c>
+      <c r="B40" s="103" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40" s="10"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="107"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="107"/>
+      <c r="H40" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="11">
+    <mergeCell ref="G2:H7"/>
+    <mergeCell ref="F17:F28"/>
+    <mergeCell ref="G17:G28"/>
+    <mergeCell ref="H8:H12"/>
+    <mergeCell ref="H13:H16"/>
+    <mergeCell ref="H17:H28"/>
     <mergeCell ref="F2:F7"/>
-    <mergeCell ref="G2:G7"/>
     <mergeCell ref="F8:F12"/>
     <mergeCell ref="G8:G12"/>
     <mergeCell ref="F13:F16"/>
@@ -2124,79 +2614,79 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="13"/>
-    <col min="2" max="2" width="28" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="23"/>
-    <col min="5" max="5" width="14" style="31" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" style="23" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" style="31" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="13"/>
+    <col min="1" max="1" width="9.140625" style="12"/>
+    <col min="2" max="2" width="28" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" style="25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" style="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="157" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="119" t="s">
+      <c r="B1" s="159" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="119" t="s">
+      <c r="C1" s="159" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="120" t="s">
+      <c r="D1" s="160" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="121" t="s">
+      <c r="E1" s="161" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="122" t="s">
+      <c r="F1" s="162" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="115" t="s">
+      <c r="G1" s="155" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="113" t="s">
-        <v>73</v>
+      <c r="H1" s="153" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="118"/>
-      <c r="B2" s="119"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="116"/>
-      <c r="H2" s="114"/>
+      <c r="A2" s="158"/>
+      <c r="B2" s="159"/>
+      <c r="C2" s="159"/>
+      <c r="D2" s="160"/>
+      <c r="E2" s="161"/>
+      <c r="F2" s="163"/>
+      <c r="G2" s="156"/>
+      <c r="H2" s="154"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>1</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="21">
+      <c r="D3" s="19">
         <v>135390</v>
       </c>
-      <c r="E3" s="30">
+      <c r="E3" s="24">
         <v>44604</v>
       </c>
-      <c r="F3" s="21">
+      <c r="F3" s="19">
         <f>D3</f>
         <v>135390</v>
       </c>
-      <c r="G3" s="30" t="s">
-        <v>43</v>
+      <c r="G3" s="24" t="s">
+        <v>39</v>
       </c>
       <c r="H3" s="9"/>
     </row>
@@ -2205,26 +2695,26 @@
         <v>2</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="21">
+        <v>18</v>
+      </c>
+      <c r="D4" s="19">
         <v>200620</v>
       </c>
-      <c r="E4" s="30">
+      <c r="E4" s="24">
         <v>44611</v>
       </c>
-      <c r="F4" s="21">
+      <c r="F4" s="19">
         <f t="shared" ref="F4:F20" si="0">D4</f>
         <v>200620</v>
       </c>
-      <c r="G4" s="30">
+      <c r="G4" s="24">
         <v>44613</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -2232,26 +2722,26 @@
         <v>3</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="21">
+        <v>25</v>
+      </c>
+      <c r="D5" s="19">
         <v>169860</v>
       </c>
-      <c r="E5" s="30">
+      <c r="E5" s="24">
         <v>44620</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5" s="19">
         <f t="shared" si="0"/>
         <v>169860</v>
       </c>
-      <c r="G5" s="30">
+      <c r="G5" s="116">
         <v>44621</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -2259,26 +2749,26 @@
         <v>4</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="21">
+        <v>30</v>
+      </c>
+      <c r="D6" s="19">
         <v>345590</v>
       </c>
-      <c r="E6" s="30">
+      <c r="E6" s="24">
         <v>44628</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="19">
         <f t="shared" si="0"/>
         <v>345590</v>
       </c>
-      <c r="G6" s="35">
+      <c r="G6" s="116">
         <v>44628</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -2286,26 +2776,26 @@
         <v>5</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="21">
+        <v>45</v>
+      </c>
+      <c r="D7" s="19">
         <v>319290</v>
       </c>
-      <c r="E7" s="30">
+      <c r="E7" s="24">
         <v>44637</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F7" s="19">
         <f t="shared" si="0"/>
         <v>319290</v>
       </c>
-      <c r="G7" s="35">
+      <c r="G7" s="116">
         <v>44638</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -2313,26 +2803,26 @@
         <v>6</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" s="23">
+        <v>19</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="20">
         <v>308250</v>
       </c>
-      <c r="E8" s="30">
+      <c r="E8" s="24">
         <v>44646</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F8" s="19">
         <f t="shared" si="0"/>
         <v>308250</v>
       </c>
-      <c r="G8" s="35">
+      <c r="G8" s="116">
         <v>44646</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -2340,53 +2830,53 @@
         <v>7</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="D9" s="21">
+        <v>55</v>
+      </c>
+      <c r="D9" s="19">
         <v>403650</v>
       </c>
-      <c r="E9" s="30">
+      <c r="E9" s="24">
         <v>44652</v>
       </c>
-      <c r="F9" s="21">
+      <c r="F9" s="19">
         <f t="shared" si="0"/>
         <v>403650</v>
       </c>
-      <c r="G9" s="35">
+      <c r="G9" s="116">
         <v>44652</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="24">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="114">
         <v>8</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="D10" s="25">
+        <v>19</v>
+      </c>
+      <c r="C10" s="114" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="115">
         <v>291300</v>
       </c>
-      <c r="E10" s="26">
+      <c r="E10" s="116">
         <v>44660</v>
       </c>
-      <c r="F10" s="21">
+      <c r="F10" s="19">
         <f t="shared" si="0"/>
         <v>291300</v>
       </c>
-      <c r="G10" s="26">
+      <c r="G10" s="116">
         <v>44660</v>
       </c>
-      <c r="H10" s="100" t="s">
-        <v>74</v>
+      <c r="H10" s="114" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -2394,26 +2884,26 @@
         <v>9</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="D11" s="21">
+        <v>68</v>
+      </c>
+      <c r="D11" s="19">
         <v>231520</v>
       </c>
-      <c r="E11" s="30">
+      <c r="E11" s="24">
         <v>44667</v>
       </c>
-      <c r="F11" s="21">
+      <c r="F11" s="19">
         <f t="shared" si="0"/>
         <v>231520</v>
       </c>
-      <c r="G11" s="30">
+      <c r="G11" s="24">
         <v>44667</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -2421,67 +2911,97 @@
         <v>10</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="21">
+        <v>19</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D12" s="19">
+        <v>363750</v>
+      </c>
+      <c r="E12" s="24">
+        <v>44676</v>
+      </c>
+      <c r="F12" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G12" s="30"/>
-      <c r="H12" s="9"/>
+        <v>363750</v>
+      </c>
+      <c r="G12" s="24">
+        <v>44677</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>11</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="21">
+        <v>19</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D13" s="19">
+        <v>354230</v>
+      </c>
+      <c r="E13" s="24">
+        <v>44681</v>
+      </c>
+      <c r="F13" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G13" s="30"/>
-      <c r="H13" s="9"/>
+        <v>354230</v>
+      </c>
+      <c r="G13" s="24">
+        <v>44684</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>12</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="21">
+        <v>19</v>
+      </c>
+      <c r="C14" s="122" t="s">
+        <v>106</v>
+      </c>
+      <c r="D14" s="71">
+        <v>399150</v>
+      </c>
+      <c r="E14" s="74">
+        <v>44695</v>
+      </c>
+      <c r="F14" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G14" s="30"/>
-      <c r="H14" s="9"/>
+        <v>399150</v>
+      </c>
+      <c r="G14" s="24">
+        <v>44695</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
         <v>13</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" s="9"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="21">
+      <c r="D15" s="19"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G15" s="30"/>
+      <c r="G15" s="24"/>
       <c r="H15" s="9"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -2489,16 +3009,16 @@
         <v>14</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" s="9"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="21">
+      <c r="D16" s="19"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G16" s="30"/>
+      <c r="G16" s="24"/>
       <c r="H16" s="9"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -2506,16 +3026,16 @@
         <v>15</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="9"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="21">
+      <c r="D17" s="19"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G17" s="30"/>
+      <c r="G17" s="24"/>
       <c r="H17" s="9"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -2523,16 +3043,16 @@
         <v>16</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C18" s="9"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="21">
+      <c r="D18" s="19"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G18" s="30"/>
+      <c r="G18" s="24"/>
       <c r="H18" s="9"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -2540,16 +3060,16 @@
         <v>17</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C19" s="9"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="21">
+      <c r="D19" s="19"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G19" s="30"/>
+      <c r="G19" s="24"/>
       <c r="H19" s="9"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -2557,16 +3077,16 @@
         <v>18</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="9"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="21">
+      <c r="D20" s="19"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G20" s="30"/>
+      <c r="G20" s="24"/>
       <c r="H20" s="9"/>
     </row>
   </sheetData>
@@ -2587,575 +3107,642 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="8"/>
-    <col min="2" max="2" width="25.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="14"/>
-    <col min="5" max="5" width="10.7109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" style="23" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.85546875" style="34" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="8"/>
+    <col min="1" max="1" width="9.140625" style="77"/>
+    <col min="2" max="2" width="25.7109375" style="77" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" style="77" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="87"/>
+    <col min="5" max="5" width="10.7109375" style="88" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" style="89" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" style="90" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="77"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="117" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="159" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="119" t="s">
+      <c r="B1" s="159" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="119" t="s">
+      <c r="C1" s="159" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="122" t="s">
+      <c r="D1" s="160" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="129" t="s">
+      <c r="E1" s="170" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="122" t="s">
+      <c r="F1" s="144" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="130" t="s">
+      <c r="G1" s="150" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="127"/>
-      <c r="B2" s="117"/>
-      <c r="C2" s="117"/>
-      <c r="D2" s="128"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="128"/>
-      <c r="G2" s="131"/>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="72">
+      <c r="H1" s="164" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="159"/>
+      <c r="B2" s="159"/>
+      <c r="C2" s="159"/>
+      <c r="D2" s="160"/>
+      <c r="E2" s="170"/>
+      <c r="F2" s="146"/>
+      <c r="G2" s="152"/>
+      <c r="H2" s="165"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="39">
         <v>1</v>
       </c>
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="113" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="67" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="68">
-        <v>15000</v>
-      </c>
-      <c r="E3" s="92">
-        <v>44623</v>
-      </c>
-      <c r="F3" s="94">
-        <f>D3</f>
-        <v>15000</v>
-      </c>
-      <c r="G3" s="93" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="48">
+      <c r="C3" s="119" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="118">
+        <v>227000</v>
+      </c>
+      <c r="E3" s="108">
+        <v>44609</v>
+      </c>
+      <c r="F3" s="144">
+        <f>D5+D4+D3</f>
+        <v>862800</v>
+      </c>
+      <c r="G3" s="147">
+        <v>44615</v>
+      </c>
+      <c r="H3" s="164" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="79">
         <v>2</v>
       </c>
-      <c r="B4" s="75" t="s">
+      <c r="B4" s="114" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="51">
-        <v>227000</v>
-      </c>
-      <c r="E4" s="81">
+      <c r="C4" s="120" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="121">
+        <v>408400</v>
+      </c>
+      <c r="E4" s="57">
         <v>44609</v>
       </c>
-      <c r="F4" s="101">
-        <f>D6+D5+D4</f>
-        <v>862800</v>
-      </c>
-      <c r="G4" s="104">
-        <v>44615</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="76">
+      <c r="F4" s="145"/>
+      <c r="G4" s="148"/>
+      <c r="H4" s="166"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="80">
         <v>3</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="28">
-        <v>408400</v>
-      </c>
-      <c r="E5" s="82">
-        <v>44609</v>
-      </c>
-      <c r="F5" s="102"/>
-      <c r="G5" s="105"/>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="77">
+      <c r="C5" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="56">
+        <v>227400</v>
+      </c>
+      <c r="E5" s="58">
+        <v>44614</v>
+      </c>
+      <c r="F5" s="146"/>
+      <c r="G5" s="149"/>
+      <c r="H5" s="165"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="35">
         <v>4</v>
       </c>
       <c r="B6" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="79" t="s">
+      <c r="C6" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="38">
+        <v>289000</v>
+      </c>
+      <c r="E6" s="44">
+        <v>44621</v>
+      </c>
+      <c r="F6" s="144">
+        <f>D9+D8+D7+D6</f>
+        <v>881050</v>
+      </c>
+      <c r="G6" s="147">
+        <v>44638</v>
+      </c>
+      <c r="H6" s="164" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="79">
+        <v>5</v>
+      </c>
+      <c r="B7" s="114" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="120" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="121">
+        <v>191300</v>
+      </c>
+      <c r="E7" s="57">
+        <v>44627</v>
+      </c>
+      <c r="F7" s="145"/>
+      <c r="G7" s="148"/>
+      <c r="H7" s="166"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="79">
+        <v>6</v>
+      </c>
+      <c r="B8" s="114" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="6">
+        <v>297200</v>
+      </c>
+      <c r="E8" s="62">
+        <v>44634</v>
+      </c>
+      <c r="F8" s="145"/>
+      <c r="G8" s="148"/>
+      <c r="H8" s="166"/>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="80">
+        <v>7</v>
+      </c>
+      <c r="B9" s="81" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="60" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="61">
+        <v>103550</v>
+      </c>
+      <c r="E9" s="63">
+        <v>44634</v>
+      </c>
+      <c r="F9" s="146"/>
+      <c r="G9" s="149"/>
+      <c r="H9" s="165"/>
+    </row>
+    <row r="10" spans="1:8" s="85" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="35">
+        <v>8</v>
+      </c>
+      <c r="B10" s="78" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="82" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="83">
+        <v>130300</v>
+      </c>
+      <c r="E10" s="84">
+        <v>44641</v>
+      </c>
+      <c r="F10" s="144">
+        <f>D15+D14+D13+D12+D11+D10</f>
+        <v>1185900</v>
+      </c>
+      <c r="G10" s="150">
+        <v>44655</v>
+      </c>
+      <c r="H10" s="167" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="79">
+        <v>9</v>
+      </c>
+      <c r="B11" s="114" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="120" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="121">
+        <v>322300</v>
+      </c>
+      <c r="E11" s="57">
+        <v>44643</v>
+      </c>
+      <c r="F11" s="145"/>
+      <c r="G11" s="151"/>
+      <c r="H11" s="168"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="79">
+        <v>10</v>
+      </c>
+      <c r="B12" s="114" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="120" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="121">
+        <v>224200</v>
+      </c>
+      <c r="E12" s="57">
+        <v>44648</v>
+      </c>
+      <c r="F12" s="145"/>
+      <c r="G12" s="151"/>
+      <c r="H12" s="168"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="79">
+        <v>11</v>
+      </c>
+      <c r="B13" s="114" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="120" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="121">
+        <v>200250</v>
+      </c>
+      <c r="E13" s="57">
+        <v>44651</v>
+      </c>
+      <c r="F13" s="145"/>
+      <c r="G13" s="151"/>
+      <c r="H13" s="168"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="79">
+        <v>12</v>
+      </c>
+      <c r="B14" s="114" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="120" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="121">
+        <v>64400</v>
+      </c>
+      <c r="E14" s="57">
+        <v>44653</v>
+      </c>
+      <c r="F14" s="145"/>
+      <c r="G14" s="151"/>
+      <c r="H14" s="168"/>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="80">
+        <v>13</v>
+      </c>
+      <c r="B15" s="81" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="56">
+        <v>244450</v>
+      </c>
+      <c r="E15" s="58">
+        <v>44655</v>
+      </c>
+      <c r="F15" s="146"/>
+      <c r="G15" s="152"/>
+      <c r="H15" s="169"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="35">
+        <v>14</v>
+      </c>
+      <c r="B16" s="78" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" s="38">
+        <v>76400</v>
+      </c>
+      <c r="E16" s="44">
+        <v>44659</v>
+      </c>
+      <c r="F16" s="144">
+        <f>D19+D18+D17+D16</f>
+        <v>1024350</v>
+      </c>
+      <c r="G16" s="150">
+        <v>44673</v>
+      </c>
+      <c r="H16" s="164" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="79">
+        <v>15</v>
+      </c>
+      <c r="B17" s="114" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="120" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17" s="121">
+        <v>344500</v>
+      </c>
+      <c r="E17" s="57">
+        <v>44662</v>
+      </c>
+      <c r="F17" s="145"/>
+      <c r="G17" s="151"/>
+      <c r="H17" s="166"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="79">
+        <v>16</v>
+      </c>
+      <c r="B18" s="114" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="120" t="s">
+        <v>77</v>
+      </c>
+      <c r="D18" s="121">
+        <v>284000</v>
+      </c>
+      <c r="E18" s="57">
+        <v>44669</v>
+      </c>
+      <c r="F18" s="145"/>
+      <c r="G18" s="151"/>
+      <c r="H18" s="166"/>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="80">
+        <v>17</v>
+      </c>
+      <c r="B19" s="81" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="55" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" s="56">
+        <v>319450</v>
+      </c>
+      <c r="E19" s="58">
+        <v>44672</v>
+      </c>
+      <c r="F19" s="146"/>
+      <c r="G19" s="152"/>
+      <c r="H19" s="165"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="35">
+        <v>18</v>
+      </c>
+      <c r="B20" s="78" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="D20" s="38">
+        <v>392200</v>
+      </c>
+      <c r="E20" s="44">
+        <v>44676</v>
+      </c>
+      <c r="F20" s="171">
+        <f>D23+D21+D20+D22</f>
+        <v>1110200</v>
+      </c>
+      <c r="G20" s="151">
+        <v>44688</v>
+      </c>
+      <c r="H20" s="164" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="79">
+        <v>19</v>
+      </c>
+      <c r="B21" s="114" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="120" t="s">
+        <v>92</v>
+      </c>
+      <c r="D21" s="121">
+        <v>222000</v>
+      </c>
+      <c r="E21" s="57">
+        <v>44679</v>
+      </c>
+      <c r="F21" s="172"/>
+      <c r="G21" s="151"/>
+      <c r="H21" s="166"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="79">
+        <v>20</v>
+      </c>
+      <c r="B22" s="114" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="120" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="121">
+        <v>275700</v>
+      </c>
+      <c r="E22" s="57">
+        <v>44683</v>
+      </c>
+      <c r="F22" s="172"/>
+      <c r="G22" s="151"/>
+      <c r="H22" s="166"/>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="80">
         <v>21</v>
       </c>
-      <c r="D6" s="80">
-        <v>227400</v>
-      </c>
-      <c r="E6" s="83">
-        <v>44614</v>
-      </c>
-      <c r="F6" s="103"/>
-      <c r="G6" s="106"/>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="66">
-        <v>5</v>
-      </c>
-      <c r="B7" s="73" t="s">
+      <c r="B23" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="67" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="68">
-        <v>14400</v>
-      </c>
-      <c r="E7" s="92">
-        <v>44611</v>
-      </c>
-      <c r="F7" s="94">
-        <f>D7</f>
-        <v>14400</v>
-      </c>
-      <c r="G7" s="93" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="84">
-        <v>6</v>
-      </c>
-      <c r="B8" s="75" t="s">
+      <c r="C23" s="55" t="s">
+        <v>99</v>
+      </c>
+      <c r="D23" s="56">
+        <v>220300</v>
+      </c>
+      <c r="E23" s="58">
+        <v>44686</v>
+      </c>
+      <c r="F23" s="173"/>
+      <c r="G23" s="152"/>
+      <c r="H23" s="165"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="113">
+        <v>22</v>
+      </c>
+      <c r="B24" s="113" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="50" t="s">
+      <c r="C24" s="123" t="s">
+        <v>104</v>
+      </c>
+      <c r="D24" s="124">
+        <v>221600</v>
+      </c>
+      <c r="E24" s="125">
+        <v>44689</v>
+      </c>
+      <c r="F24" s="111"/>
+      <c r="G24" s="108"/>
+      <c r="H24" s="112"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="114">
+        <v>23</v>
+      </c>
+      <c r="B25" s="69" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D25" s="6">
+        <v>194500</v>
+      </c>
+      <c r="E25" s="94">
+        <v>44693</v>
+      </c>
+      <c r="F25" s="70"/>
+      <c r="G25" s="109"/>
+      <c r="H25" s="97"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="114">
+        <v>24</v>
+      </c>
+      <c r="B26" s="69" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="D26" s="22">
+        <v>222200</v>
+      </c>
+      <c r="E26" s="86">
+        <v>44697</v>
+      </c>
+      <c r="F26" s="70"/>
+      <c r="G26" s="109"/>
+      <c r="H26" s="97"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="114">
+        <v>25</v>
+      </c>
+      <c r="B27" s="69" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="21"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="86"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="109"/>
+      <c r="H27" s="97"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="114">
+        <v>26</v>
+      </c>
+      <c r="B28" s="69" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="21"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="86"/>
+      <c r="F28" s="70"/>
+      <c r="G28" s="109"/>
+      <c r="H28" s="97"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="114">
         <v>27</v>
       </c>
-      <c r="D8" s="51">
-        <v>289000</v>
-      </c>
-      <c r="E8" s="59">
-        <v>44621</v>
-      </c>
-      <c r="F8" s="101">
-        <f>D11+D10+D9+D8</f>
-        <v>881050</v>
-      </c>
-      <c r="G8" s="124">
-        <v>44638</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="76">
-        <v>7</v>
-      </c>
-      <c r="B9" s="9" t="s">
+      <c r="B29" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="28">
-        <v>191300</v>
-      </c>
-      <c r="E9" s="82">
-        <v>44627</v>
-      </c>
-      <c r="F9" s="102"/>
-      <c r="G9" s="125"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="52">
-        <v>8</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="6">
-        <v>297200</v>
-      </c>
-      <c r="E10" s="87">
-        <v>44634</v>
-      </c>
-      <c r="F10" s="102"/>
-      <c r="G10" s="125"/>
-    </row>
-    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="77">
-        <v>9</v>
-      </c>
-      <c r="B11" s="78" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="85" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="86">
-        <v>103550</v>
-      </c>
-      <c r="E11" s="88">
-        <v>44634</v>
-      </c>
-      <c r="F11" s="103"/>
-      <c r="G11" s="126"/>
-    </row>
-    <row r="12" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="84">
-        <v>10</v>
-      </c>
-      <c r="B12" s="75" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="89" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="90">
-        <v>130300</v>
-      </c>
-      <c r="E12" s="91">
-        <v>44641</v>
-      </c>
-      <c r="F12" s="107">
-        <f>D17+D16+D15+D14+D13+D12</f>
-        <v>1185900</v>
-      </c>
-      <c r="G12" s="124">
-        <v>44655</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="52">
-        <v>11</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" s="11">
-        <v>322300</v>
-      </c>
-      <c r="E13" s="60">
-        <v>44643</v>
-      </c>
-      <c r="F13" s="108"/>
-      <c r="G13" s="125"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="76">
-        <v>12</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14" s="11">
-        <v>224200</v>
-      </c>
-      <c r="E14" s="60">
-        <v>44648</v>
-      </c>
-      <c r="F14" s="108"/>
-      <c r="G14" s="125"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="52">
-        <v>14</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="D15" s="11">
-        <v>200250</v>
-      </c>
-      <c r="E15" s="60">
-        <v>44651</v>
-      </c>
-      <c r="F15" s="108"/>
-      <c r="G15" s="125"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="76">
-        <v>15</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="D16" s="11">
-        <v>64400</v>
-      </c>
-      <c r="E16" s="60">
-        <v>44653</v>
-      </c>
-      <c r="F16" s="108"/>
-      <c r="G16" s="125"/>
-    </row>
-    <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="77">
-        <v>16</v>
-      </c>
-      <c r="B17" s="78" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="54" t="s">
-        <v>62</v>
-      </c>
-      <c r="D17" s="55">
-        <v>244450</v>
-      </c>
-      <c r="E17" s="61">
-        <v>44655</v>
-      </c>
-      <c r="F17" s="109"/>
-      <c r="G17" s="126"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="33">
-        <v>17</v>
-      </c>
-      <c r="B18" s="71" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="47" t="s">
-        <v>76</v>
-      </c>
-      <c r="D18" s="56">
-        <v>76400</v>
-      </c>
-      <c r="E18" s="57">
-        <v>44659</v>
-      </c>
-      <c r="F18" s="38"/>
-      <c r="G18" s="74"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="9">
-        <v>18</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="D19" s="11">
-        <v>344500</v>
-      </c>
-      <c r="E19" s="12">
-        <v>44662</v>
-      </c>
-      <c r="F19" s="21"/>
-      <c r="G19" s="22"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="9">
-        <v>19</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="22"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="33">
-        <v>20</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="22"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="9">
-        <v>21</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="22"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="9">
-        <v>22</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="22"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="33">
-        <v>23</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="22"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="9">
-        <v>24</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="22"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="9">
-        <v>25</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="22"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="33">
-        <v>26</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="22"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="9">
-        <v>27</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C28" s="10"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="22"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="9">
-        <v>28</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29" s="10"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="22"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="33">
-        <v>29</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C30" s="10"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="22"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="9">
-        <v>30</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C31" s="10"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="22"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="86"/>
+      <c r="F29" s="70"/>
+      <c r="G29" s="109"/>
+      <c r="H29" s="97"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="F12:F17"/>
-    <mergeCell ref="G12:G17"/>
+  <mergeCells count="23">
+    <mergeCell ref="F20:F23"/>
+    <mergeCell ref="G20:G23"/>
+    <mergeCell ref="H20:H23"/>
+    <mergeCell ref="F16:F19"/>
+    <mergeCell ref="G16:G19"/>
+    <mergeCell ref="F10:F15"/>
+    <mergeCell ref="G10:G15"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F8:F11"/>
-    <mergeCell ref="G8:G11"/>
-    <mergeCell ref="G4:G6"/>
-    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="F3:F5"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="H3:H5"/>
+    <mergeCell ref="H6:H9"/>
+    <mergeCell ref="H10:H15"/>
+    <mergeCell ref="H16:H19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3167,74 +3754,74 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="13"/>
-    <col min="2" max="2" width="32" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="23"/>
-    <col min="5" max="5" width="14" style="31" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" style="23" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" style="31" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="13"/>
+    <col min="1" max="1" width="9.140625" style="12"/>
+    <col min="2" max="2" width="32" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="20"/>
+    <col min="5" max="5" width="14" style="25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" style="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="157" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="119" t="s">
+      <c r="B1" s="159" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="119" t="s">
+      <c r="C1" s="159" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="120" t="s">
+      <c r="D1" s="160" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="121" t="s">
+      <c r="E1" s="161" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="122" t="s">
+      <c r="F1" s="162" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="115" t="s">
+      <c r="G1" s="155" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="118"/>
-      <c r="B2" s="119"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="116"/>
-    </row>
-    <row r="3" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="39">
+      <c r="A2" s="158"/>
+      <c r="B2" s="159"/>
+      <c r="C2" s="159"/>
+      <c r="D2" s="160"/>
+      <c r="E2" s="161"/>
+      <c r="F2" s="163"/>
+      <c r="G2" s="156"/>
+    </row>
+    <row r="3" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="27">
         <v>1</v>
       </c>
-      <c r="B3" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" s="40">
+      <c r="B3" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="28">
         <v>150000</v>
       </c>
-      <c r="E3" s="41">
+      <c r="E3" s="29">
         <v>44634</v>
       </c>
-      <c r="F3" s="40">
+      <c r="F3" s="28">
         <f>D3</f>
         <v>150000</v>
       </c>
-      <c r="G3" s="41">
+      <c r="G3" s="29">
         <v>44636</v>
       </c>
     </row>
@@ -3243,16 +3830,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C4" s="9"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="21">
+      <c r="D4" s="19"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="19">
         <f t="shared" ref="F4" si="0">D4</f>
         <v>0</v>
       </c>
-      <c r="G4" s="30"/>
+      <c r="G4" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3273,7 +3860,7 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3281,45 +3868,45 @@
     <col min="1" max="1" width="9.140625" style="8"/>
     <col min="2" max="2" width="19.7109375" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="14"/>
-    <col min="5" max="5" width="10.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="13"/>
+    <col min="5" max="5" width="10.7109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="18" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.7109375" style="8" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="157" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="119" t="s">
+      <c r="B1" s="159" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="119" t="s">
+      <c r="C1" s="159" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="136" t="s">
+      <c r="D1" s="178" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="121" t="s">
+      <c r="E1" s="161" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="122" t="s">
+      <c r="F1" s="162" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="115" t="s">
+      <c r="G1" s="155" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="118"/>
-      <c r="B2" s="119"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="137"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="116"/>
+      <c r="A2" s="158"/>
+      <c r="B2" s="159"/>
+      <c r="C2" s="159"/>
+      <c r="D2" s="179"/>
+      <c r="E2" s="161"/>
+      <c r="F2" s="163"/>
+      <c r="G2" s="156"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
@@ -3329,19 +3916,19 @@
         <v>6</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D3" s="11">
         <v>150000</v>
       </c>
-      <c r="E3" s="18">
+      <c r="E3" s="16">
         <v>44606</v>
       </c>
-      <c r="F3" s="132">
+      <c r="F3" s="174">
         <f>D4+D3</f>
         <v>300000</v>
       </c>
-      <c r="G3" s="134">
+      <c r="G3" s="176">
         <v>44607</v>
       </c>
     </row>
@@ -3353,16 +3940,16 @@
         <v>6</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D4" s="11">
         <v>150000</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E4" s="16">
         <v>44606</v>
       </c>
-      <c r="F4" s="133"/>
-      <c r="G4" s="135"/>
+      <c r="F4" s="175"/>
+      <c r="G4" s="177"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
@@ -3372,18 +3959,18 @@
         <v>6</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D5" s="11">
         <v>200000</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="16">
         <v>44629</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5" s="19">
         <v>200000</v>
       </c>
-      <c r="G5" s="30">
+      <c r="G5" s="24">
         <v>44633</v>
       </c>
     </row>
@@ -3394,11 +3981,21 @@
       <c r="B6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="30"/>
+      <c r="C6" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" s="11">
+        <v>100000</v>
+      </c>
+      <c r="E6" s="16">
+        <v>44657</v>
+      </c>
+      <c r="F6" s="174">
+        <v>300000</v>
+      </c>
+      <c r="G6" s="176">
+        <v>44650</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
@@ -3407,11 +4004,17 @@
       <c r="B7" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="30"/>
+      <c r="C7" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="11">
+        <v>200000</v>
+      </c>
+      <c r="E7" s="16">
+        <v>44649</v>
+      </c>
+      <c r="F7" s="175"/>
+      <c r="G7" s="177"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
@@ -3420,11 +4023,21 @@
       <c r="B8" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="30"/>
+      <c r="C8" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D8" s="11">
+        <v>250000</v>
+      </c>
+      <c r="E8" s="16">
+        <v>44663</v>
+      </c>
+      <c r="F8" s="174">
+        <v>300000</v>
+      </c>
+      <c r="G8" s="176">
+        <v>44665</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
@@ -3433,11 +4046,17 @@
       <c r="B9" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="30"/>
+      <c r="C9" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="11">
+        <v>50000</v>
+      </c>
+      <c r="E9" s="16">
+        <v>44676</v>
+      </c>
+      <c r="F9" s="175"/>
+      <c r="G9" s="177"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
@@ -3446,11 +4065,21 @@
       <c r="B10" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="30"/>
+      <c r="C10" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D10" s="11">
+        <v>300000</v>
+      </c>
+      <c r="E10" s="16">
+        <v>44686</v>
+      </c>
+      <c r="F10" s="19">
+        <v>300000</v>
+      </c>
+      <c r="G10" s="24">
+        <v>44686</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
@@ -3461,9 +4090,9 @@
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="11"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="30"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="24"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
@@ -3474,9 +4103,9 @@
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="11"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="30"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="24"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
@@ -3487,9 +4116,9 @@
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="11"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="30"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="24"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
@@ -3500,9 +4129,9 @@
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="11"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="30"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="24"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
@@ -3513,9 +4142,9 @@
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="11"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="30"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="24"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
@@ -3526,9 +4155,9 @@
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="11"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="30"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="24"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
@@ -3539,9 +4168,9 @@
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="11"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="30"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="24"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
@@ -3552,9 +4181,9 @@
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="11"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="30"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="24"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
@@ -3565,9 +4194,9 @@
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="11"/>
-      <c r="E19" s="19"/>
+      <c r="E19" s="17"/>
       <c r="F19" s="11"/>
-      <c r="G19" s="19"/>
+      <c r="G19" s="17"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="9">
@@ -3578,9 +4207,9 @@
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="11"/>
-      <c r="E20" s="19"/>
+      <c r="E20" s="17"/>
       <c r="F20" s="11"/>
-      <c r="G20" s="19"/>
+      <c r="G20" s="17"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="9">
@@ -3591,9 +4220,9 @@
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="11"/>
-      <c r="E21" s="19"/>
+      <c r="E21" s="17"/>
       <c r="F21" s="11"/>
-      <c r="G21" s="19"/>
+      <c r="G21" s="17"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
@@ -3604,9 +4233,9 @@
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="11"/>
-      <c r="E22" s="19"/>
+      <c r="E22" s="17"/>
       <c r="F22" s="11"/>
-      <c r="G22" s="19"/>
+      <c r="G22" s="17"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="9">
@@ -3617,9 +4246,9 @@
       </c>
       <c r="C23" s="10"/>
       <c r="D23" s="11"/>
-      <c r="E23" s="19"/>
+      <c r="E23" s="17"/>
       <c r="F23" s="11"/>
-      <c r="G23" s="19"/>
+      <c r="G23" s="17"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="9">
@@ -3630,9 +4259,9 @@
       </c>
       <c r="C24" s="10"/>
       <c r="D24" s="11"/>
-      <c r="E24" s="19"/>
+      <c r="E24" s="17"/>
       <c r="F24" s="11"/>
-      <c r="G24" s="19"/>
+      <c r="G24" s="17"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="9">
@@ -3643,9 +4272,9 @@
       </c>
       <c r="C25" s="10"/>
       <c r="D25" s="11"/>
-      <c r="E25" s="19"/>
+      <c r="E25" s="17"/>
       <c r="F25" s="11"/>
-      <c r="G25" s="19"/>
+      <c r="G25" s="17"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="9">
@@ -3656,9 +4285,9 @@
       </c>
       <c r="C26" s="10"/>
       <c r="D26" s="11"/>
-      <c r="E26" s="19"/>
+      <c r="E26" s="17"/>
       <c r="F26" s="11"/>
-      <c r="G26" s="19"/>
+      <c r="G26" s="17"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="9">
@@ -3669,9 +4298,9 @@
       </c>
       <c r="C27" s="10"/>
       <c r="D27" s="11"/>
-      <c r="E27" s="19"/>
+      <c r="E27" s="17"/>
       <c r="F27" s="11"/>
-      <c r="G27" s="19"/>
+      <c r="G27" s="17"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="9">
@@ -3682,9 +4311,9 @@
       </c>
       <c r="C28" s="10"/>
       <c r="D28" s="11"/>
-      <c r="E28" s="19"/>
+      <c r="E28" s="17"/>
       <c r="F28" s="11"/>
-      <c r="G28" s="19"/>
+      <c r="G28" s="17"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="9">
@@ -3695,9 +4324,9 @@
       </c>
       <c r="C29" s="10"/>
       <c r="D29" s="11"/>
-      <c r="E29" s="19"/>
+      <c r="E29" s="17"/>
       <c r="F29" s="11"/>
-      <c r="G29" s="19"/>
+      <c r="G29" s="17"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="9">
@@ -3708,9 +4337,9 @@
       </c>
       <c r="C30" s="10"/>
       <c r="D30" s="11"/>
-      <c r="E30" s="19"/>
+      <c r="E30" s="17"/>
       <c r="F30" s="11"/>
-      <c r="G30" s="19"/>
+      <c r="G30" s="17"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="9">
@@ -3721,14 +4350,12 @@
       </c>
       <c r="C31" s="10"/>
       <c r="D31" s="11"/>
-      <c r="E31" s="19"/>
+      <c r="E31" s="17"/>
       <c r="F31" s="11"/>
-      <c r="G31" s="19"/>
+      <c r="G31" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
+  <mergeCells count="13">
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -3736,6 +4363,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3746,108 +4379,118 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="13"/>
-    <col min="2" max="2" width="19.7109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="23"/>
-    <col min="5" max="5" width="14" style="31" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" style="23" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" style="31" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="13"/>
+    <col min="1" max="1" width="9.140625" style="12"/>
+    <col min="2" max="2" width="19.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="20"/>
+    <col min="5" max="5" width="14" style="25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" style="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="157" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="119" t="s">
+      <c r="B1" s="159" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="119" t="s">
+      <c r="C1" s="159" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="120" t="s">
+      <c r="D1" s="160" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="121" t="s">
+      <c r="E1" s="161" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="122" t="s">
+      <c r="F1" s="162" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="115" t="s">
+      <c r="G1" s="155" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="127"/>
-      <c r="B2" s="117"/>
-      <c r="C2" s="117"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="128"/>
-      <c r="G2" s="138"/>
+      <c r="A2" s="184"/>
+      <c r="B2" s="157"/>
+      <c r="C2" s="157"/>
+      <c r="D2" s="162"/>
+      <c r="E2" s="155"/>
+      <c r="F2" s="183"/>
+      <c r="G2" s="180"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="84">
+      <c r="A3" s="59">
         <v>1</v>
       </c>
-      <c r="B3" s="75" t="s">
+      <c r="B3" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="75" t="s">
-        <v>67</v>
-      </c>
-      <c r="D3" s="96">
+      <c r="C3" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="65">
         <v>176850.57</v>
       </c>
-      <c r="E3" s="98">
+      <c r="E3" s="67">
         <v>44649</v>
       </c>
-      <c r="F3" s="107">
+      <c r="F3" s="135">
         <f>D4+D3</f>
         <v>530650.96</v>
       </c>
-      <c r="G3" s="139">
+      <c r="G3" s="181">
         <v>44656</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="77">
+      <c r="A4" s="53">
         <v>2</v>
       </c>
-      <c r="B4" s="78" t="s">
+      <c r="B4" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="78" t="s">
-        <v>68</v>
-      </c>
-      <c r="D4" s="97">
+      <c r="C4" s="54" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="66">
         <v>353800.39</v>
       </c>
-      <c r="E4" s="99">
+      <c r="E4" s="68">
         <v>44649</v>
       </c>
-      <c r="F4" s="109"/>
-      <c r="G4" s="140"/>
+      <c r="F4" s="137"/>
+      <c r="G4" s="182"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="71">
+      <c r="A5" s="51">
         <v>3</v>
       </c>
-      <c r="B5" s="71" t="s">
+      <c r="B5" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="71"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="95"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="43"/>
+      <c r="C5" s="51" t="s">
+        <v>101</v>
+      </c>
+      <c r="D5" s="30">
+        <v>235800</v>
+      </c>
+      <c r="E5" s="64">
+        <v>44777</v>
+      </c>
+      <c r="F5" s="30">
+        <v>235800</v>
+      </c>
+      <c r="G5" s="31">
+        <v>44686</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
@@ -3856,11 +4499,22 @@
       <c r="B6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="46"/>
+      <c r="C6" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D6" s="117">
+        <v>235801</v>
+      </c>
+      <c r="E6" s="24">
+        <v>44689</v>
+      </c>
+      <c r="F6" s="19">
+        <f>D6</f>
+        <v>235801</v>
+      </c>
+      <c r="G6" s="34">
+        <v>44692</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
@@ -3870,10 +4524,10 @@
         <v>7</v>
       </c>
       <c r="C7" s="9"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="46"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="34"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
@@ -3882,10 +4536,10 @@
       <c r="B8" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="29"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="46"/>
+      <c r="C8" s="23"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="34"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
@@ -3895,23 +4549,23 @@
         <v>7</v>
       </c>
       <c r="C9" s="9"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="46"/>
-    </row>
-    <row r="10" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="44">
+      <c r="D9" s="19"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="34"/>
+    </row>
+    <row r="10" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="32">
         <v>8</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="44"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="46"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="34"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
@@ -3921,10 +4575,10 @@
         <v>7</v>
       </c>
       <c r="C11" s="9"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="46"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="34"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
@@ -3934,10 +4588,10 @@
         <v>7</v>
       </c>
       <c r="C12" s="9"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="46"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="34"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
@@ -3947,10 +4601,10 @@
         <v>7</v>
       </c>
       <c r="C13" s="9"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="46"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="34"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
@@ -3960,10 +4614,10 @@
         <v>7</v>
       </c>
       <c r="C14" s="9"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="46"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="34"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
@@ -3973,10 +4627,10 @@
         <v>7</v>
       </c>
       <c r="C15" s="9"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="30"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="24"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
@@ -3986,10 +4640,10 @@
         <v>7</v>
       </c>
       <c r="C16" s="9"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="30"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="24"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
@@ -3999,10 +4653,10 @@
         <v>7</v>
       </c>
       <c r="C17" s="9"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="30"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="24"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
@@ -4012,10 +4666,10 @@
         <v>7</v>
       </c>
       <c r="C18" s="9"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="30"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="24"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
@@ -4025,10 +4679,10 @@
         <v>7</v>
       </c>
       <c r="C19" s="9"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="30"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="24"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="9">
@@ -4038,10 +4692,10 @@
         <v>7</v>
       </c>
       <c r="C20" s="9"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="30"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -4064,53 +4718,56 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="92" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" style="92" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" style="92" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="92"/>
+    <col min="5" max="6" width="10.7109375" style="92" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="92"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="187" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="119" t="s">
+      <c r="B1" s="189" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="119" t="s">
+      <c r="C1" s="189" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="120" t="s">
+      <c r="D1" s="190" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="129" t="s">
+      <c r="E1" s="191" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="130" t="s">
+      <c r="F1" s="185" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="118"/>
-      <c r="B2" s="119"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="129"/>
-      <c r="F2" s="141"/>
+      <c r="A2" s="188"/>
+      <c r="B2" s="189"/>
+      <c r="C2" s="189"/>
+      <c r="D2" s="190"/>
+      <c r="E2" s="191"/>
+      <c r="F2" s="186"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="A3" s="93">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>51</v>
+      <c r="B3" s="93" t="s">
+        <v>47</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D3" s="6">
         <v>600000</v>
@@ -4118,41 +4775,49 @@
       <c r="E3" s="5">
         <v>44651</v>
       </c>
-      <c r="F3" s="36">
+      <c r="F3" s="94">
         <v>44610</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="A4" s="93">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D4" s="2">
+      <c r="B4" s="93" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="93" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="95">
         <v>245000</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="96">
         <v>44651</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="96">
         <v>44655</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="A5" s="93">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
+      <c r="B5" s="93" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="93" t="s">
+        <v>98</v>
+      </c>
+      <c r="D5" s="95">
+        <v>245000</v>
+      </c>
+      <c r="E5" s="96">
+        <v>44681</v>
+      </c>
+      <c r="F5" s="96">
+        <v>44684</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -4172,7 +4837,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4183,42 +4848,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="157" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="119" t="s">
+      <c r="B1" s="159" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="119" t="s">
+      <c r="C1" s="159" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="120" t="s">
+      <c r="D1" s="160" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="129" t="s">
+      <c r="E1" s="194" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="130" t="s">
+      <c r="F1" s="192" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="118"/>
-      <c r="B2" s="119"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="129"/>
-      <c r="F2" s="141"/>
+      <c r="A2" s="158"/>
+      <c r="B2" s="159"/>
+      <c r="C2" s="159"/>
+      <c r="D2" s="160"/>
+      <c r="E2" s="194"/>
+      <c r="F2" s="193"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D3" s="6">
         <v>199400</v>
@@ -4226,7 +4891,7 @@
       <c r="E3" s="5">
         <v>44648</v>
       </c>
-      <c r="F3" s="36">
+      <c r="F3" s="110">
         <v>44656</v>
       </c>
     </row>
@@ -4235,7 +4900,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="2"/>
@@ -4247,7 +4912,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="2"/>
@@ -4271,50 +4936,50 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C81F6997-5F18-4A45-8940-017B0B812502}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1:Q1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="144"/>
-    <col min="2" max="2" width="19.7109375" style="144" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="143"/>
-    <col min="4" max="4" width="10.7109375" style="147" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="144"/>
+    <col min="1" max="1" width="9.140625" style="73"/>
+    <col min="2" max="2" width="19.7109375" style="73" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="72"/>
+    <col min="4" max="4" width="10.7109375" style="76" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="73"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="157" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="119" t="s">
+      <c r="B1" s="159" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="120" t="s">
+      <c r="C1" s="160" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="121" t="s">
+      <c r="D1" s="161" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="118"/>
-      <c r="B2" s="119"/>
-      <c r="C2" s="120"/>
-      <c r="D2" s="121"/>
+      <c r="A2" s="158"/>
+      <c r="B2" s="159"/>
+      <c r="C2" s="160"/>
+      <c r="D2" s="161"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C3" s="142">
+        <v>75</v>
+      </c>
+      <c r="C3" s="71">
         <v>8500</v>
       </c>
-      <c r="D3" s="145">
+      <c r="D3" s="74">
         <v>44623</v>
       </c>
     </row>
@@ -4323,12 +4988,12 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C4" s="2">
         <v>18000</v>
       </c>
-      <c r="D4" s="146">
+      <c r="D4" s="75">
         <v>44622</v>
       </c>
     </row>
@@ -4337,12 +5002,12 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C5" s="2">
         <v>48000</v>
       </c>
-      <c r="D5" s="146">
+      <c r="D5" s="75">
         <v>44628</v>
       </c>
     </row>
@@ -4351,12 +5016,12 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C6" s="2">
         <v>30000</v>
       </c>
-      <c r="D6" s="146">
+      <c r="D6" s="75">
         <v>44632</v>
       </c>
     </row>
@@ -4365,12 +5030,12 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C7" s="2">
         <v>30000</v>
       </c>
-      <c r="D7" s="146">
+      <c r="D7" s="75">
         <v>44636</v>
       </c>
     </row>
@@ -4379,12 +5044,12 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C8" s="2">
         <v>32500</v>
       </c>
-      <c r="D8" s="146">
+      <c r="D8" s="75">
         <v>44640</v>
       </c>
     </row>
@@ -4393,12 +5058,12 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C9" s="2">
         <v>33000</v>
       </c>
-      <c r="D9" s="146">
+      <c r="D9" s="75">
         <v>44643</v>
       </c>
     </row>
@@ -4407,12 +5072,12 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C10" s="2">
         <v>40000</v>
       </c>
-      <c r="D10" s="146">
+      <c r="D10" s="75">
         <v>44648</v>
       </c>
     </row>
@@ -4421,25 +5086,25 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C11" s="2">
         <v>32000</v>
       </c>
-      <c r="D11" s="146">
+      <c r="D11" s="75">
         <v>44650</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="148" t="s">
-        <v>80</v>
-      </c>
-      <c r="B12" s="149"/>
-      <c r="C12" s="150">
+      <c r="A12" s="195" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" s="196"/>
+      <c r="C12" s="197">
         <f>SUM(C3:C11)</f>
         <v>272000</v>
       </c>
-      <c r="D12" s="151"/>
+      <c r="D12" s="198"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/OneClick Hotel/FOURNISSEURS 2022 one.xlsx
+++ b/OneClick Hotel/FOURNISSEURS 2022 one.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\OneClick Hotel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F27D1E8-E0AB-4EDA-893C-7C6BE5587CE1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75FCF879-22BB-444D-9045-88DBA13AFD6C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name=" KIME SUPERMARKET" sheetId="1" r:id="rId1"/>
-    <sheet name="MUKAMUGEMA ANNONCIATA" sheetId="3" r:id="rId2"/>
-    <sheet name=" BISANGABAGABO JACKSON" sheetId="2" r:id="rId3"/>
+    <sheet name=" BISANGABAGABO JACKSON" sheetId="2" r:id="rId2"/>
+    <sheet name="MUKAMUGEMA ANNONCIATA" sheetId="3" r:id="rId3"/>
     <sheet name="QUICK STAR SERVICE RWANDA LTD" sheetId="8" r:id="rId4"/>
     <sheet name="KABANDA" sheetId="4" r:id="rId5"/>
     <sheet name="LIQUID" sheetId="7" r:id="rId6"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="146">
   <si>
     <r>
       <t>N</t>
@@ -82,9 +82,6 @@
     <t>SDC002800063/351046</t>
   </si>
   <si>
-    <t>SDC007063634/47</t>
-  </si>
-  <si>
     <t>SDC002800324/6986</t>
   </si>
   <si>
@@ -103,9 +100,6 @@
     <t>SDC010014500/2006</t>
   </si>
   <si>
-    <t>SDC007063634/50</t>
-  </si>
-  <si>
     <t>MUKAMUGEMA ANNONCIATA</t>
   </si>
   <si>
@@ -124,9 +118,6 @@
     <t>SDC002800304/143774</t>
   </si>
   <si>
-    <t>SDC007063634/52</t>
-  </si>
-  <si>
     <t>SDC010014500/2250</t>
   </si>
   <si>
@@ -139,9 +130,6 @@
     <t>SDC010014500/2359</t>
   </si>
   <si>
-    <t>SDC007063634/54</t>
-  </si>
-  <si>
     <t>SDC002800324/7259</t>
   </si>
   <si>
@@ -166,9 +154,6 @@
     <t>SDC002800324/7451</t>
   </si>
   <si>
-    <t>2/12/2022 by cash</t>
-  </si>
-  <si>
     <t>QUICK STAR SERVICE RWANDA LTD</t>
   </si>
   <si>
@@ -184,12 +169,6 @@
     <t>SDC010014500/2784</t>
   </si>
   <si>
-    <t>SDC007063634/56</t>
-  </si>
-  <si>
-    <t>SDC007063634/59</t>
-  </si>
-  <si>
     <t>SOBANUKA LTD</t>
   </si>
   <si>
@@ -214,9 +193,6 @@
     <t>SDC010024405/164</t>
   </si>
   <si>
-    <t>SDC007063634/60</t>
-  </si>
-  <si>
     <t>SDC010014500/2846</t>
   </si>
   <si>
@@ -250,12 +226,6 @@
     <t>SDC002800324/7606</t>
   </si>
   <si>
-    <t>SDC007063634/63</t>
-  </si>
-  <si>
-    <t>SDC007063634/65</t>
-  </si>
-  <si>
     <t>BANK</t>
   </si>
   <si>
@@ -316,12 +286,6 @@
     <t>SDC002800324/7753</t>
   </si>
   <si>
-    <t>SDC007063634/69</t>
-  </si>
-  <si>
-    <t>SDC007063634/71</t>
-  </si>
-  <si>
     <t>SDC010014500/3360</t>
   </si>
   <si>
@@ -367,13 +331,160 @@
     <t>SDC010014500/3764</t>
   </si>
   <si>
-    <t>SDC007063634/83</t>
-  </si>
-  <si>
     <t>SDC010014500/3824</t>
   </si>
   <si>
     <t>SDC002800324/7874</t>
+  </si>
+  <si>
+    <t>SDC002800324/7911</t>
+  </si>
+  <si>
+    <t>SDC010014500/3900</t>
+  </si>
+  <si>
+    <t>SDC010014500/3981</t>
+  </si>
+  <si>
+    <t>SDC002800324/7945</t>
+  </si>
+  <si>
+    <t>SDC007057826/12919</t>
+  </si>
+  <si>
+    <t>SDC007063634/99</t>
+  </si>
+  <si>
+    <t>SDC007063634/102</t>
+  </si>
+  <si>
+    <t>SDC007063634/101</t>
+  </si>
+  <si>
+    <t>SDC007063634/103</t>
+  </si>
+  <si>
+    <t>SDC007063634/106</t>
+  </si>
+  <si>
+    <t>SDC007063634/97</t>
+  </si>
+  <si>
+    <t>SDC007063634/108</t>
+  </si>
+  <si>
+    <t>SDC007063634/98</t>
+  </si>
+  <si>
+    <t>SDC007063634/107</t>
+  </si>
+  <si>
+    <t>SDC007063634/104</t>
+  </si>
+  <si>
+    <t>SDC007063634/100</t>
+  </si>
+  <si>
+    <t>SDC007063634/109</t>
+  </si>
+  <si>
+    <t>SDC007063634/110</t>
+  </si>
+  <si>
+    <t>SDC002800324/7977</t>
+  </si>
+  <si>
+    <t>SDC010014500/4049</t>
+  </si>
+  <si>
+    <t>SDC002800324/8006</t>
+  </si>
+  <si>
+    <t>SDC010014500/4094</t>
+  </si>
+  <si>
+    <t>SDC007063634/113</t>
+  </si>
+  <si>
+    <t>SDC007063999/47</t>
+  </si>
+  <si>
+    <t>SDC002800324/8033</t>
+  </si>
+  <si>
+    <t>SDC010014500/4258</t>
+  </si>
+  <si>
+    <t>SDC010014500/4251</t>
+  </si>
+  <si>
+    <t>SDC007057826/13834</t>
+  </si>
+  <si>
+    <t>SDC007063634/115</t>
+  </si>
+  <si>
+    <t>SDC007010197/1178</t>
+  </si>
+  <si>
+    <t>SDC007010197/1045</t>
+  </si>
+  <si>
+    <t>SDC002800324/8048</t>
+  </si>
+  <si>
+    <t>SDC002800324/8056</t>
+  </si>
+  <si>
+    <t>SDC002800324/8055</t>
+  </si>
+  <si>
+    <t>SDC002800324/8093</t>
+  </si>
+  <si>
+    <t>SDC010014500/4328</t>
+  </si>
+  <si>
+    <t>SDC010014500/4410</t>
+  </si>
+  <si>
+    <t>SDC007063634/117</t>
+  </si>
+  <si>
+    <t>SDC010014500/4502</t>
+  </si>
+  <si>
+    <t>SDC002800324/8164</t>
+  </si>
+  <si>
+    <t>SDC002800214/8133</t>
+  </si>
+  <si>
+    <t>SDC010014500/4527</t>
+  </si>
+  <si>
+    <t>SDC007063634/119</t>
+  </si>
+  <si>
+    <t>SDC002800324/8224</t>
+  </si>
+  <si>
+    <t>SDC002800324/8222</t>
+  </si>
+  <si>
+    <t>SDC010014500/4743</t>
+  </si>
+  <si>
+    <t>SDC007057826/14654</t>
+  </si>
+  <si>
+    <t>SDC007063999/51</t>
+  </si>
+  <si>
+    <t>SDC002800324/8289</t>
+  </si>
+  <si>
+    <t>SDC010014500/4847</t>
   </si>
 </sst>
 </file>
@@ -422,7 +533,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="35">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -856,11 +967,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="199">
+  <cellXfs count="240">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -915,12 +1065,6 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1052,12 +1196,6 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1101,9 +1239,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -1126,9 +1261,6 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1160,207 +1292,338 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1764,10 +2027,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1775,823 +2038,1127 @@
     <col min="1" max="1" width="5" style="12" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="13"/>
-    <col min="5" max="5" width="10.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="13"/>
     <col min="6" max="6" width="11.28515625" style="13" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.140625" style="14" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="99" t="s">
+      <c r="B1" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="99" t="s">
+      <c r="C1" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="100" t="s">
+      <c r="D1" s="95" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="101" t="s">
+      <c r="F1" s="94" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="97" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="33">
+        <v>1</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="42">
+        <v>44602</v>
+      </c>
+      <c r="E2" s="36">
+        <v>14407</v>
+      </c>
+      <c r="F2" s="181">
+        <f>E7+E6+E5+E4+E3+E2</f>
+        <v>108260.5</v>
+      </c>
+      <c r="G2" s="169" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="170"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="37">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="43">
+        <v>44608</v>
+      </c>
+      <c r="E3" s="11">
+        <v>29385</v>
+      </c>
+      <c r="F3" s="182"/>
+      <c r="G3" s="171"/>
+      <c r="H3" s="172"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="37">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="43">
+        <v>44617</v>
+      </c>
+      <c r="E4" s="11">
+        <v>7600</v>
+      </c>
+      <c r="F4" s="182"/>
+      <c r="G4" s="171"/>
+      <c r="H4" s="172"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="37">
         <v>4</v>
       </c>
-      <c r="F1" s="100" t="s">
+      <c r="B5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="43">
+        <v>44618</v>
+      </c>
+      <c r="E5" s="11">
+        <v>15106</v>
+      </c>
+      <c r="F5" s="182"/>
+      <c r="G5" s="171"/>
+      <c r="H5" s="172"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="37">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="43">
+        <v>44623</v>
+      </c>
+      <c r="E6" s="11">
+        <v>29262.5</v>
+      </c>
+      <c r="F6" s="182"/>
+      <c r="G6" s="171"/>
+      <c r="H6" s="172"/>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="38">
+        <v>6</v>
+      </c>
+      <c r="B7" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="44">
+        <v>44620</v>
+      </c>
+      <c r="E7" s="40">
+        <v>12500</v>
+      </c>
+      <c r="F7" s="183"/>
+      <c r="G7" s="173"/>
+      <c r="H7" s="174"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="33">
+        <v>7</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="42">
+        <v>44606</v>
+      </c>
+      <c r="E8" s="36">
+        <v>154394</v>
+      </c>
+      <c r="F8" s="160">
+        <f>E12+E11+E10+E9+E8</f>
+        <v>569778</v>
+      </c>
+      <c r="G8" s="184">
+        <v>44635</v>
+      </c>
+      <c r="H8" s="178" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="37">
+        <v>8</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="43">
+        <v>44614</v>
+      </c>
+      <c r="E9" s="11">
+        <v>55344</v>
+      </c>
+      <c r="F9" s="161"/>
+      <c r="G9" s="185"/>
+      <c r="H9" s="179"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="37">
         <v>9</v>
       </c>
-      <c r="G1" s="106" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="103" t="s">
+      <c r="B10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="43">
+        <v>44621</v>
+      </c>
+      <c r="E10" s="11">
+        <v>123660</v>
+      </c>
+      <c r="F10" s="161"/>
+      <c r="G10" s="185"/>
+      <c r="H10" s="179"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="37">
+        <v>10</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="43">
+        <v>44627</v>
+      </c>
+      <c r="E11" s="11">
+        <v>49000</v>
+      </c>
+      <c r="F11" s="161"/>
+      <c r="G11" s="185"/>
+      <c r="H11" s="179"/>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="38">
+        <v>11</v>
+      </c>
+      <c r="B12" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="44">
+        <v>44629</v>
+      </c>
+      <c r="E12" s="40">
+        <v>187380</v>
+      </c>
+      <c r="F12" s="162"/>
+      <c r="G12" s="186"/>
+      <c r="H12" s="180"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="33">
+        <v>12</v>
+      </c>
+      <c r="B13" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="46">
+        <v>44635</v>
+      </c>
+      <c r="E13" s="45">
+        <v>41400</v>
+      </c>
+      <c r="F13" s="160">
+        <f>E16+E15+E14+E13</f>
+        <v>350480</v>
+      </c>
+      <c r="G13" s="187">
+        <v>44656</v>
+      </c>
+      <c r="H13" s="178" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="37">
+        <v>13</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="47">
+        <v>44648</v>
+      </c>
+      <c r="E14" s="11">
+        <v>133400</v>
+      </c>
+      <c r="F14" s="161"/>
+      <c r="G14" s="188"/>
+      <c r="H14" s="179"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="37">
+        <v>14</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="47">
+        <v>44648</v>
+      </c>
+      <c r="E15" s="11">
+        <v>140200</v>
+      </c>
+      <c r="F15" s="161"/>
+      <c r="G15" s="188"/>
+      <c r="H15" s="179"/>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="38">
+        <v>15</v>
+      </c>
+      <c r="B16" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="48">
+        <v>44641</v>
+      </c>
+      <c r="E16" s="40">
+        <v>35480</v>
+      </c>
+      <c r="F16" s="162"/>
+      <c r="G16" s="189"/>
+      <c r="H16" s="180"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="33">
+        <v>16</v>
+      </c>
+      <c r="B17" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="86">
+        <v>44651</v>
+      </c>
+      <c r="E17" s="45">
+        <v>103900</v>
+      </c>
+      <c r="F17" s="160">
+        <f>E26+E25+E24+E23+E22+E21+E20+E19+E18+E17+E27+E28</f>
+        <v>968300</v>
+      </c>
+      <c r="G17" s="175">
+        <v>44681</v>
+      </c>
+      <c r="H17" s="178" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="37">
+        <v>17</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="43">
+        <v>44655</v>
+      </c>
+      <c r="E18" s="15">
+        <v>109700</v>
+      </c>
+      <c r="F18" s="161"/>
+      <c r="G18" s="176"/>
+      <c r="H18" s="179"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="37">
+        <v>18</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="43">
+        <v>44656</v>
+      </c>
+      <c r="E19" s="11">
+        <v>24400</v>
+      </c>
+      <c r="F19" s="161"/>
+      <c r="G19" s="176"/>
+      <c r="H19" s="179"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="37">
+        <v>19</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="43">
+        <v>44657</v>
+      </c>
+      <c r="E20" s="11">
+        <v>11000</v>
+      </c>
+      <c r="F20" s="161"/>
+      <c r="G20" s="176"/>
+      <c r="H20" s="179"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="37">
+        <v>20</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="43">
+        <v>44657</v>
+      </c>
+      <c r="E21" s="11">
+        <v>47700</v>
+      </c>
+      <c r="F21" s="161"/>
+      <c r="G21" s="176"/>
+      <c r="H21" s="179"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="37">
+        <v>21</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="43">
+        <v>44662</v>
+      </c>
+      <c r="E22" s="11">
+        <v>70650</v>
+      </c>
+      <c r="F22" s="161"/>
+      <c r="G22" s="176"/>
+      <c r="H22" s="179"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="37">
+        <v>22</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="43">
+        <v>44667</v>
+      </c>
+      <c r="E23" s="11">
+        <v>89000</v>
+      </c>
+      <c r="F23" s="161"/>
+      <c r="G23" s="176"/>
+      <c r="H23" s="179"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="37">
+        <v>23</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" s="43">
+        <v>44669</v>
+      </c>
+      <c r="E24" s="11">
+        <v>103550</v>
+      </c>
+      <c r="F24" s="161"/>
+      <c r="G24" s="176"/>
+      <c r="H24" s="179"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="37">
+        <v>24</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="10" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="35">
-        <v>1</v>
-      </c>
-      <c r="B2" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="38">
-        <v>14407</v>
-      </c>
-      <c r="E2" s="44">
-        <v>44602</v>
-      </c>
-      <c r="F2" s="144">
-        <f>D7+D6+D5+D4+D3+D2</f>
-        <v>108260.5</v>
-      </c>
-      <c r="G2" s="129" t="s">
+      <c r="D25" s="43">
+        <v>44671</v>
+      </c>
+      <c r="E25" s="11">
+        <v>112500</v>
+      </c>
+      <c r="F25" s="161"/>
+      <c r="G25" s="176"/>
+      <c r="H25" s="179"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="96">
+        <v>25</v>
+      </c>
+      <c r="B26" s="97" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="97" t="s">
+        <v>70</v>
+      </c>
+      <c r="D26" s="99">
+        <v>44672</v>
+      </c>
+      <c r="E26" s="98">
+        <v>18400</v>
+      </c>
+      <c r="F26" s="161"/>
+      <c r="G26" s="176"/>
+      <c r="H26" s="179"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="37">
+        <v>26</v>
+      </c>
+      <c r="B27" s="97" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D27" s="43">
+        <v>44676</v>
+      </c>
+      <c r="E27" s="11">
+        <v>214000</v>
+      </c>
+      <c r="F27" s="161"/>
+      <c r="G27" s="176"/>
+      <c r="H27" s="179"/>
+    </row>
+    <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="38">
+        <v>27</v>
+      </c>
+      <c r="B28" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="D28" s="44">
+        <v>44679</v>
+      </c>
+      <c r="E28" s="40">
+        <v>63500</v>
+      </c>
+      <c r="F28" s="162"/>
+      <c r="G28" s="177"/>
+      <c r="H28" s="180"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="153">
+        <v>28</v>
+      </c>
+      <c r="B29" s="154" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="D29" s="155">
+        <v>44683</v>
+      </c>
+      <c r="E29" s="157">
+        <v>87700</v>
+      </c>
+      <c r="F29" s="160">
+        <f>E29+E30+E31+E32+E33+E34+E35+E36+E37+E38+E39+E40+E41+E42+E43+E44+E45+E46+E47+E48+E49</f>
+        <v>1969627</v>
+      </c>
+      <c r="G29" s="163">
+        <v>44733</v>
+      </c>
+      <c r="H29" s="166" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="37">
+        <v>29</v>
+      </c>
+      <c r="B30" s="97" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D30" s="101">
+        <v>44684</v>
+      </c>
+      <c r="E30" s="158">
+        <v>54000</v>
+      </c>
+      <c r="F30" s="161"/>
+      <c r="G30" s="164"/>
+      <c r="H30" s="167"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="96">
+        <v>30</v>
+      </c>
+      <c r="B31" s="97" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D31" s="101">
+        <v>44686</v>
+      </c>
+      <c r="E31" s="158">
+        <v>91950</v>
+      </c>
+      <c r="F31" s="161"/>
+      <c r="G31" s="164"/>
+      <c r="H31" s="167"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="96">
+        <v>31</v>
+      </c>
+      <c r="B32" s="97" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D32" s="101">
+        <v>44686</v>
+      </c>
+      <c r="E32" s="158">
+        <v>21000</v>
+      </c>
+      <c r="F32" s="161"/>
+      <c r="G32" s="164"/>
+      <c r="H32" s="167"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="37">
+        <v>32</v>
+      </c>
+      <c r="B33" s="97" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D33" s="101">
+        <v>44686</v>
+      </c>
+      <c r="E33" s="158">
+        <v>27500</v>
+      </c>
+      <c r="F33" s="161"/>
+      <c r="G33" s="164"/>
+      <c r="H33" s="167"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="96">
         <v>33</v>
       </c>
-      <c r="H2" s="130"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="39">
-        <v>2</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="11">
-        <v>29385</v>
-      </c>
-      <c r="E3" s="45">
-        <v>44608</v>
-      </c>
-      <c r="F3" s="145"/>
-      <c r="G3" s="131"/>
-      <c r="H3" s="132"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="39">
-        <v>3</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="11">
-        <v>7600</v>
-      </c>
-      <c r="E4" s="45">
-        <v>44617</v>
-      </c>
-      <c r="F4" s="145"/>
-      <c r="G4" s="131"/>
-      <c r="H4" s="132"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="39">
-        <v>4</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="11">
-        <v>15106</v>
-      </c>
-      <c r="E5" s="45">
-        <v>44618</v>
-      </c>
-      <c r="F5" s="145"/>
-      <c r="G5" s="131"/>
-      <c r="H5" s="132"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="39">
-        <v>5</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="11">
-        <v>29262.5</v>
-      </c>
-      <c r="E6" s="45">
-        <v>44623</v>
-      </c>
-      <c r="F6" s="145"/>
-      <c r="G6" s="131"/>
-      <c r="H6" s="132"/>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="40">
-        <v>6</v>
-      </c>
-      <c r="B7" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="41" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="42">
-        <v>12500</v>
-      </c>
-      <c r="E7" s="46">
-        <v>44620</v>
-      </c>
-      <c r="F7" s="146"/>
-      <c r="G7" s="133"/>
-      <c r="H7" s="134"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="35">
-        <v>7</v>
-      </c>
-      <c r="B8" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="43" t="s">
+      <c r="B34" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="38">
-        <v>154394</v>
-      </c>
-      <c r="E8" s="44">
-        <v>44606</v>
-      </c>
-      <c r="F8" s="135">
-        <f>D12+D11+D10+D9+D8</f>
-        <v>569778</v>
-      </c>
-      <c r="G8" s="147">
-        <v>44635</v>
-      </c>
-      <c r="H8" s="141" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="39">
-        <v>8</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="11">
-        <v>55344</v>
-      </c>
-      <c r="E9" s="45">
-        <v>44614</v>
-      </c>
-      <c r="F9" s="136"/>
-      <c r="G9" s="148"/>
-      <c r="H9" s="142"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="39">
-        <v>9</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="11">
-        <v>123660</v>
-      </c>
-      <c r="E10" s="45">
-        <v>44621</v>
-      </c>
-      <c r="F10" s="136"/>
-      <c r="G10" s="148"/>
-      <c r="H10" s="142"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="39">
-        <v>10</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="11">
-        <v>49000</v>
-      </c>
-      <c r="E11" s="45">
-        <v>44627</v>
-      </c>
-      <c r="F11" s="136"/>
-      <c r="G11" s="148"/>
-      <c r="H11" s="142"/>
-    </row>
-    <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="40">
-        <v>11</v>
-      </c>
-      <c r="B12" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="42">
-        <v>187380</v>
-      </c>
-      <c r="E12" s="46">
-        <v>44629</v>
-      </c>
-      <c r="F12" s="137"/>
-      <c r="G12" s="149"/>
-      <c r="H12" s="143"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="35">
+      <c r="C34" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D34" s="89">
+        <v>44690</v>
+      </c>
+      <c r="E34" s="128">
+        <v>131000</v>
+      </c>
+      <c r="F34" s="161"/>
+      <c r="G34" s="164"/>
+      <c r="H34" s="167"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="96">
+        <v>34</v>
+      </c>
+      <c r="B35" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="36" t="s">
+      <c r="C35" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D35" s="89">
+        <v>44693</v>
+      </c>
+      <c r="E35" s="128">
+        <v>137000</v>
+      </c>
+      <c r="F35" s="161"/>
+      <c r="G35" s="164"/>
+      <c r="H35" s="167"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="75">
+        <v>35</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D36" s="101">
+        <v>44697</v>
+      </c>
+      <c r="E36" s="158">
+        <v>215777</v>
+      </c>
+      <c r="F36" s="161"/>
+      <c r="G36" s="164"/>
+      <c r="H36" s="167"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="75">
         <v>36</v>
       </c>
-      <c r="D13" s="47">
-        <v>41400</v>
-      </c>
-      <c r="E13" s="48">
-        <v>44635</v>
-      </c>
-      <c r="F13" s="135">
-        <f>D16+D15+D14+D13</f>
-        <v>350480</v>
-      </c>
-      <c r="G13" s="150">
-        <v>44656</v>
-      </c>
-      <c r="H13" s="141" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="39">
-        <v>13</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="10" t="s">
+      <c r="B37" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D37" s="101">
+        <v>44700</v>
+      </c>
+      <c r="E37" s="158">
+        <v>83000</v>
+      </c>
+      <c r="F37" s="161"/>
+      <c r="G37" s="164"/>
+      <c r="H37" s="167"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="75">
         <v>37</v>
       </c>
-      <c r="D14" s="11">
-        <v>133400</v>
-      </c>
-      <c r="E14" s="49">
-        <v>44648</v>
-      </c>
-      <c r="F14" s="136"/>
-      <c r="G14" s="151"/>
-      <c r="H14" s="142"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="39">
-        <v>14</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="10" t="s">
+      <c r="B38" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="D38" s="101">
+        <v>44704</v>
+      </c>
+      <c r="E38" s="158">
+        <v>67400</v>
+      </c>
+      <c r="F38" s="161"/>
+      <c r="G38" s="164"/>
+      <c r="H38" s="167"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="75">
         <v>38</v>
       </c>
-      <c r="D15" s="11">
-        <v>140200</v>
-      </c>
-      <c r="E15" s="49">
-        <v>44648</v>
-      </c>
-      <c r="F15" s="136"/>
-      <c r="G15" s="151"/>
-      <c r="H15" s="142"/>
-    </row>
-    <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="40">
-        <v>15</v>
-      </c>
-      <c r="B16" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="41" t="s">
+      <c r="B39" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D39" s="89">
+        <v>44707</v>
+      </c>
+      <c r="E39" s="128">
+        <v>23000</v>
+      </c>
+      <c r="F39" s="161"/>
+      <c r="G39" s="164"/>
+      <c r="H39" s="167"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="75">
+        <v>39</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D40" s="101">
+        <v>44711</v>
+      </c>
+      <c r="E40" s="128">
+        <v>8000</v>
+      </c>
+      <c r="F40" s="161"/>
+      <c r="G40" s="164"/>
+      <c r="H40" s="167"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="75">
+        <v>40</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D41" s="101">
+        <v>44714</v>
+      </c>
+      <c r="E41" s="158">
+        <v>77200</v>
+      </c>
+      <c r="F41" s="161"/>
+      <c r="G41" s="164"/>
+      <c r="H41" s="167"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="75">
+        <v>41</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="D42" s="101">
+        <v>44715</v>
+      </c>
+      <c r="E42" s="158">
+        <v>22500</v>
+      </c>
+      <c r="F42" s="161"/>
+      <c r="G42" s="164"/>
+      <c r="H42" s="167"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="75">
+        <v>42</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="D43" s="101">
+        <v>44716</v>
+      </c>
+      <c r="E43" s="158">
+        <v>48000</v>
+      </c>
+      <c r="F43" s="161"/>
+      <c r="G43" s="164"/>
+      <c r="H43" s="167"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="75">
+        <v>43</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="D44" s="101">
+        <v>44716</v>
+      </c>
+      <c r="E44" s="158">
+        <v>116000</v>
+      </c>
+      <c r="F44" s="161"/>
+      <c r="G44" s="164"/>
+      <c r="H44" s="167"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="75">
+        <v>44</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="D45" s="101">
+        <v>44720</v>
+      </c>
+      <c r="E45" s="158">
+        <v>185500</v>
+      </c>
+      <c r="F45" s="161"/>
+      <c r="G45" s="164"/>
+      <c r="H45" s="167"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="75">
+        <v>45</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D46" s="101">
+        <v>44725</v>
+      </c>
+      <c r="E46" s="158">
+        <v>113000</v>
+      </c>
+      <c r="F46" s="161"/>
+      <c r="G46" s="164"/>
+      <c r="H46" s="167"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="75">
+        <v>46</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D47" s="89">
+        <v>44728</v>
+      </c>
+      <c r="E47" s="128">
+        <v>297400</v>
+      </c>
+      <c r="F47" s="161"/>
+      <c r="G47" s="164"/>
+      <c r="H47" s="167"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="75">
+        <v>47</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D48" s="101">
+        <v>44733</v>
+      </c>
+      <c r="E48" s="158">
+        <v>18000</v>
+      </c>
+      <c r="F48" s="161"/>
+      <c r="G48" s="164"/>
+      <c r="H48" s="167"/>
+    </row>
+    <row r="49" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="76">
+        <v>48</v>
+      </c>
+      <c r="B49" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49" s="39" t="s">
+        <v>140</v>
+      </c>
+      <c r="D49" s="156">
+        <v>44733</v>
+      </c>
+      <c r="E49" s="159">
+        <v>144700</v>
+      </c>
+      <c r="F49" s="162"/>
+      <c r="G49" s="165"/>
+      <c r="H49" s="168"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="144">
         <v>49</v>
       </c>
-      <c r="D16" s="42">
-        <v>35480</v>
-      </c>
-      <c r="E16" s="50">
-        <v>44641</v>
-      </c>
-      <c r="F16" s="137"/>
-      <c r="G16" s="152"/>
-      <c r="H16" s="143"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="35">
-        <v>16</v>
-      </c>
-      <c r="B17" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="36" t="s">
+      <c r="B50" s="114" t="s">
+        <v>12</v>
+      </c>
+      <c r="C50" s="114" t="s">
+        <v>144</v>
+      </c>
+      <c r="D50" s="113">
+        <v>44743</v>
+      </c>
+      <c r="E50" s="115">
+        <v>104250</v>
+      </c>
+      <c r="F50" s="115"/>
+      <c r="G50" s="113"/>
+      <c r="H50" s="114"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="138">
         <v>50</v>
       </c>
-      <c r="D17" s="47">
-        <v>103900</v>
-      </c>
-      <c r="E17" s="91">
-        <v>44651</v>
-      </c>
-      <c r="F17" s="135">
-        <f>D26+D25+D24+D23+D22+D21+D20+D19+D18+D17+D27+D28</f>
-        <v>968300</v>
-      </c>
-      <c r="G17" s="138">
-        <v>44681</v>
-      </c>
-      <c r="H17" s="141" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="39">
-        <v>17</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="10" t="s">
+      <c r="B51" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51" s="10"/>
+      <c r="D51" s="101"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="101"/>
+      <c r="H51" s="10"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="138">
         <v>51</v>
       </c>
-      <c r="D18" s="15">
-        <v>109700</v>
-      </c>
-      <c r="E18" s="45">
-        <v>44655</v>
-      </c>
-      <c r="F18" s="136"/>
-      <c r="G18" s="139"/>
-      <c r="H18" s="142"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="39">
-        <v>18</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="10" t="s">
+      <c r="B52" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C52" s="10"/>
+      <c r="D52" s="101"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="101"/>
+      <c r="H52" s="10"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="138">
         <v>52</v>
       </c>
-      <c r="D19" s="11">
-        <v>24400</v>
-      </c>
-      <c r="E19" s="45">
-        <v>44656</v>
-      </c>
-      <c r="F19" s="136"/>
-      <c r="G19" s="139"/>
-      <c r="H19" s="142"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="39">
-        <v>19</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" s="11">
-        <v>11000</v>
-      </c>
-      <c r="E20" s="45">
-        <v>44657</v>
-      </c>
-      <c r="F20" s="136"/>
-      <c r="G20" s="139"/>
-      <c r="H20" s="142"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="39">
-        <v>20</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="D21" s="11">
-        <v>47700</v>
-      </c>
-      <c r="E21" s="45">
-        <v>44657</v>
-      </c>
-      <c r="F21" s="136"/>
-      <c r="G21" s="139"/>
-      <c r="H21" s="142"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="39">
-        <v>21</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="D22" s="11">
-        <v>70650</v>
-      </c>
-      <c r="E22" s="45">
-        <v>44662</v>
-      </c>
-      <c r="F22" s="136"/>
-      <c r="G22" s="139"/>
-      <c r="H22" s="142"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="39">
-        <v>22</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="D23" s="11">
-        <v>89000</v>
-      </c>
-      <c r="E23" s="45">
-        <v>44667</v>
-      </c>
-      <c r="F23" s="136"/>
-      <c r="G23" s="139"/>
-      <c r="H23" s="142"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="39">
-        <v>23</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="D24" s="11">
-        <v>103550</v>
-      </c>
-      <c r="E24" s="45">
-        <v>44669</v>
-      </c>
-      <c r="F24" s="136"/>
-      <c r="G24" s="139"/>
-      <c r="H24" s="142"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="39">
-        <v>24</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="D25" s="11">
-        <v>112500</v>
-      </c>
-      <c r="E25" s="45">
-        <v>44671</v>
-      </c>
-      <c r="F25" s="136"/>
-      <c r="G25" s="139"/>
-      <c r="H25" s="142"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="102">
-        <v>25</v>
-      </c>
-      <c r="B26" s="103" t="s">
-        <v>13</v>
-      </c>
-      <c r="C26" s="103" t="s">
-        <v>80</v>
-      </c>
-      <c r="D26" s="104">
-        <v>18400</v>
-      </c>
-      <c r="E26" s="105">
-        <v>44672</v>
-      </c>
-      <c r="F26" s="136"/>
-      <c r="G26" s="139"/>
-      <c r="H26" s="142"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="39">
-        <v>26</v>
-      </c>
-      <c r="B27" s="103" t="s">
-        <v>13</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="D27" s="11">
-        <v>214000</v>
-      </c>
-      <c r="E27" s="45">
-        <v>44676</v>
-      </c>
-      <c r="F27" s="136"/>
-      <c r="G27" s="139"/>
-      <c r="H27" s="142"/>
-    </row>
-    <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="102">
-        <v>27</v>
-      </c>
-      <c r="B28" s="103" t="s">
-        <v>13</v>
-      </c>
-      <c r="C28" s="103" t="s">
-        <v>83</v>
-      </c>
-      <c r="D28" s="104">
-        <v>63500</v>
-      </c>
-      <c r="E28" s="105">
-        <v>44679</v>
-      </c>
-      <c r="F28" s="137"/>
-      <c r="G28" s="140"/>
-      <c r="H28" s="143"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="102">
-        <v>28</v>
-      </c>
-      <c r="B29" s="103" t="s">
-        <v>13</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="D29" s="11">
-        <v>87700</v>
-      </c>
-      <c r="E29" s="107">
-        <v>44683</v>
-      </c>
-      <c r="F29" s="128"/>
-      <c r="G29" s="126"/>
-      <c r="H29" s="127"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="39">
-        <v>29</v>
-      </c>
-      <c r="B30" s="103" t="s">
-        <v>13</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="D30" s="11">
-        <v>54000</v>
-      </c>
-      <c r="E30" s="107">
-        <v>44684</v>
-      </c>
-      <c r="F30" s="11"/>
-      <c r="G30" s="107"/>
-      <c r="H30" s="10"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="102">
-        <v>30</v>
-      </c>
-      <c r="B31" s="103" t="s">
-        <v>13</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="D31" s="11">
-        <v>91950</v>
-      </c>
-      <c r="E31" s="107">
-        <v>44686</v>
-      </c>
-      <c r="F31" s="11"/>
-      <c r="G31" s="107"/>
-      <c r="H31" s="10"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="102">
-        <v>31</v>
-      </c>
-      <c r="B32" s="103" t="s">
-        <v>13</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="D32" s="11">
-        <v>21000</v>
-      </c>
-      <c r="E32" s="107">
-        <v>44686</v>
-      </c>
-      <c r="F32" s="11"/>
-      <c r="G32" s="107"/>
-      <c r="H32" s="10"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="39">
-        <v>32</v>
-      </c>
-      <c r="B33" s="103" t="s">
-        <v>13</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="D33" s="11">
-        <v>27500</v>
-      </c>
-      <c r="E33" s="107">
-        <v>44686</v>
-      </c>
-      <c r="F33" s="11"/>
-      <c r="G33" s="107"/>
-      <c r="H33" s="10"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="102">
-        <v>33</v>
-      </c>
-      <c r="B34" s="103" t="s">
-        <v>13</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D34" s="6">
-        <v>131000</v>
-      </c>
-      <c r="E34" s="94">
-        <v>44690</v>
-      </c>
-      <c r="F34" s="11"/>
-      <c r="G34" s="107"/>
-      <c r="H34" s="10"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="102">
-        <v>34</v>
-      </c>
-      <c r="B35" s="103" t="s">
-        <v>13</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D35" s="6">
-        <v>137000</v>
-      </c>
-      <c r="E35" s="94">
-        <v>44693</v>
-      </c>
-      <c r="F35" s="11"/>
-      <c r="G35" s="107"/>
-      <c r="H35" s="10"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="39">
-        <v>35</v>
-      </c>
-      <c r="B36" s="103" t="s">
-        <v>13</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="D36" s="11">
-        <v>215777</v>
-      </c>
-      <c r="E36" s="107">
-        <v>44697</v>
-      </c>
-      <c r="F36" s="11"/>
-      <c r="G36" s="107"/>
-      <c r="H36" s="10"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="102">
-        <v>36</v>
-      </c>
-      <c r="B37" s="103" t="s">
-        <v>13</v>
-      </c>
-      <c r="C37" s="10"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="107"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="107"/>
-      <c r="H37" s="10"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="102">
-        <v>37</v>
-      </c>
-      <c r="B38" s="103" t="s">
-        <v>13</v>
-      </c>
-      <c r="C38" s="10"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="107"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="107"/>
-      <c r="H38" s="10"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="39">
-        <v>38</v>
-      </c>
-      <c r="B39" s="103" t="s">
-        <v>13</v>
-      </c>
-      <c r="C39" s="10"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="107"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="107"/>
-      <c r="H39" s="10"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="102">
-        <v>39</v>
-      </c>
-      <c r="B40" s="103" t="s">
-        <v>13</v>
-      </c>
-      <c r="C40" s="10"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="107"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="107"/>
-      <c r="H40" s="10"/>
+      <c r="B53" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C53" s="10"/>
+      <c r="D53" s="101"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="101"/>
+      <c r="H53" s="10"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="138">
+        <v>53</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C54" s="10"/>
+      <c r="D54" s="101"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="101"/>
+      <c r="H54" s="10"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="138">
+        <v>54</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55" s="10"/>
+      <c r="D55" s="101"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="101"/>
+      <c r="H55" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="14">
+    <mergeCell ref="F29:F49"/>
+    <mergeCell ref="G29:G49"/>
+    <mergeCell ref="H29:H49"/>
     <mergeCell ref="G2:H7"/>
     <mergeCell ref="F17:F28"/>
     <mergeCell ref="G17:G28"/>
@@ -2610,111 +3177,1185 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:H53"/>
+  <sheetViews>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37:E38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="73"/>
+    <col min="2" max="2" width="25.7109375" style="73" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" style="73" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="83" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="82"/>
+    <col min="6" max="6" width="11.28515625" style="84" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" style="85" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="73"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="196" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="196" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="196" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="198" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="197" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="181" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="187" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="190" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="196"/>
+      <c r="B2" s="196"/>
+      <c r="C2" s="196"/>
+      <c r="D2" s="198"/>
+      <c r="E2" s="197"/>
+      <c r="F2" s="183"/>
+      <c r="G2" s="189"/>
+      <c r="H2" s="192"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="37">
+        <v>1</v>
+      </c>
+      <c r="B3" s="104" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="110" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="102">
+        <v>44609</v>
+      </c>
+      <c r="E3" s="109">
+        <v>227000</v>
+      </c>
+      <c r="F3" s="181">
+        <f>E5+E4+E3</f>
+        <v>862800</v>
+      </c>
+      <c r="G3" s="184">
+        <v>44615</v>
+      </c>
+      <c r="H3" s="190" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="75">
+        <v>2</v>
+      </c>
+      <c r="B4" s="105" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="55">
+        <v>44609</v>
+      </c>
+      <c r="E4" s="112">
+        <v>408400</v>
+      </c>
+      <c r="F4" s="182"/>
+      <c r="G4" s="185"/>
+      <c r="H4" s="191"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="76">
+        <v>3</v>
+      </c>
+      <c r="B5" s="77" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="56">
+        <v>44614</v>
+      </c>
+      <c r="E5" s="54">
+        <v>227400</v>
+      </c>
+      <c r="F5" s="183"/>
+      <c r="G5" s="186"/>
+      <c r="H5" s="192"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="33">
+        <v>4</v>
+      </c>
+      <c r="B6" s="74" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="42">
+        <v>44621</v>
+      </c>
+      <c r="E6" s="36">
+        <v>289000</v>
+      </c>
+      <c r="F6" s="181">
+        <f>E9+E8+E7+E6</f>
+        <v>881050</v>
+      </c>
+      <c r="G6" s="184">
+        <v>44638</v>
+      </c>
+      <c r="H6" s="190" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="75">
+        <v>5</v>
+      </c>
+      <c r="B7" s="105" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="111" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="55">
+        <v>44627</v>
+      </c>
+      <c r="E7" s="112">
+        <v>191300</v>
+      </c>
+      <c r="F7" s="182"/>
+      <c r="G7" s="185"/>
+      <c r="H7" s="191"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="75">
+        <v>6</v>
+      </c>
+      <c r="B8" s="105" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="60">
+        <v>44634</v>
+      </c>
+      <c r="E8" s="6">
+        <v>297200</v>
+      </c>
+      <c r="F8" s="182"/>
+      <c r="G8" s="185"/>
+      <c r="H8" s="191"/>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="76">
+        <v>7</v>
+      </c>
+      <c r="B9" s="77" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="61">
+        <v>44634</v>
+      </c>
+      <c r="E9" s="59">
+        <v>103550</v>
+      </c>
+      <c r="F9" s="183"/>
+      <c r="G9" s="186"/>
+      <c r="H9" s="192"/>
+    </row>
+    <row r="10" spans="1:8" s="81" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="33">
+        <v>8</v>
+      </c>
+      <c r="B10" s="74" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="78" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="80">
+        <v>44641</v>
+      </c>
+      <c r="E10" s="79">
+        <v>130300</v>
+      </c>
+      <c r="F10" s="181">
+        <f>E15+E14+E13+E12+E11+E10</f>
+        <v>1185900</v>
+      </c>
+      <c r="G10" s="187">
+        <v>44655</v>
+      </c>
+      <c r="H10" s="202" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="75">
+        <v>9</v>
+      </c>
+      <c r="B11" s="105" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="111" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="55">
+        <v>44643</v>
+      </c>
+      <c r="E11" s="112">
+        <v>322300</v>
+      </c>
+      <c r="F11" s="182"/>
+      <c r="G11" s="188"/>
+      <c r="H11" s="203"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="75">
+        <v>10</v>
+      </c>
+      <c r="B12" s="105" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="111" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="55">
+        <v>44648</v>
+      </c>
+      <c r="E12" s="112">
+        <v>224200</v>
+      </c>
+      <c r="F12" s="182"/>
+      <c r="G12" s="188"/>
+      <c r="H12" s="203"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="75">
+        <v>11</v>
+      </c>
+      <c r="B13" s="105" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="111" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="55">
+        <v>44651</v>
+      </c>
+      <c r="E13" s="112">
+        <v>200250</v>
+      </c>
+      <c r="F13" s="182"/>
+      <c r="G13" s="188"/>
+      <c r="H13" s="203"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="75">
+        <v>12</v>
+      </c>
+      <c r="B14" s="105" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="111" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="55">
+        <v>44653</v>
+      </c>
+      <c r="E14" s="112">
+        <v>64400</v>
+      </c>
+      <c r="F14" s="182"/>
+      <c r="G14" s="188"/>
+      <c r="H14" s="203"/>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="76">
+        <v>13</v>
+      </c>
+      <c r="B15" s="77" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="56">
+        <v>44655</v>
+      </c>
+      <c r="E15" s="54">
+        <v>244450</v>
+      </c>
+      <c r="F15" s="183"/>
+      <c r="G15" s="189"/>
+      <c r="H15" s="204"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="33">
+        <v>14</v>
+      </c>
+      <c r="B16" s="74" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="42">
+        <v>44659</v>
+      </c>
+      <c r="E16" s="36">
+        <v>76400</v>
+      </c>
+      <c r="F16" s="181">
+        <f>E19+E18+E17+E16</f>
+        <v>1024350</v>
+      </c>
+      <c r="G16" s="187">
+        <v>44673</v>
+      </c>
+      <c r="H16" s="190" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="75">
+        <v>15</v>
+      </c>
+      <c r="B17" s="105" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="111" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" s="55">
+        <v>44662</v>
+      </c>
+      <c r="E17" s="112">
+        <v>344500</v>
+      </c>
+      <c r="F17" s="182"/>
+      <c r="G17" s="188"/>
+      <c r="H17" s="191"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="75">
+        <v>16</v>
+      </c>
+      <c r="B18" s="105" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="111" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="55">
+        <v>44669</v>
+      </c>
+      <c r="E18" s="112">
+        <v>284000</v>
+      </c>
+      <c r="F18" s="182"/>
+      <c r="G18" s="188"/>
+      <c r="H18" s="191"/>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="76">
+        <v>17</v>
+      </c>
+      <c r="B19" s="77" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" s="56">
+        <v>44672</v>
+      </c>
+      <c r="E19" s="54">
+        <v>319450</v>
+      </c>
+      <c r="F19" s="183"/>
+      <c r="G19" s="189"/>
+      <c r="H19" s="192"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="33">
+        <v>18</v>
+      </c>
+      <c r="B20" s="74" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20" s="42">
+        <v>44676</v>
+      </c>
+      <c r="E20" s="36">
+        <v>392200</v>
+      </c>
+      <c r="F20" s="193">
+        <f>E23+E21+E20+E22</f>
+        <v>1110200</v>
+      </c>
+      <c r="G20" s="188">
+        <v>44688</v>
+      </c>
+      <c r="H20" s="190" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="75">
+        <v>19</v>
+      </c>
+      <c r="B21" s="105" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="111" t="s">
+        <v>80</v>
+      </c>
+      <c r="D21" s="55">
+        <v>44679</v>
+      </c>
+      <c r="E21" s="112">
+        <v>222000</v>
+      </c>
+      <c r="F21" s="194"/>
+      <c r="G21" s="188"/>
+      <c r="H21" s="191"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="75">
+        <v>20</v>
+      </c>
+      <c r="B22" s="105" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="111" t="s">
+        <v>81</v>
+      </c>
+      <c r="D22" s="55">
+        <v>44683</v>
+      </c>
+      <c r="E22" s="112">
+        <v>275700</v>
+      </c>
+      <c r="F22" s="194"/>
+      <c r="G22" s="188"/>
+      <c r="H22" s="191"/>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="76">
+        <v>21</v>
+      </c>
+      <c r="B23" s="77" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="53" t="s">
+        <v>87</v>
+      </c>
+      <c r="D23" s="56">
+        <v>44686</v>
+      </c>
+      <c r="E23" s="54">
+        <v>220300</v>
+      </c>
+      <c r="F23" s="195"/>
+      <c r="G23" s="189"/>
+      <c r="H23" s="192"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="33">
+        <v>22</v>
+      </c>
+      <c r="B24" s="74" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="130" t="s">
+        <v>92</v>
+      </c>
+      <c r="D24" s="131">
+        <v>44690</v>
+      </c>
+      <c r="E24" s="132">
+        <v>221600</v>
+      </c>
+      <c r="F24" s="181">
+        <f>E28+E27+E26+E25+E24</f>
+        <v>857200</v>
+      </c>
+      <c r="G24" s="187">
+        <v>44706</v>
+      </c>
+      <c r="H24" s="190" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="75">
+        <v>23</v>
+      </c>
+      <c r="B25" s="117" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D25" s="89">
+        <v>44693</v>
+      </c>
+      <c r="E25" s="128">
+        <v>194500</v>
+      </c>
+      <c r="F25" s="182"/>
+      <c r="G25" s="188"/>
+      <c r="H25" s="191"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="75">
+        <v>24</v>
+      </c>
+      <c r="B26" s="117" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="120" t="s">
+        <v>94</v>
+      </c>
+      <c r="D26" s="122">
+        <v>44697</v>
+      </c>
+      <c r="E26" s="129">
+        <v>222200</v>
+      </c>
+      <c r="F26" s="182"/>
+      <c r="G26" s="188"/>
+      <c r="H26" s="191"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="75">
+        <v>25</v>
+      </c>
+      <c r="B27" s="117" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="120" t="s">
+        <v>97</v>
+      </c>
+      <c r="D27" s="122">
+        <v>44700</v>
+      </c>
+      <c r="E27" s="129">
+        <v>117700</v>
+      </c>
+      <c r="F27" s="182"/>
+      <c r="G27" s="188"/>
+      <c r="H27" s="191"/>
+    </row>
+    <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="76">
+        <v>26</v>
+      </c>
+      <c r="B28" s="77" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="53" t="s">
+        <v>98</v>
+      </c>
+      <c r="D28" s="133">
+        <v>44704</v>
+      </c>
+      <c r="E28" s="134">
+        <v>101200</v>
+      </c>
+      <c r="F28" s="183"/>
+      <c r="G28" s="189"/>
+      <c r="H28" s="192"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="33">
+        <v>27</v>
+      </c>
+      <c r="B29" s="74" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="130" t="s">
+        <v>115</v>
+      </c>
+      <c r="D29" s="131">
+        <v>44707</v>
+      </c>
+      <c r="E29" s="132">
+        <v>270600</v>
+      </c>
+      <c r="F29" s="181">
+        <f>E29+E30+E31+E32+E33+E34+E35+E36</f>
+        <v>2019700</v>
+      </c>
+      <c r="G29" s="187">
+        <v>44733</v>
+      </c>
+      <c r="H29" s="199" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="75">
+        <v>28</v>
+      </c>
+      <c r="B30" s="142" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="147" t="s">
+        <v>117</v>
+      </c>
+      <c r="D30" s="148">
+        <v>44711</v>
+      </c>
+      <c r="E30" s="129">
+        <v>244200</v>
+      </c>
+      <c r="F30" s="182"/>
+      <c r="G30" s="188"/>
+      <c r="H30" s="200"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="75">
+        <v>29</v>
+      </c>
+      <c r="B31" s="142" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D31" s="89">
+        <v>44718</v>
+      </c>
+      <c r="E31" s="128">
+        <v>222800</v>
+      </c>
+      <c r="F31" s="182"/>
+      <c r="G31" s="188"/>
+      <c r="H31" s="200"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="75">
+        <v>30</v>
+      </c>
+      <c r="B32" s="142" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D32" s="89">
+        <v>44718</v>
+      </c>
+      <c r="E32" s="128">
+        <v>231200</v>
+      </c>
+      <c r="F32" s="182"/>
+      <c r="G32" s="188"/>
+      <c r="H32" s="200"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="135">
+        <v>31</v>
+      </c>
+      <c r="B33" s="143" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D33" s="89">
+        <v>44720</v>
+      </c>
+      <c r="E33" s="128">
+        <v>179500</v>
+      </c>
+      <c r="F33" s="182"/>
+      <c r="G33" s="188"/>
+      <c r="H33" s="200"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="75">
+        <v>32</v>
+      </c>
+      <c r="B34" s="142" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D34" s="89">
+        <v>44725</v>
+      </c>
+      <c r="E34" s="128">
+        <v>197100</v>
+      </c>
+      <c r="F34" s="182"/>
+      <c r="G34" s="188"/>
+      <c r="H34" s="200"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="75">
+        <v>33</v>
+      </c>
+      <c r="B35" s="142" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D35" s="89">
+        <v>44728</v>
+      </c>
+      <c r="E35" s="128">
+        <v>304000</v>
+      </c>
+      <c r="F35" s="182"/>
+      <c r="G35" s="188"/>
+      <c r="H35" s="200"/>
+    </row>
+    <row r="36" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="76">
+        <v>34</v>
+      </c>
+      <c r="B36" s="77" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" s="58" t="s">
+        <v>137</v>
+      </c>
+      <c r="D36" s="151">
+        <v>44729</v>
+      </c>
+      <c r="E36" s="152">
+        <v>370300</v>
+      </c>
+      <c r="F36" s="183"/>
+      <c r="G36" s="189"/>
+      <c r="H36" s="201"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="37">
+        <v>35</v>
+      </c>
+      <c r="B37" s="144" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D37" s="89">
+        <v>44739</v>
+      </c>
+      <c r="E37" s="6">
+        <v>316900</v>
+      </c>
+      <c r="F37" s="145"/>
+      <c r="G37" s="149"/>
+      <c r="H37" s="146"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="135">
+        <v>36</v>
+      </c>
+      <c r="B38" s="116" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" s="120" t="s">
+        <v>145</v>
+      </c>
+      <c r="D38" s="122">
+        <v>44743</v>
+      </c>
+      <c r="E38" s="121">
+        <v>170700</v>
+      </c>
+      <c r="F38" s="118"/>
+      <c r="G38" s="123"/>
+      <c r="H38" s="120"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="117">
+        <v>37</v>
+      </c>
+      <c r="B39" s="117" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" s="120"/>
+      <c r="D39" s="122"/>
+      <c r="E39" s="121"/>
+      <c r="F39" s="118"/>
+      <c r="G39" s="123"/>
+      <c r="H39" s="120"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="75">
+        <v>38</v>
+      </c>
+      <c r="B40" s="117" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40" s="120"/>
+      <c r="D40" s="122"/>
+      <c r="E40" s="121"/>
+      <c r="F40" s="118"/>
+      <c r="G40" s="123"/>
+      <c r="H40" s="120"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="75">
+        <v>39</v>
+      </c>
+      <c r="B41" s="117" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" s="120"/>
+      <c r="D41" s="122"/>
+      <c r="E41" s="121"/>
+      <c r="F41" s="118"/>
+      <c r="G41" s="123"/>
+      <c r="H41" s="120"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="75">
+        <v>40</v>
+      </c>
+      <c r="B42" s="117" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" s="120"/>
+      <c r="D42" s="122"/>
+      <c r="E42" s="121"/>
+      <c r="F42" s="118"/>
+      <c r="G42" s="123"/>
+      <c r="H42" s="120"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="135">
+        <v>41</v>
+      </c>
+      <c r="B43" s="116" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" s="120"/>
+      <c r="D43" s="122"/>
+      <c r="E43" s="121"/>
+      <c r="F43" s="118"/>
+      <c r="G43" s="123"/>
+      <c r="H43" s="120"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="117">
+        <v>42</v>
+      </c>
+      <c r="B44" s="117" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" s="120"/>
+      <c r="D44" s="122"/>
+      <c r="E44" s="121"/>
+      <c r="F44" s="118"/>
+      <c r="G44" s="123"/>
+      <c r="H44" s="120"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="75">
+        <v>43</v>
+      </c>
+      <c r="B45" s="117" t="s">
+        <v>14</v>
+      </c>
+      <c r="C45" s="120"/>
+      <c r="D45" s="122"/>
+      <c r="E45" s="121"/>
+      <c r="F45" s="118"/>
+      <c r="G45" s="123"/>
+      <c r="H45" s="120"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="75">
+        <v>44</v>
+      </c>
+      <c r="B46" s="117" t="s">
+        <v>14</v>
+      </c>
+      <c r="C46" s="120"/>
+      <c r="D46" s="122"/>
+      <c r="E46" s="121"/>
+      <c r="F46" s="118"/>
+      <c r="G46" s="123"/>
+      <c r="H46" s="120"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="75">
+        <v>45</v>
+      </c>
+      <c r="B47" s="117" t="s">
+        <v>14</v>
+      </c>
+      <c r="C47" s="120"/>
+      <c r="D47" s="122"/>
+      <c r="E47" s="121"/>
+      <c r="F47" s="118"/>
+      <c r="G47" s="123"/>
+      <c r="H47" s="120"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="135">
+        <v>46</v>
+      </c>
+      <c r="B48" s="116" t="s">
+        <v>14</v>
+      </c>
+      <c r="C48" s="120"/>
+      <c r="D48" s="122"/>
+      <c r="E48" s="121"/>
+      <c r="F48" s="118"/>
+      <c r="G48" s="123"/>
+      <c r="H48" s="120"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="117">
+        <v>47</v>
+      </c>
+      <c r="B49" s="117" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" s="120"/>
+      <c r="D49" s="122"/>
+      <c r="E49" s="121"/>
+      <c r="F49" s="118"/>
+      <c r="G49" s="123"/>
+      <c r="H49" s="120"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="75">
+        <v>48</v>
+      </c>
+      <c r="B50" s="117" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" s="120"/>
+      <c r="D50" s="122"/>
+      <c r="E50" s="121"/>
+      <c r="F50" s="118"/>
+      <c r="G50" s="123"/>
+      <c r="H50" s="120"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="75">
+        <v>49</v>
+      </c>
+      <c r="B51" s="117" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51" s="120"/>
+      <c r="D51" s="122"/>
+      <c r="E51" s="121"/>
+      <c r="F51" s="118"/>
+      <c r="G51" s="123"/>
+      <c r="H51" s="120"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="75">
+        <v>50</v>
+      </c>
+      <c r="B52" s="117" t="s">
+        <v>14</v>
+      </c>
+      <c r="C52" s="120"/>
+      <c r="D52" s="122"/>
+      <c r="E52" s="121"/>
+      <c r="F52" s="118"/>
+      <c r="G52" s="123"/>
+      <c r="H52" s="120"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="135">
+        <v>51</v>
+      </c>
+      <c r="B53" s="116" t="s">
+        <v>14</v>
+      </c>
+      <c r="C53" s="120"/>
+      <c r="D53" s="122"/>
+      <c r="E53" s="121"/>
+      <c r="F53" s="118"/>
+      <c r="G53" s="123"/>
+      <c r="H53" s="120"/>
+    </row>
+  </sheetData>
+  <mergeCells count="29">
+    <mergeCell ref="F29:F36"/>
+    <mergeCell ref="G29:G36"/>
+    <mergeCell ref="H29:H36"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="H3:H5"/>
+    <mergeCell ref="H6:H9"/>
+    <mergeCell ref="H10:H15"/>
+    <mergeCell ref="H16:H19"/>
+    <mergeCell ref="F16:F19"/>
+    <mergeCell ref="G16:G19"/>
+    <mergeCell ref="F10:F15"/>
+    <mergeCell ref="G10:G15"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="F24:F28"/>
+    <mergeCell ref="G24:G28"/>
+    <mergeCell ref="H24:H28"/>
+    <mergeCell ref="F20:F23"/>
+    <mergeCell ref="G20:G23"/>
+    <mergeCell ref="H20:H23"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="12"/>
     <col min="2" max="2" width="28" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" style="127" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" style="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" style="23" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="23" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="157" t="s">
+      <c r="A1" s="209" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="159" t="s">
+      <c r="B1" s="196" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="159" t="s">
+      <c r="C1" s="196" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="160" t="s">
+      <c r="D1" s="197" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="161" t="s">
+      <c r="E1" s="211" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="162" t="s">
+      <c r="F1" s="212" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="155" t="s">
+      <c r="G1" s="207" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="153" t="s">
-        <v>69</v>
+      <c r="H1" s="205" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="158"/>
-      <c r="B2" s="159"/>
-      <c r="C2" s="159"/>
-      <c r="D2" s="160"/>
-      <c r="E2" s="161"/>
-      <c r="F2" s="163"/>
-      <c r="G2" s="156"/>
-      <c r="H2" s="154"/>
+      <c r="A2" s="210"/>
+      <c r="B2" s="196"/>
+      <c r="C2" s="196"/>
+      <c r="D2" s="197"/>
+      <c r="E2" s="211"/>
+      <c r="F2" s="213"/>
+      <c r="G2" s="208"/>
+      <c r="H2" s="206"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>1</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>11</v>
+        <v>17</v>
+      </c>
+      <c r="C3" s="124" t="s">
+        <v>106</v>
       </c>
       <c r="D3" s="19">
-        <v>135390</v>
-      </c>
-      <c r="E3" s="24">
-        <v>44604</v>
+        <v>200620</v>
+      </c>
+      <c r="E3" s="22">
+        <v>44700</v>
       </c>
       <c r="F3" s="19">
-        <f>D3</f>
-        <v>135390</v>
-      </c>
-      <c r="G3" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="H3" s="9"/>
+        <f t="shared" ref="F3:F19" si="0">D3</f>
+        <v>200620</v>
+      </c>
+      <c r="G3" s="22">
+        <v>44613</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>2</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="C4" s="124" t="s">
+        <v>107</v>
       </c>
       <c r="D4" s="19">
-        <v>200620</v>
-      </c>
-      <c r="E4" s="24">
-        <v>44611</v>
+        <v>169860</v>
+      </c>
+      <c r="E4" s="22">
+        <v>44700</v>
       </c>
       <c r="F4" s="19">
-        <f t="shared" ref="F4:F20" si="0">D4</f>
-        <v>200620</v>
-      </c>
-      <c r="G4" s="24">
-        <v>44613</v>
+        <f t="shared" si="0"/>
+        <v>169860</v>
+      </c>
+      <c r="G4" s="107">
+        <v>44621</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -2722,26 +4363,26 @@
         <v>3</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>25</v>
+        <v>17</v>
+      </c>
+      <c r="C5" s="124" t="s">
+        <v>108</v>
       </c>
       <c r="D5" s="19">
-        <v>169860</v>
-      </c>
-      <c r="E5" s="24">
-        <v>44620</v>
+        <v>345590</v>
+      </c>
+      <c r="E5" s="22">
+        <v>44700</v>
       </c>
       <c r="F5" s="19">
         <f t="shared" si="0"/>
-        <v>169860</v>
-      </c>
-      <c r="G5" s="116">
-        <v>44621</v>
+        <v>345590</v>
+      </c>
+      <c r="G5" s="107">
+        <v>44628</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -2749,345 +4390,378 @@
         <v>4</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>30</v>
+        <v>17</v>
+      </c>
+      <c r="C6" s="124" t="s">
+        <v>101</v>
       </c>
       <c r="D6" s="19">
-        <v>345590</v>
-      </c>
-      <c r="E6" s="24">
-        <v>44628</v>
+        <v>319290</v>
+      </c>
+      <c r="E6" s="22">
+        <v>44700</v>
       </c>
       <c r="F6" s="19">
         <f t="shared" si="0"/>
-        <v>345590</v>
-      </c>
-      <c r="G6" s="116">
-        <v>44628</v>
+        <v>319290</v>
+      </c>
+      <c r="G6" s="107">
+        <v>44638</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
+      <c r="A7" s="119">
         <v>5</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" s="19">
-        <v>319290</v>
-      </c>
-      <c r="E7" s="24">
-        <v>44637</v>
+        <v>17</v>
+      </c>
+      <c r="C7" s="125" t="s">
+        <v>111</v>
+      </c>
+      <c r="D7" s="20">
+        <v>308250</v>
+      </c>
+      <c r="E7" s="22">
+        <v>44700</v>
       </c>
       <c r="F7" s="19">
         <f t="shared" si="0"/>
-        <v>319290</v>
-      </c>
-      <c r="G7" s="116">
-        <v>44638</v>
+        <v>308250</v>
+      </c>
+      <c r="G7" s="107">
+        <v>44646</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
+      <c r="A8" s="119">
         <v>6</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" s="20">
-        <v>308250</v>
-      </c>
-      <c r="E8" s="24">
-        <v>44646</v>
+        <v>17</v>
+      </c>
+      <c r="C8" s="124" t="s">
+        <v>103</v>
+      </c>
+      <c r="D8" s="19">
+        <v>403650</v>
+      </c>
+      <c r="E8" s="22">
+        <v>44700</v>
       </c>
       <c r="F8" s="19">
         <f t="shared" si="0"/>
-        <v>308250</v>
-      </c>
-      <c r="G8" s="116">
-        <v>44646</v>
+        <v>403650</v>
+      </c>
+      <c r="G8" s="107">
+        <v>44652</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="119">
         <v>7</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" s="19">
-        <v>403650</v>
-      </c>
-      <c r="E9" s="24">
-        <v>44652</v>
+        <v>17</v>
+      </c>
+      <c r="C9" s="126" t="s">
+        <v>102</v>
+      </c>
+      <c r="D9" s="106">
+        <v>291300</v>
+      </c>
+      <c r="E9" s="107">
+        <v>44700</v>
       </c>
       <c r="F9" s="19">
         <f t="shared" si="0"/>
-        <v>403650</v>
-      </c>
-      <c r="G9" s="116">
-        <v>44652</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="114">
+        <v>291300</v>
+      </c>
+      <c r="G9" s="107">
+        <v>44660</v>
+      </c>
+      <c r="H9" s="105" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="119">
         <v>8</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="114" t="s">
-        <v>67</v>
-      </c>
-      <c r="D10" s="115">
-        <v>291300</v>
-      </c>
-      <c r="E10" s="116">
-        <v>44660</v>
+        <v>17</v>
+      </c>
+      <c r="C10" s="124" t="s">
+        <v>104</v>
+      </c>
+      <c r="D10" s="19">
+        <v>231520</v>
+      </c>
+      <c r="E10" s="22">
+        <v>44700</v>
       </c>
       <c r="F10" s="19">
         <f t="shared" si="0"/>
-        <v>291300</v>
-      </c>
-      <c r="G10" s="116">
-        <v>44660</v>
-      </c>
-      <c r="H10" s="114" t="s">
-        <v>70</v>
+        <v>231520</v>
+      </c>
+      <c r="G10" s="22">
+        <v>44667</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
+      <c r="A11" s="119">
         <v>9</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>68</v>
+        <v>17</v>
+      </c>
+      <c r="C11" s="124" t="s">
+        <v>110</v>
       </c>
       <c r="D11" s="19">
-        <v>231520</v>
-      </c>
-      <c r="E11" s="24">
-        <v>44667</v>
+        <v>363750</v>
+      </c>
+      <c r="E11" s="22">
+        <v>44700</v>
       </c>
       <c r="F11" s="19">
         <f t="shared" si="0"/>
-        <v>231520</v>
-      </c>
-      <c r="G11" s="24">
-        <v>44667</v>
+        <v>363750</v>
+      </c>
+      <c r="G11" s="22">
+        <v>44677</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
+      <c r="A12" s="119">
         <v>10</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>89</v>
+        <v>17</v>
+      </c>
+      <c r="C12" s="124" t="s">
+        <v>112</v>
       </c>
       <c r="D12" s="19">
-        <v>363750</v>
-      </c>
-      <c r="E12" s="24">
-        <v>44676</v>
+        <v>354230</v>
+      </c>
+      <c r="E12" s="22">
+        <v>44700</v>
       </c>
       <c r="F12" s="19">
         <f t="shared" si="0"/>
-        <v>363750</v>
-      </c>
-      <c r="G12" s="24">
-        <v>44677</v>
+        <v>354230</v>
+      </c>
+      <c r="G12" s="22">
+        <v>44684</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="9">
+      <c r="A13" s="119">
         <v>11</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>90</v>
+      <c r="B13" s="119" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="124" t="s">
+        <v>105</v>
       </c>
       <c r="D13" s="19">
-        <v>354230</v>
-      </c>
-      <c r="E13" s="24">
-        <v>44681</v>
+        <v>375650</v>
+      </c>
+      <c r="E13" s="22">
+        <v>44700</v>
       </c>
       <c r="F13" s="19">
         <f t="shared" si="0"/>
-        <v>354230</v>
-      </c>
-      <c r="G13" s="24">
-        <v>44684</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>71</v>
+        <v>375650</v>
+      </c>
+      <c r="G13" s="22">
+        <v>44688</v>
+      </c>
+      <c r="H13" s="119" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
+      <c r="A14" s="119">
         <v>12</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="122" t="s">
-        <v>106</v>
-      </c>
-      <c r="D14" s="71">
+        <v>17</v>
+      </c>
+      <c r="C14" s="124" t="s">
+        <v>109</v>
+      </c>
+      <c r="D14" s="19">
         <v>399150</v>
       </c>
-      <c r="E14" s="74">
-        <v>44695</v>
+      <c r="E14" s="22">
+        <v>44700</v>
       </c>
       <c r="F14" s="19">
         <f t="shared" si="0"/>
         <v>399150</v>
       </c>
-      <c r="G14" s="24">
-        <v>44695</v>
+      <c r="G14" s="22">
+        <v>44697</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="9">
+      <c r="A15" s="119">
         <v>13</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="24"/>
+        <v>17</v>
+      </c>
+      <c r="C15" s="124" t="s">
+        <v>113</v>
+      </c>
+      <c r="D15" s="19">
+        <v>323300</v>
+      </c>
+      <c r="E15" s="22">
+        <v>44704</v>
+      </c>
       <c r="F15" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G15" s="24"/>
-      <c r="H15" s="9"/>
+        <v>323300</v>
+      </c>
+      <c r="G15" s="22">
+        <v>44705</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="9">
+      <c r="A16" s="119">
         <v>14</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="24"/>
+        <v>17</v>
+      </c>
+      <c r="C16" s="124" t="s">
+        <v>118</v>
+      </c>
+      <c r="D16" s="19">
+        <v>409820</v>
+      </c>
+      <c r="E16" s="22">
+        <v>44711</v>
+      </c>
       <c r="F16" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G16" s="24"/>
-      <c r="H16" s="9"/>
+        <v>409820</v>
+      </c>
+      <c r="G16" s="22">
+        <v>44712</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="9">
+      <c r="A17" s="119">
         <v>15</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="24"/>
+        <v>17</v>
+      </c>
+      <c r="C17" s="124" t="s">
+        <v>124</v>
+      </c>
+      <c r="D17" s="19">
+        <v>231250</v>
+      </c>
+      <c r="E17" s="22">
+        <v>44718</v>
+      </c>
       <c r="F17" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G17" s="24"/>
-      <c r="H17" s="9"/>
+        <v>231250</v>
+      </c>
+      <c r="G17" s="22">
+        <v>44719</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="9">
+      <c r="A18" s="119">
         <v>16</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="24"/>
+        <v>17</v>
+      </c>
+      <c r="C18" s="124" t="s">
+        <v>133</v>
+      </c>
+      <c r="D18" s="19">
+        <v>326790</v>
+      </c>
+      <c r="E18" s="22">
+        <v>44723</v>
+      </c>
       <c r="F18" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G18" s="24"/>
-      <c r="H18" s="9"/>
+        <v>326790</v>
+      </c>
+      <c r="G18" s="22">
+        <v>44726</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="9">
+      <c r="A19" s="119">
         <v>17</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="24"/>
+        <v>17</v>
+      </c>
+      <c r="C19" s="124" t="s">
+        <v>138</v>
+      </c>
+      <c r="D19" s="19">
+        <v>544970</v>
+      </c>
+      <c r="E19" s="22">
+        <v>44730</v>
+      </c>
       <c r="F19" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G19" s="24"/>
-      <c r="H19" s="9"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="9">
-        <v>18</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G20" s="24"/>
-      <c r="H20" s="9"/>
+        <v>544970</v>
+      </c>
+      <c r="G19" s="22">
+        <v>44733</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>60</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3105,741 +4779,128 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H29"/>
-  <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="77"/>
-    <col min="2" max="2" width="25.7109375" style="77" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" style="77" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="87"/>
-    <col min="5" max="5" width="10.7109375" style="88" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" style="89" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.85546875" style="90" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="77"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="159" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="159" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="159" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="160" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="170" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="144" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="150" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="164" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="159"/>
-      <c r="B2" s="159"/>
-      <c r="C2" s="159"/>
-      <c r="D2" s="160"/>
-      <c r="E2" s="170"/>
-      <c r="F2" s="146"/>
-      <c r="G2" s="152"/>
-      <c r="H2" s="165"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="39">
-        <v>1</v>
-      </c>
-      <c r="B3" s="113" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="119" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="118">
-        <v>227000</v>
-      </c>
-      <c r="E3" s="108">
-        <v>44609</v>
-      </c>
-      <c r="F3" s="144">
-        <f>D5+D4+D3</f>
-        <v>862800</v>
-      </c>
-      <c r="G3" s="147">
-        <v>44615</v>
-      </c>
-      <c r="H3" s="164" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="79">
-        <v>2</v>
-      </c>
-      <c r="B4" s="114" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="120" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="121">
-        <v>408400</v>
-      </c>
-      <c r="E4" s="57">
-        <v>44609</v>
-      </c>
-      <c r="F4" s="145"/>
-      <c r="G4" s="148"/>
-      <c r="H4" s="166"/>
-    </row>
-    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="80">
-        <v>3</v>
-      </c>
-      <c r="B5" s="81" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="55" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="56">
-        <v>227400</v>
-      </c>
-      <c r="E5" s="58">
-        <v>44614</v>
-      </c>
-      <c r="F5" s="146"/>
-      <c r="G5" s="149"/>
-      <c r="H5" s="165"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="35">
-        <v>4</v>
-      </c>
-      <c r="B6" s="78" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="38">
-        <v>289000</v>
-      </c>
-      <c r="E6" s="44">
-        <v>44621</v>
-      </c>
-      <c r="F6" s="144">
-        <f>D9+D8+D7+D6</f>
-        <v>881050</v>
-      </c>
-      <c r="G6" s="147">
-        <v>44638</v>
-      </c>
-      <c r="H6" s="164" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="79">
-        <v>5</v>
-      </c>
-      <c r="B7" s="114" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="120" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="121">
-        <v>191300</v>
-      </c>
-      <c r="E7" s="57">
-        <v>44627</v>
-      </c>
-      <c r="F7" s="145"/>
-      <c r="G7" s="148"/>
-      <c r="H7" s="166"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="79">
-        <v>6</v>
-      </c>
-      <c r="B8" s="114" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="6">
-        <v>297200</v>
-      </c>
-      <c r="E8" s="62">
-        <v>44634</v>
-      </c>
-      <c r="F8" s="145"/>
-      <c r="G8" s="148"/>
-      <c r="H8" s="166"/>
-    </row>
-    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="80">
-        <v>7</v>
-      </c>
-      <c r="B9" s="81" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="60" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="61">
-        <v>103550</v>
-      </c>
-      <c r="E9" s="63">
-        <v>44634</v>
-      </c>
-      <c r="F9" s="146"/>
-      <c r="G9" s="149"/>
-      <c r="H9" s="165"/>
-    </row>
-    <row r="10" spans="1:8" s="85" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="35">
-        <v>8</v>
-      </c>
-      <c r="B10" s="78" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="82" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="83">
-        <v>130300</v>
-      </c>
-      <c r="E10" s="84">
-        <v>44641</v>
-      </c>
-      <c r="F10" s="144">
-        <f>D15+D14+D13+D12+D11+D10</f>
-        <v>1185900</v>
-      </c>
-      <c r="G10" s="150">
-        <v>44655</v>
-      </c>
-      <c r="H10" s="167" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="79">
-        <v>9</v>
-      </c>
-      <c r="B11" s="114" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="120" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="121">
-        <v>322300</v>
-      </c>
-      <c r="E11" s="57">
-        <v>44643</v>
-      </c>
-      <c r="F11" s="145"/>
-      <c r="G11" s="151"/>
-      <c r="H11" s="168"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="79">
-        <v>10</v>
-      </c>
-      <c r="B12" s="114" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="120" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="121">
-        <v>224200</v>
-      </c>
-      <c r="E12" s="57">
-        <v>44648</v>
-      </c>
-      <c r="F12" s="145"/>
-      <c r="G12" s="151"/>
-      <c r="H12" s="168"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="79">
-        <v>11</v>
-      </c>
-      <c r="B13" s="114" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="120" t="s">
-        <v>56</v>
-      </c>
-      <c r="D13" s="121">
-        <v>200250</v>
-      </c>
-      <c r="E13" s="57">
-        <v>44651</v>
-      </c>
-      <c r="F13" s="145"/>
-      <c r="G13" s="151"/>
-      <c r="H13" s="168"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="79">
-        <v>12</v>
-      </c>
-      <c r="B14" s="114" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="120" t="s">
-        <v>57</v>
-      </c>
-      <c r="D14" s="121">
-        <v>64400</v>
-      </c>
-      <c r="E14" s="57">
-        <v>44653</v>
-      </c>
-      <c r="F14" s="145"/>
-      <c r="G14" s="151"/>
-      <c r="H14" s="168"/>
-    </row>
-    <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="80">
-        <v>13</v>
-      </c>
-      <c r="B15" s="81" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="55" t="s">
-        <v>58</v>
-      </c>
-      <c r="D15" s="56">
-        <v>244450</v>
-      </c>
-      <c r="E15" s="58">
-        <v>44655</v>
-      </c>
-      <c r="F15" s="146"/>
-      <c r="G15" s="152"/>
-      <c r="H15" s="169"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="35">
-        <v>14</v>
-      </c>
-      <c r="B16" s="78" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="D16" s="38">
-        <v>76400</v>
-      </c>
-      <c r="E16" s="44">
-        <v>44659</v>
-      </c>
-      <c r="F16" s="144">
-        <f>D19+D18+D17+D16</f>
-        <v>1024350</v>
-      </c>
-      <c r="G16" s="150">
-        <v>44673</v>
-      </c>
-      <c r="H16" s="164" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="79">
-        <v>15</v>
-      </c>
-      <c r="B17" s="114" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="120" t="s">
-        <v>73</v>
-      </c>
-      <c r="D17" s="121">
-        <v>344500</v>
-      </c>
-      <c r="E17" s="57">
-        <v>44662</v>
-      </c>
-      <c r="F17" s="145"/>
-      <c r="G17" s="151"/>
-      <c r="H17" s="166"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="79">
-        <v>16</v>
-      </c>
-      <c r="B18" s="114" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="120" t="s">
-        <v>77</v>
-      </c>
-      <c r="D18" s="121">
-        <v>284000</v>
-      </c>
-      <c r="E18" s="57">
-        <v>44669</v>
-      </c>
-      <c r="F18" s="145"/>
-      <c r="G18" s="151"/>
-      <c r="H18" s="166"/>
-    </row>
-    <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="80">
-        <v>17</v>
-      </c>
-      <c r="B19" s="81" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="55" t="s">
-        <v>81</v>
-      </c>
-      <c r="D19" s="56">
-        <v>319450</v>
-      </c>
-      <c r="E19" s="58">
-        <v>44672</v>
-      </c>
-      <c r="F19" s="146"/>
-      <c r="G19" s="152"/>
-      <c r="H19" s="165"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="35">
-        <v>18</v>
-      </c>
-      <c r="B20" s="78" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="D20" s="38">
-        <v>392200</v>
-      </c>
-      <c r="E20" s="44">
-        <v>44676</v>
-      </c>
-      <c r="F20" s="171">
-        <f>D23+D21+D20+D22</f>
-        <v>1110200</v>
-      </c>
-      <c r="G20" s="151">
-        <v>44688</v>
-      </c>
-      <c r="H20" s="164" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="79">
-        <v>19</v>
-      </c>
-      <c r="B21" s="114" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="120" t="s">
-        <v>92</v>
-      </c>
-      <c r="D21" s="121">
-        <v>222000</v>
-      </c>
-      <c r="E21" s="57">
-        <v>44679</v>
-      </c>
-      <c r="F21" s="172"/>
-      <c r="G21" s="151"/>
-      <c r="H21" s="166"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="79">
-        <v>20</v>
-      </c>
-      <c r="B22" s="114" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" s="120" t="s">
-        <v>93</v>
-      </c>
-      <c r="D22" s="121">
-        <v>275700</v>
-      </c>
-      <c r="E22" s="57">
-        <v>44683</v>
-      </c>
-      <c r="F22" s="172"/>
-      <c r="G22" s="151"/>
-      <c r="H22" s="166"/>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="80">
-        <v>21</v>
-      </c>
-      <c r="B23" s="81" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" s="55" t="s">
-        <v>99</v>
-      </c>
-      <c r="D23" s="56">
-        <v>220300</v>
-      </c>
-      <c r="E23" s="58">
-        <v>44686</v>
-      </c>
-      <c r="F23" s="173"/>
-      <c r="G23" s="152"/>
-      <c r="H23" s="165"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="113">
-        <v>22</v>
-      </c>
-      <c r="B24" s="113" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" s="123" t="s">
-        <v>104</v>
-      </c>
-      <c r="D24" s="124">
-        <v>221600</v>
-      </c>
-      <c r="E24" s="125">
-        <v>44689</v>
-      </c>
-      <c r="F24" s="111"/>
-      <c r="G24" s="108"/>
-      <c r="H24" s="112"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="114">
-        <v>23</v>
-      </c>
-      <c r="B25" s="69" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D25" s="6">
-        <v>194500</v>
-      </c>
-      <c r="E25" s="94">
-        <v>44693</v>
-      </c>
-      <c r="F25" s="70"/>
-      <c r="G25" s="109"/>
-      <c r="H25" s="97"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="114">
-        <v>24</v>
-      </c>
-      <c r="B26" s="69" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="D26" s="22">
-        <v>222200</v>
-      </c>
-      <c r="E26" s="86">
-        <v>44697</v>
-      </c>
-      <c r="F26" s="70"/>
-      <c r="G26" s="109"/>
-      <c r="H26" s="97"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="114">
-        <v>25</v>
-      </c>
-      <c r="B27" s="69" t="s">
-        <v>15</v>
-      </c>
-      <c r="C27" s="21"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="86"/>
-      <c r="F27" s="70"/>
-      <c r="G27" s="109"/>
-      <c r="H27" s="97"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="114">
-        <v>26</v>
-      </c>
-      <c r="B28" s="69" t="s">
-        <v>15</v>
-      </c>
-      <c r="C28" s="21"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="86"/>
-      <c r="F28" s="70"/>
-      <c r="G28" s="109"/>
-      <c r="H28" s="97"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="114">
-        <v>27</v>
-      </c>
-      <c r="B29" s="69" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29" s="21"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="86"/>
-      <c r="F29" s="70"/>
-      <c r="G29" s="109"/>
-      <c r="H29" s="97"/>
-    </row>
-  </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="F20:F23"/>
-    <mergeCell ref="G20:G23"/>
-    <mergeCell ref="H20:H23"/>
-    <mergeCell ref="F16:F19"/>
-    <mergeCell ref="G16:G19"/>
-    <mergeCell ref="F10:F15"/>
-    <mergeCell ref="G10:G15"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F6:F9"/>
-    <mergeCell ref="G6:G9"/>
-    <mergeCell ref="G3:G5"/>
-    <mergeCell ref="F3:F5"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="H3:H5"/>
-    <mergeCell ref="H6:H9"/>
-    <mergeCell ref="H10:H15"/>
-    <mergeCell ref="H16:H19"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0039B9C7-FAB8-43B0-A06D-2703ADD462D7}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="12"/>
     <col min="2" max="2" width="32" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" style="127" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="20"/>
-    <col min="5" max="5" width="14" style="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" style="23" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="23" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="157" t="s">
+      <c r="A1" s="209" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="159" t="s">
+      <c r="B1" s="196" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="159" t="s">
+      <c r="C1" s="196" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="160" t="s">
+      <c r="D1" s="197" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="161" t="s">
+      <c r="E1" s="211" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="162" t="s">
+      <c r="F1" s="212" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="155" t="s">
+      <c r="G1" s="207" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="158"/>
-      <c r="B2" s="159"/>
-      <c r="C2" s="159"/>
-      <c r="D2" s="160"/>
-      <c r="E2" s="161"/>
-      <c r="F2" s="163"/>
-      <c r="G2" s="156"/>
-    </row>
-    <row r="3" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="27">
+      <c r="A2" s="210"/>
+      <c r="B2" s="196"/>
+      <c r="C2" s="196"/>
+      <c r="D2" s="197"/>
+      <c r="E2" s="211"/>
+      <c r="F2" s="213"/>
+      <c r="G2" s="208"/>
+    </row>
+    <row r="3" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="25">
         <v>1</v>
       </c>
-      <c r="B3" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="28">
+      <c r="B3" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="126" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="26">
         <v>150000</v>
       </c>
-      <c r="E3" s="29">
+      <c r="E3" s="27">
         <v>44634</v>
       </c>
-      <c r="F3" s="28">
+      <c r="F3" s="26">
         <f>D3</f>
         <v>150000</v>
       </c>
-      <c r="G3" s="29">
+      <c r="G3" s="27">
         <v>44636</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
+    <row r="4" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="139">
         <v>2</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="19">
-        <f t="shared" ref="F4" si="0">D4</f>
-        <v>0</v>
-      </c>
-      <c r="G4" s="24"/>
+      <c r="B4" s="139" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="126" t="s">
+        <v>126</v>
+      </c>
+      <c r="D4" s="140">
+        <v>150000</v>
+      </c>
+      <c r="E4" s="141">
+        <v>44667</v>
+      </c>
+      <c r="F4" s="140">
+        <v>150000</v>
+      </c>
+      <c r="G4" s="141">
+        <v>44672</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <v>3</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="124" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="19">
+        <v>150000</v>
+      </c>
+      <c r="E5" s="22">
+        <v>44699</v>
+      </c>
+      <c r="F5" s="19">
+        <f t="shared" ref="F5" si="0">D5</f>
+        <v>150000</v>
+      </c>
+      <c r="G5" s="22">
+        <v>44704</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3857,10 +4918,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3876,39 +4937,43 @@
     <col min="9" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="157" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="209" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="159" t="s">
+      <c r="B1" s="196" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="159" t="s">
+      <c r="C1" s="196" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="178" t="s">
+      <c r="D1" s="219" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="161" t="s">
+      <c r="E1" s="211" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="162" t="s">
+      <c r="F1" s="212" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="155" t="s">
+      <c r="G1" s="207" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="158"/>
-      <c r="B2" s="159"/>
-      <c r="C2" s="159"/>
-      <c r="D2" s="179"/>
-      <c r="E2" s="161"/>
-      <c r="F2" s="163"/>
-      <c r="G2" s="156"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="218" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="210"/>
+      <c r="B2" s="196"/>
+      <c r="C2" s="196"/>
+      <c r="D2" s="220"/>
+      <c r="E2" s="211"/>
+      <c r="F2" s="213"/>
+      <c r="G2" s="208"/>
+      <c r="H2" s="218"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>1</v>
       </c>
@@ -3916,7 +4981,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D3" s="11">
         <v>150000</v>
@@ -3924,15 +4989,18 @@
       <c r="E3" s="16">
         <v>44606</v>
       </c>
-      <c r="F3" s="174">
+      <c r="F3" s="214">
         <f>D4+D3</f>
         <v>300000</v>
       </c>
-      <c r="G3" s="176">
+      <c r="G3" s="216">
         <v>44607</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" s="218" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>2</v>
       </c>
@@ -3940,7 +5008,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D4" s="11">
         <v>150000</v>
@@ -3948,10 +5016,11 @@
       <c r="E4" s="16">
         <v>44606</v>
       </c>
-      <c r="F4" s="175"/>
-      <c r="G4" s="177"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F4" s="215"/>
+      <c r="G4" s="217"/>
+      <c r="H4" s="218"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>3</v>
       </c>
@@ -3959,7 +5028,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D5" s="11">
         <v>200000</v>
@@ -3970,11 +5039,14 @@
       <c r="F5" s="19">
         <v>200000</v>
       </c>
-      <c r="G5" s="24">
+      <c r="G5" s="22">
         <v>44633</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>4</v>
       </c>
@@ -3982,7 +5054,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="D6" s="11">
         <v>100000</v>
@@ -3990,14 +5062,17 @@
       <c r="E6" s="16">
         <v>44657</v>
       </c>
-      <c r="F6" s="174">
+      <c r="F6" s="214">
         <v>300000</v>
       </c>
-      <c r="G6" s="176">
+      <c r="G6" s="216">
         <v>44650</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" s="218" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>5</v>
       </c>
@@ -4005,7 +5080,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D7" s="11">
         <v>200000</v>
@@ -4013,10 +5088,11 @@
       <c r="E7" s="16">
         <v>44649</v>
       </c>
-      <c r="F7" s="175"/>
-      <c r="G7" s="177"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F7" s="215"/>
+      <c r="G7" s="217"/>
+      <c r="H7" s="218"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>6</v>
       </c>
@@ -4024,7 +5100,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="D8" s="11">
         <v>250000</v>
@@ -4032,14 +5108,17 @@
       <c r="E8" s="16">
         <v>44663</v>
       </c>
-      <c r="F8" s="174">
+      <c r="F8" s="214">
         <v>300000</v>
       </c>
-      <c r="G8" s="176">
+      <c r="G8" s="216">
         <v>44665</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" s="218" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>7</v>
       </c>
@@ -4047,7 +5126,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="D9" s="11">
         <v>50000</v>
@@ -4055,10 +5134,11 @@
       <c r="E9" s="16">
         <v>44676</v>
       </c>
-      <c r="F9" s="175"/>
-      <c r="G9" s="177"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F9" s="215"/>
+      <c r="G9" s="217"/>
+      <c r="H9" s="218"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>8</v>
       </c>
@@ -4066,7 +5146,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="D10" s="11">
         <v>300000</v>
@@ -4077,65 +5157,110 @@
       <c r="F10" s="19">
         <v>300000</v>
       </c>
-      <c r="G10" s="24">
+      <c r="G10" s="22">
         <v>44686</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>9</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="24"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C11" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D11" s="11">
+        <v>300000</v>
+      </c>
+      <c r="E11" s="17">
+        <v>44699</v>
+      </c>
+      <c r="F11" s="19">
+        <v>300000</v>
+      </c>
+      <c r="G11" s="22">
+        <v>44704</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>10</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="24"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="9">
+      <c r="C12" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="D12" s="11">
+        <v>300000</v>
+      </c>
+      <c r="E12" s="17">
+        <v>44719</v>
+      </c>
+      <c r="F12" s="19">
+        <v>300000</v>
+      </c>
+      <c r="G12" s="22">
+        <v>44719</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="205">
         <v>11</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="205" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="24"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
+      <c r="C13" s="205" t="s">
+        <v>142</v>
+      </c>
+      <c r="D13" s="214">
+        <v>600000</v>
+      </c>
+      <c r="E13" s="216">
+        <v>44741</v>
+      </c>
+      <c r="F13" s="19">
+        <v>300000</v>
+      </c>
+      <c r="G13" s="22">
+        <v>44733</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="206"/>
+      <c r="B14" s="206"/>
+      <c r="C14" s="206"/>
+      <c r="D14" s="215"/>
+      <c r="E14" s="217"/>
+      <c r="F14" s="19">
+        <v>300000</v>
+      </c>
+      <c r="G14" s="22">
+        <v>44743</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
         <v>12</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="24"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="9">
-        <v>13</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>6</v>
@@ -4144,11 +5269,12 @@
       <c r="D15" s="11"/>
       <c r="E15" s="17"/>
       <c r="F15" s="19"/>
-      <c r="G15" s="24"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G15" s="22"/>
+      <c r="H15" s="9"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>6</v>
@@ -4157,11 +5283,12 @@
       <c r="D16" s="11"/>
       <c r="E16" s="17"/>
       <c r="F16" s="19"/>
-      <c r="G16" s="24"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="9">
-        <v>15</v>
+      <c r="G16" s="22"/>
+      <c r="H16" s="9"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="150">
+        <v>14</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>6</v>
@@ -4170,11 +5297,12 @@
       <c r="D17" s="11"/>
       <c r="E17" s="17"/>
       <c r="F17" s="19"/>
-      <c r="G17" s="24"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="9">
-        <v>16</v>
+      <c r="G17" s="22"/>
+      <c r="H17" s="9"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="150">
+        <v>15</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>6</v>
@@ -4183,11 +5311,12 @@
       <c r="D18" s="11"/>
       <c r="E18" s="17"/>
       <c r="F18" s="19"/>
-      <c r="G18" s="24"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="9">
-        <v>17</v>
+      <c r="G18" s="22"/>
+      <c r="H18" s="9"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="150">
+        <v>16</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>6</v>
@@ -4197,10 +5326,11 @@
       <c r="E19" s="17"/>
       <c r="F19" s="11"/>
       <c r="G19" s="17"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="9">
-        <v>18</v>
+      <c r="H19" s="9"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="150">
+        <v>17</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>6</v>
@@ -4210,10 +5340,11 @@
       <c r="E20" s="17"/>
       <c r="F20" s="11"/>
       <c r="G20" s="17"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="9">
-        <v>19</v>
+      <c r="H20" s="9"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="150">
+        <v>18</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>6</v>
@@ -4223,10 +5354,11 @@
       <c r="E21" s="17"/>
       <c r="F21" s="11"/>
       <c r="G21" s="17"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="9">
-        <v>20</v>
+      <c r="H21" s="9"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="150">
+        <v>19</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>6</v>
@@ -4236,10 +5368,11 @@
       <c r="E22" s="17"/>
       <c r="F22" s="11"/>
       <c r="G22" s="17"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="9">
-        <v>21</v>
+      <c r="H22" s="9"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="150">
+        <v>20</v>
       </c>
       <c r="B23" s="9" t="s">
         <v>6</v>
@@ -4249,10 +5382,11 @@
       <c r="E23" s="17"/>
       <c r="F23" s="11"/>
       <c r="G23" s="17"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="9">
-        <v>22</v>
+      <c r="H23" s="9"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="150">
+        <v>21</v>
       </c>
       <c r="B24" s="9" t="s">
         <v>6</v>
@@ -4262,10 +5396,11 @@
       <c r="E24" s="17"/>
       <c r="F24" s="11"/>
       <c r="G24" s="17"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="9">
-        <v>23</v>
+      <c r="H24" s="9"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="150">
+        <v>22</v>
       </c>
       <c r="B25" s="9" t="s">
         <v>6</v>
@@ -4275,10 +5410,11 @@
       <c r="E25" s="17"/>
       <c r="F25" s="11"/>
       <c r="G25" s="17"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="9">
-        <v>24</v>
+      <c r="H25" s="9"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="150">
+        <v>23</v>
       </c>
       <c r="B26" s="9" t="s">
         <v>6</v>
@@ -4288,10 +5424,11 @@
       <c r="E26" s="17"/>
       <c r="F26" s="11"/>
       <c r="G26" s="17"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="9">
-        <v>25</v>
+      <c r="H26" s="9"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="150">
+        <v>24</v>
       </c>
       <c r="B27" s="9" t="s">
         <v>6</v>
@@ -4301,10 +5438,11 @@
       <c r="E27" s="17"/>
       <c r="F27" s="11"/>
       <c r="G27" s="17"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="9">
-        <v>26</v>
+      <c r="H27" s="9"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="150">
+        <v>25</v>
       </c>
       <c r="B28" s="9" t="s">
         <v>6</v>
@@ -4314,10 +5452,11 @@
       <c r="E28" s="17"/>
       <c r="F28" s="11"/>
       <c r="G28" s="17"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="9">
-        <v>27</v>
+      <c r="H28" s="9"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="150">
+        <v>26</v>
       </c>
       <c r="B29" s="9" t="s">
         <v>6</v>
@@ -4327,10 +5466,11 @@
       <c r="E29" s="17"/>
       <c r="F29" s="11"/>
       <c r="G29" s="17"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="9">
-        <v>28</v>
+      <c r="H29" s="9"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="150">
+        <v>27</v>
       </c>
       <c r="B30" s="9" t="s">
         <v>6</v>
@@ -4340,10 +5480,11 @@
       <c r="E30" s="17"/>
       <c r="F30" s="11"/>
       <c r="G30" s="17"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="9">
-        <v>29</v>
+      <c r="H30" s="9"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="150">
+        <v>28</v>
       </c>
       <c r="B31" s="9" t="s">
         <v>6</v>
@@ -4353,15 +5494,13 @@
       <c r="E31" s="17"/>
       <c r="F31" s="11"/>
       <c r="G31" s="17"/>
+      <c r="H31" s="9">
+        <f ca="1">+H5:IH13:H31</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
+  <mergeCells count="22">
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="G6:G7"/>
@@ -4369,6 +5508,21 @@
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="G3:G4"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4388,107 +5542,107 @@
     <col min="2" max="2" width="19.7109375" style="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.5703125" style="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="20"/>
-    <col min="5" max="5" width="14" style="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" style="23" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="23" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="157" t="s">
+      <c r="A1" s="209" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="159" t="s">
+      <c r="B1" s="196" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="159" t="s">
+      <c r="C1" s="196" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="160" t="s">
+      <c r="D1" s="197" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="161" t="s">
+      <c r="E1" s="211" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="162" t="s">
+      <c r="F1" s="212" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="155" t="s">
+      <c r="G1" s="207" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="184"/>
-      <c r="B2" s="157"/>
-      <c r="C2" s="157"/>
-      <c r="D2" s="162"/>
-      <c r="E2" s="155"/>
-      <c r="F2" s="183"/>
-      <c r="G2" s="180"/>
+      <c r="A2" s="225"/>
+      <c r="B2" s="209"/>
+      <c r="C2" s="209"/>
+      <c r="D2" s="212"/>
+      <c r="E2" s="207"/>
+      <c r="F2" s="224"/>
+      <c r="G2" s="221"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="59">
+      <c r="A3" s="57">
         <v>1</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="52" t="s">
-        <v>63</v>
-      </c>
-      <c r="D3" s="65">
+      <c r="C3" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="63">
         <v>176850.57</v>
       </c>
-      <c r="E3" s="67">
+      <c r="E3" s="65">
         <v>44649</v>
       </c>
-      <c r="F3" s="135">
+      <c r="F3" s="160">
         <f>D4+D3</f>
         <v>530650.96</v>
       </c>
-      <c r="G3" s="181">
+      <c r="G3" s="222">
         <v>44656</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="53">
+      <c r="A4" s="51">
         <v>2</v>
       </c>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="54" t="s">
-        <v>64</v>
-      </c>
-      <c r="D4" s="66">
+      <c r="C4" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="64">
         <v>353800.39</v>
       </c>
-      <c r="E4" s="68">
+      <c r="E4" s="66">
         <v>44649</v>
       </c>
-      <c r="F4" s="137"/>
-      <c r="G4" s="182"/>
+      <c r="F4" s="162"/>
+      <c r="G4" s="223"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="51">
+      <c r="A5" s="49">
         <v>3</v>
       </c>
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="51" t="s">
-        <v>101</v>
-      </c>
-      <c r="D5" s="30">
+      <c r="C5" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" s="28">
         <v>235800</v>
       </c>
-      <c r="E5" s="64">
+      <c r="E5" s="62">
         <v>44777</v>
       </c>
-      <c r="F5" s="30">
+      <c r="F5" s="28">
         <v>235800</v>
       </c>
-      <c r="G5" s="31">
+      <c r="G5" s="29">
         <v>44686</v>
       </c>
     </row>
@@ -4500,19 +5654,19 @@
         <v>7</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D6" s="117">
+        <v>90</v>
+      </c>
+      <c r="D6" s="108">
         <v>235801</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="22">
         <v>44689</v>
       </c>
       <c r="F6" s="19">
         <f>D6</f>
         <v>235801</v>
       </c>
-      <c r="G6" s="34">
+      <c r="G6" s="32">
         <v>44692</v>
       </c>
     </row>
@@ -4525,9 +5679,9 @@
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="19"/>
-      <c r="E7" s="24"/>
+      <c r="E7" s="22"/>
       <c r="F7" s="19"/>
-      <c r="G7" s="34"/>
+      <c r="G7" s="32"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
@@ -4536,10 +5690,10 @@
       <c r="B8" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="23"/>
-      <c r="E8" s="24"/>
+      <c r="C8" s="21"/>
+      <c r="E8" s="22"/>
       <c r="F8" s="19"/>
-      <c r="G8" s="34"/>
+      <c r="G8" s="32"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
@@ -4550,22 +5704,22 @@
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="19"/>
-      <c r="E9" s="24"/>
+      <c r="E9" s="22"/>
       <c r="F9" s="19"/>
-      <c r="G9" s="34"/>
-    </row>
-    <row r="10" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="32">
+      <c r="G9" s="32"/>
+    </row>
+    <row r="10" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="30">
         <v>8</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="32"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="34"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="32"/>
       <c r="F10" s="19"/>
-      <c r="G10" s="34"/>
+      <c r="G10" s="32"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
@@ -4576,9 +5730,9 @@
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="19"/>
-      <c r="E11" s="24"/>
+      <c r="E11" s="22"/>
       <c r="F11" s="19"/>
-      <c r="G11" s="34"/>
+      <c r="G11" s="32"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
@@ -4589,9 +5743,9 @@
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="19"/>
-      <c r="E12" s="24"/>
+      <c r="E12" s="22"/>
       <c r="F12" s="19"/>
-      <c r="G12" s="34"/>
+      <c r="G12" s="32"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
@@ -4602,9 +5756,9 @@
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="19"/>
-      <c r="E13" s="24"/>
+      <c r="E13" s="22"/>
       <c r="F13" s="19"/>
-      <c r="G13" s="34"/>
+      <c r="G13" s="32"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
@@ -4615,9 +5769,9 @@
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="19"/>
-      <c r="E14" s="24"/>
+      <c r="E14" s="22"/>
       <c r="F14" s="19"/>
-      <c r="G14" s="34"/>
+      <c r="G14" s="32"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
@@ -4628,9 +5782,9 @@
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="19"/>
-      <c r="E15" s="24"/>
+      <c r="E15" s="22"/>
       <c r="F15" s="19"/>
-      <c r="G15" s="24"/>
+      <c r="G15" s="22"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
@@ -4641,9 +5795,9 @@
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="19"/>
-      <c r="E16" s="24"/>
+      <c r="E16" s="22"/>
       <c r="F16" s="19"/>
-      <c r="G16" s="24"/>
+      <c r="G16" s="22"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
@@ -4654,9 +5808,9 @@
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="19"/>
-      <c r="E17" s="24"/>
+      <c r="E17" s="22"/>
       <c r="F17" s="19"/>
-      <c r="G17" s="24"/>
+      <c r="G17" s="22"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
@@ -4667,9 +5821,9 @@
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="19"/>
-      <c r="E18" s="24"/>
+      <c r="E18" s="22"/>
       <c r="F18" s="19"/>
-      <c r="G18" s="24"/>
+      <c r="G18" s="22"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
@@ -4680,9 +5834,9 @@
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="19"/>
-      <c r="E19" s="24"/>
+      <c r="E19" s="22"/>
       <c r="F19" s="19"/>
-      <c r="G19" s="24"/>
+      <c r="G19" s="22"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="9">
@@ -4693,9 +5847,9 @@
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="19"/>
-      <c r="E20" s="24"/>
+      <c r="E20" s="22"/>
       <c r="F20" s="19"/>
-      <c r="G20" s="24"/>
+      <c r="G20" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -4715,109 +5869,173 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE7398D5-8711-4EED-AAC4-9A4B0738DA5D}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="92" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" style="92" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" style="92" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="92"/>
-    <col min="5" max="6" width="10.7109375" style="92" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="92"/>
+    <col min="1" max="1" width="5.85546875" style="87" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" style="87" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" style="87" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="137"/>
+    <col min="5" max="6" width="10.7109375" style="136" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="87"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="187" t="s">
+      <c r="A1" s="228" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="189" t="s">
+      <c r="B1" s="230" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="189" t="s">
+      <c r="C1" s="230" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="190" t="s">
+      <c r="D1" s="231" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="191" t="s">
+      <c r="E1" s="232" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="185" t="s">
+      <c r="F1" s="226" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="188"/>
-      <c r="B2" s="189"/>
-      <c r="C2" s="189"/>
-      <c r="D2" s="190"/>
-      <c r="E2" s="191"/>
-      <c r="F2" s="186"/>
+      <c r="A2" s="229"/>
+      <c r="B2" s="230"/>
+      <c r="C2" s="230"/>
+      <c r="D2" s="231"/>
+      <c r="E2" s="232"/>
+      <c r="F2" s="227"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="93">
+      <c r="A3" s="88">
         <v>1</v>
       </c>
-      <c r="B3" s="93" t="s">
-        <v>47</v>
+      <c r="B3" s="88" t="s">
+        <v>40</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D3" s="6">
         <v>600000</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="89">
         <v>44651</v>
       </c>
-      <c r="F3" s="94">
+      <c r="F3" s="89">
         <v>44610</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="93">
+      <c r="A4" s="88">
         <v>2</v>
       </c>
-      <c r="B4" s="93" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" s="93" t="s">
-        <v>74</v>
-      </c>
-      <c r="D4" s="95">
+      <c r="B4" s="88" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="88" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="90">
         <v>245000</v>
       </c>
-      <c r="E4" s="96">
+      <c r="E4" s="91">
         <v>44651</v>
       </c>
-      <c r="F4" s="96">
+      <c r="F4" s="91">
         <v>44655</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="93">
+      <c r="A5" s="88">
         <v>3</v>
       </c>
-      <c r="B5" s="93" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="93" t="s">
-        <v>98</v>
-      </c>
-      <c r="D5" s="95">
+      <c r="B5" s="88" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="88" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" s="90">
         <v>245000</v>
       </c>
-      <c r="E5" s="96">
+      <c r="E5" s="91">
         <v>44681</v>
       </c>
-      <c r="F5" s="96">
+      <c r="F5" s="91">
         <v>44684</v>
       </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="88">
+        <v>4</v>
+      </c>
+      <c r="B6" s="88" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="88" t="s">
+        <v>119</v>
+      </c>
+      <c r="D6" s="90">
+        <v>245000</v>
+      </c>
+      <c r="E6" s="91">
+        <v>44711</v>
+      </c>
+      <c r="F6" s="91">
+        <v>44712</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="88">
+        <v>5</v>
+      </c>
+      <c r="B7" s="88" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="88" t="s">
+        <v>143</v>
+      </c>
+      <c r="D7" s="90">
+        <v>245000</v>
+      </c>
+      <c r="E7" s="91">
+        <v>44741</v>
+      </c>
+      <c r="F7" s="91">
+        <v>44742</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="88">
+        <v>6</v>
+      </c>
+      <c r="B8" s="88" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="88"/>
+      <c r="D8" s="90"/>
+      <c r="E8" s="91"/>
+      <c r="F8" s="91"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="88">
+        <v>7</v>
+      </c>
+      <c r="B9" s="88" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="88"/>
+      <c r="D9" s="90"/>
+      <c r="E9" s="91"/>
+      <c r="F9" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -4829,6 +6047,7 @@
     <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4837,7 +6056,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4848,42 +6067,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="157" t="s">
+      <c r="A1" s="209" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="159" t="s">
+      <c r="B1" s="196" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="159" t="s">
+      <c r="C1" s="196" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="160" t="s">
+      <c r="D1" s="197" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="194" t="s">
+      <c r="E1" s="235" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="192" t="s">
+      <c r="F1" s="233" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="158"/>
-      <c r="B2" s="159"/>
-      <c r="C2" s="159"/>
-      <c r="D2" s="160"/>
-      <c r="E2" s="194"/>
-      <c r="F2" s="193"/>
+      <c r="A2" s="210"/>
+      <c r="B2" s="196"/>
+      <c r="C2" s="196"/>
+      <c r="D2" s="197"/>
+      <c r="E2" s="235"/>
+      <c r="F2" s="234"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D3" s="6">
         <v>199400</v>
@@ -4891,7 +6110,7 @@
       <c r="E3" s="5">
         <v>44648</v>
       </c>
-      <c r="F3" s="110">
+      <c r="F3" s="103">
         <v>44656</v>
       </c>
     </row>
@@ -4900,7 +6119,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="2"/>
@@ -4912,7 +6131,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="2"/>
@@ -4942,44 +6161,44 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="73"/>
-    <col min="2" max="2" width="19.7109375" style="73" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="72"/>
-    <col min="4" max="4" width="10.7109375" style="76" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="73"/>
+    <col min="1" max="1" width="9.140625" style="69"/>
+    <col min="2" max="2" width="19.7109375" style="69" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="68"/>
+    <col min="4" max="4" width="10.7109375" style="72" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="69"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="157" t="s">
+      <c r="A1" s="209" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="159" t="s">
+      <c r="B1" s="196" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="160" t="s">
+      <c r="C1" s="197" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="161" t="s">
+      <c r="D1" s="211" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="158"/>
-      <c r="B2" s="159"/>
-      <c r="C2" s="160"/>
-      <c r="D2" s="161"/>
+      <c r="A2" s="210"/>
+      <c r="B2" s="196"/>
+      <c r="C2" s="197"/>
+      <c r="D2" s="211"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C3" s="71">
+        <v>65</v>
+      </c>
+      <c r="C3" s="67">
         <v>8500</v>
       </c>
-      <c r="D3" s="74">
+      <c r="D3" s="70">
         <v>44623</v>
       </c>
     </row>
@@ -4988,12 +6207,12 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C4" s="2">
         <v>18000</v>
       </c>
-      <c r="D4" s="75">
+      <c r="D4" s="71">
         <v>44622</v>
       </c>
     </row>
@@ -5002,12 +6221,12 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C5" s="2">
         <v>48000</v>
       </c>
-      <c r="D5" s="75">
+      <c r="D5" s="71">
         <v>44628</v>
       </c>
     </row>
@@ -5016,12 +6235,12 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C6" s="2">
         <v>30000</v>
       </c>
-      <c r="D6" s="75">
+      <c r="D6" s="71">
         <v>44632</v>
       </c>
     </row>
@@ -5030,12 +6249,12 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C7" s="2">
         <v>30000</v>
       </c>
-      <c r="D7" s="75">
+      <c r="D7" s="71">
         <v>44636</v>
       </c>
     </row>
@@ -5044,12 +6263,12 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C8" s="2">
         <v>32500</v>
       </c>
-      <c r="D8" s="75">
+      <c r="D8" s="71">
         <v>44640</v>
       </c>
     </row>
@@ -5058,12 +6277,12 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C9" s="2">
         <v>33000</v>
       </c>
-      <c r="D9" s="75">
+      <c r="D9" s="71">
         <v>44643</v>
       </c>
     </row>
@@ -5072,12 +6291,12 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C10" s="2">
         <v>40000</v>
       </c>
-      <c r="D10" s="75">
+      <c r="D10" s="71">
         <v>44648</v>
       </c>
     </row>
@@ -5086,25 +6305,25 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C11" s="2">
         <v>32000</v>
       </c>
-      <c r="D11" s="75">
+      <c r="D11" s="71">
         <v>44650</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="195" t="s">
-        <v>76</v>
-      </c>
-      <c r="B12" s="196"/>
-      <c r="C12" s="197">
+      <c r="A12" s="236" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" s="237"/>
+      <c r="C12" s="238">
         <f>SUM(C3:C11)</f>
         <v>272000</v>
       </c>
-      <c r="D12" s="198"/>
+      <c r="D12" s="239"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/OneClick Hotel/FOURNISSEURS 2022 one.xlsx
+++ b/OneClick Hotel/FOURNISSEURS 2022 one.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\OneClick Hotel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75FCF879-22BB-444D-9045-88DBA13AFD6C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01B17CFB-49F2-4A0E-89F0-21007BD12653}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name=" KIME SUPERMARKET" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="164">
   <si>
     <r>
       <t>N</t>
@@ -485,6 +485,60 @@
   </si>
   <si>
     <t>SDC010014500/4847</t>
+  </si>
+  <si>
+    <t>SDC002800324/8304</t>
+  </si>
+  <si>
+    <t>SDC007063634/123</t>
+  </si>
+  <si>
+    <t>SDC007063634/121</t>
+  </si>
+  <si>
+    <t>SDC002800324/8434</t>
+  </si>
+  <si>
+    <t>SDC002800324/8428</t>
+  </si>
+  <si>
+    <t>SDC002800324/8440</t>
+  </si>
+  <si>
+    <t>SDC002800324/8438</t>
+  </si>
+  <si>
+    <t>SDC010014500/4884</t>
+  </si>
+  <si>
+    <t>SDC010014500/4972</t>
+  </si>
+  <si>
+    <t>SDC010014500/5044</t>
+  </si>
+  <si>
+    <t>SDC010014500/5139</t>
+  </si>
+  <si>
+    <t>SDC010014500/5233</t>
+  </si>
+  <si>
+    <t>SDC007063634/125</t>
+  </si>
+  <si>
+    <t>SDC007063634/127</t>
+  </si>
+  <si>
+    <t>SDC002800324/8469</t>
+  </si>
+  <si>
+    <t>SDC010014500/5313</t>
+  </si>
+  <si>
+    <t>SDC010014500/5399</t>
+  </si>
+  <si>
+    <t>SDC002800324/8491</t>
   </si>
 </sst>
 </file>
@@ -1010,7 +1064,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="240">
+  <cellXfs count="250">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1408,20 +1462,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1449,6 +1494,36 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1539,13 +1614,40 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1557,33 +1659,6 @@
     <xf numFmtId="3" fontId="2" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1596,6 +1671,12 @@
     <xf numFmtId="165" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1605,32 +1686,26 @@
     <xf numFmtId="165" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1689,6 +1764,9 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2027,10 +2105,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H55"/>
+  <dimension ref="A1:H69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2087,14 +2165,14 @@
       <c r="E2" s="36">
         <v>14407</v>
       </c>
-      <c r="F2" s="181">
+      <c r="F2" s="188">
         <f>E7+E6+E5+E4+E3+E2</f>
         <v>108260.5</v>
       </c>
-      <c r="G2" s="169" t="s">
+      <c r="G2" s="176" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="170"/>
+      <c r="H2" s="177"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="37">
@@ -2112,9 +2190,9 @@
       <c r="E3" s="11">
         <v>29385</v>
       </c>
-      <c r="F3" s="182"/>
-      <c r="G3" s="171"/>
-      <c r="H3" s="172"/>
+      <c r="F3" s="189"/>
+      <c r="G3" s="178"/>
+      <c r="H3" s="179"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="37">
@@ -2132,9 +2210,9 @@
       <c r="E4" s="11">
         <v>7600</v>
       </c>
-      <c r="F4" s="182"/>
-      <c r="G4" s="171"/>
-      <c r="H4" s="172"/>
+      <c r="F4" s="189"/>
+      <c r="G4" s="178"/>
+      <c r="H4" s="179"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="37">
@@ -2152,9 +2230,9 @@
       <c r="E5" s="11">
         <v>15106</v>
       </c>
-      <c r="F5" s="182"/>
-      <c r="G5" s="171"/>
-      <c r="H5" s="172"/>
+      <c r="F5" s="189"/>
+      <c r="G5" s="178"/>
+      <c r="H5" s="179"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="37">
@@ -2172,9 +2250,9 @@
       <c r="E6" s="11">
         <v>29262.5</v>
       </c>
-      <c r="F6" s="182"/>
-      <c r="G6" s="171"/>
-      <c r="H6" s="172"/>
+      <c r="F6" s="189"/>
+      <c r="G6" s="178"/>
+      <c r="H6" s="179"/>
     </row>
     <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="38">
@@ -2192,9 +2270,9 @@
       <c r="E7" s="40">
         <v>12500</v>
       </c>
-      <c r="F7" s="183"/>
-      <c r="G7" s="173"/>
-      <c r="H7" s="174"/>
+      <c r="F7" s="190"/>
+      <c r="G7" s="180"/>
+      <c r="H7" s="181"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="33">
@@ -2212,14 +2290,14 @@
       <c r="E8" s="36">
         <v>154394</v>
       </c>
-      <c r="F8" s="160">
+      <c r="F8" s="167">
         <f>E12+E11+E10+E9+E8</f>
         <v>569778</v>
       </c>
-      <c r="G8" s="184">
+      <c r="G8" s="191">
         <v>44635</v>
       </c>
-      <c r="H8" s="178" t="s">
+      <c r="H8" s="185" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2239,9 +2317,9 @@
       <c r="E9" s="11">
         <v>55344</v>
       </c>
-      <c r="F9" s="161"/>
-      <c r="G9" s="185"/>
-      <c r="H9" s="179"/>
+      <c r="F9" s="168"/>
+      <c r="G9" s="192"/>
+      <c r="H9" s="186"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="37">
@@ -2259,9 +2337,9 @@
       <c r="E10" s="11">
         <v>123660</v>
       </c>
-      <c r="F10" s="161"/>
-      <c r="G10" s="185"/>
-      <c r="H10" s="179"/>
+      <c r="F10" s="168"/>
+      <c r="G10" s="192"/>
+      <c r="H10" s="186"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="37">
@@ -2279,9 +2357,9 @@
       <c r="E11" s="11">
         <v>49000</v>
       </c>
-      <c r="F11" s="161"/>
-      <c r="G11" s="185"/>
-      <c r="H11" s="179"/>
+      <c r="F11" s="168"/>
+      <c r="G11" s="192"/>
+      <c r="H11" s="186"/>
     </row>
     <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="38">
@@ -2299,9 +2377,9 @@
       <c r="E12" s="40">
         <v>187380</v>
       </c>
-      <c r="F12" s="162"/>
-      <c r="G12" s="186"/>
-      <c r="H12" s="180"/>
+      <c r="F12" s="169"/>
+      <c r="G12" s="193"/>
+      <c r="H12" s="187"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="33">
@@ -2319,14 +2397,14 @@
       <c r="E13" s="45">
         <v>41400</v>
       </c>
-      <c r="F13" s="160">
+      <c r="F13" s="167">
         <f>E16+E15+E14+E13</f>
         <v>350480</v>
       </c>
-      <c r="G13" s="187">
+      <c r="G13" s="194">
         <v>44656</v>
       </c>
-      <c r="H13" s="178" t="s">
+      <c r="H13" s="185" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2346,9 +2424,9 @@
       <c r="E14" s="11">
         <v>133400</v>
       </c>
-      <c r="F14" s="161"/>
-      <c r="G14" s="188"/>
-      <c r="H14" s="179"/>
+      <c r="F14" s="168"/>
+      <c r="G14" s="195"/>
+      <c r="H14" s="186"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="37">
@@ -2366,9 +2444,9 @@
       <c r="E15" s="11">
         <v>140200</v>
       </c>
-      <c r="F15" s="161"/>
-      <c r="G15" s="188"/>
-      <c r="H15" s="179"/>
+      <c r="F15" s="168"/>
+      <c r="G15" s="195"/>
+      <c r="H15" s="186"/>
     </row>
     <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="38">
@@ -2386,9 +2464,9 @@
       <c r="E16" s="40">
         <v>35480</v>
       </c>
-      <c r="F16" s="162"/>
-      <c r="G16" s="189"/>
-      <c r="H16" s="180"/>
+      <c r="F16" s="169"/>
+      <c r="G16" s="196"/>
+      <c r="H16" s="187"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="33">
@@ -2406,14 +2484,14 @@
       <c r="E17" s="45">
         <v>103900</v>
       </c>
-      <c r="F17" s="160">
+      <c r="F17" s="167">
         <f>E26+E25+E24+E23+E22+E21+E20+E19+E18+E17+E27+E28</f>
         <v>968300</v>
       </c>
-      <c r="G17" s="175">
+      <c r="G17" s="182">
         <v>44681</v>
       </c>
-      <c r="H17" s="178" t="s">
+      <c r="H17" s="185" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2433,9 +2511,9 @@
       <c r="E18" s="15">
         <v>109700</v>
       </c>
-      <c r="F18" s="161"/>
-      <c r="G18" s="176"/>
-      <c r="H18" s="179"/>
+      <c r="F18" s="168"/>
+      <c r="G18" s="183"/>
+      <c r="H18" s="186"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="37">
@@ -2453,9 +2531,9 @@
       <c r="E19" s="11">
         <v>24400</v>
       </c>
-      <c r="F19" s="161"/>
-      <c r="G19" s="176"/>
-      <c r="H19" s="179"/>
+      <c r="F19" s="168"/>
+      <c r="G19" s="183"/>
+      <c r="H19" s="186"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="37">
@@ -2473,9 +2551,9 @@
       <c r="E20" s="11">
         <v>11000</v>
       </c>
-      <c r="F20" s="161"/>
-      <c r="G20" s="176"/>
-      <c r="H20" s="179"/>
+      <c r="F20" s="168"/>
+      <c r="G20" s="183"/>
+      <c r="H20" s="186"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="37">
@@ -2493,9 +2571,9 @@
       <c r="E21" s="11">
         <v>47700</v>
       </c>
-      <c r="F21" s="161"/>
-      <c r="G21" s="176"/>
-      <c r="H21" s="179"/>
+      <c r="F21" s="168"/>
+      <c r="G21" s="183"/>
+      <c r="H21" s="186"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="37">
@@ -2513,9 +2591,9 @@
       <c r="E22" s="11">
         <v>70650</v>
       </c>
-      <c r="F22" s="161"/>
-      <c r="G22" s="176"/>
-      <c r="H22" s="179"/>
+      <c r="F22" s="168"/>
+      <c r="G22" s="183"/>
+      <c r="H22" s="186"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="37">
@@ -2533,9 +2611,9 @@
       <c r="E23" s="11">
         <v>89000</v>
       </c>
-      <c r="F23" s="161"/>
-      <c r="G23" s="176"/>
-      <c r="H23" s="179"/>
+      <c r="F23" s="168"/>
+      <c r="G23" s="183"/>
+      <c r="H23" s="186"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="37">
@@ -2553,9 +2631,9 @@
       <c r="E24" s="11">
         <v>103550</v>
       </c>
-      <c r="F24" s="161"/>
-      <c r="G24" s="176"/>
-      <c r="H24" s="179"/>
+      <c r="F24" s="168"/>
+      <c r="G24" s="183"/>
+      <c r="H24" s="186"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="37">
@@ -2573,9 +2651,9 @@
       <c r="E25" s="11">
         <v>112500</v>
       </c>
-      <c r="F25" s="161"/>
-      <c r="G25" s="176"/>
-      <c r="H25" s="179"/>
+      <c r="F25" s="168"/>
+      <c r="G25" s="183"/>
+      <c r="H25" s="186"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="96">
@@ -2593,9 +2671,9 @@
       <c r="E26" s="98">
         <v>18400</v>
       </c>
-      <c r="F26" s="161"/>
-      <c r="G26" s="176"/>
-      <c r="H26" s="179"/>
+      <c r="F26" s="168"/>
+      <c r="G26" s="183"/>
+      <c r="H26" s="186"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="37">
@@ -2613,9 +2691,9 @@
       <c r="E27" s="11">
         <v>214000</v>
       </c>
-      <c r="F27" s="161"/>
-      <c r="G27" s="176"/>
-      <c r="H27" s="179"/>
+      <c r="F27" s="168"/>
+      <c r="G27" s="183"/>
+      <c r="H27" s="186"/>
     </row>
     <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="38">
@@ -2633,34 +2711,34 @@
       <c r="E28" s="40">
         <v>63500</v>
       </c>
-      <c r="F28" s="162"/>
-      <c r="G28" s="177"/>
-      <c r="H28" s="180"/>
+      <c r="F28" s="169"/>
+      <c r="G28" s="184"/>
+      <c r="H28" s="187"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="153">
+      <c r="A29" s="150">
         <v>28</v>
       </c>
-      <c r="B29" s="154" t="s">
+      <c r="B29" s="151" t="s">
         <v>12</v>
       </c>
       <c r="C29" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="D29" s="155">
+      <c r="D29" s="152">
         <v>44683</v>
       </c>
-      <c r="E29" s="157">
+      <c r="E29" s="154">
         <v>87700</v>
       </c>
-      <c r="F29" s="160">
+      <c r="F29" s="167">
         <f>E29+E30+E31+E32+E33+E34+E35+E36+E37+E38+E39+E40+E41+E42+E43+E44+E45+E46+E47+E48+E49</f>
         <v>1969627</v>
       </c>
-      <c r="G29" s="163">
+      <c r="G29" s="170">
         <v>44733</v>
       </c>
-      <c r="H29" s="166" t="s">
+      <c r="H29" s="173" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2677,12 +2755,12 @@
       <c r="D30" s="101">
         <v>44684</v>
       </c>
-      <c r="E30" s="158">
+      <c r="E30" s="155">
         <v>54000</v>
       </c>
-      <c r="F30" s="161"/>
-      <c r="G30" s="164"/>
-      <c r="H30" s="167"/>
+      <c r="F30" s="168"/>
+      <c r="G30" s="171"/>
+      <c r="H30" s="174"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="96">
@@ -2697,12 +2775,12 @@
       <c r="D31" s="101">
         <v>44686</v>
       </c>
-      <c r="E31" s="158">
+      <c r="E31" s="155">
         <v>91950</v>
       </c>
-      <c r="F31" s="161"/>
-      <c r="G31" s="164"/>
-      <c r="H31" s="167"/>
+      <c r="F31" s="168"/>
+      <c r="G31" s="171"/>
+      <c r="H31" s="174"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="96">
@@ -2717,12 +2795,12 @@
       <c r="D32" s="101">
         <v>44686</v>
       </c>
-      <c r="E32" s="158">
+      <c r="E32" s="155">
         <v>21000</v>
       </c>
-      <c r="F32" s="161"/>
-      <c r="G32" s="164"/>
-      <c r="H32" s="167"/>
+      <c r="F32" s="168"/>
+      <c r="G32" s="171"/>
+      <c r="H32" s="174"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="37">
@@ -2737,12 +2815,12 @@
       <c r="D33" s="101">
         <v>44686</v>
       </c>
-      <c r="E33" s="158">
+      <c r="E33" s="155">
         <v>27500</v>
       </c>
-      <c r="F33" s="161"/>
-      <c r="G33" s="164"/>
-      <c r="H33" s="167"/>
+      <c r="F33" s="168"/>
+      <c r="G33" s="171"/>
+      <c r="H33" s="174"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="96">
@@ -2760,9 +2838,9 @@
       <c r="E34" s="128">
         <v>131000</v>
       </c>
-      <c r="F34" s="161"/>
-      <c r="G34" s="164"/>
-      <c r="H34" s="167"/>
+      <c r="F34" s="168"/>
+      <c r="G34" s="171"/>
+      <c r="H34" s="174"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="96">
@@ -2780,9 +2858,9 @@
       <c r="E35" s="128">
         <v>137000</v>
       </c>
-      <c r="F35" s="161"/>
-      <c r="G35" s="164"/>
-      <c r="H35" s="167"/>
+      <c r="F35" s="168"/>
+      <c r="G35" s="171"/>
+      <c r="H35" s="174"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="75">
@@ -2797,12 +2875,12 @@
       <c r="D36" s="101">
         <v>44697</v>
       </c>
-      <c r="E36" s="158">
+      <c r="E36" s="155">
         <v>215777</v>
       </c>
-      <c r="F36" s="161"/>
-      <c r="G36" s="164"/>
-      <c r="H36" s="167"/>
+      <c r="F36" s="168"/>
+      <c r="G36" s="171"/>
+      <c r="H36" s="174"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="75">
@@ -2817,12 +2895,12 @@
       <c r="D37" s="101">
         <v>44700</v>
       </c>
-      <c r="E37" s="158">
+      <c r="E37" s="155">
         <v>83000</v>
       </c>
-      <c r="F37" s="161"/>
-      <c r="G37" s="164"/>
-      <c r="H37" s="167"/>
+      <c r="F37" s="168"/>
+      <c r="G37" s="171"/>
+      <c r="H37" s="174"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="75">
@@ -2837,12 +2915,12 @@
       <c r="D38" s="101">
         <v>44704</v>
       </c>
-      <c r="E38" s="158">
+      <c r="E38" s="155">
         <v>67400</v>
       </c>
-      <c r="F38" s="161"/>
-      <c r="G38" s="164"/>
-      <c r="H38" s="167"/>
+      <c r="F38" s="168"/>
+      <c r="G38" s="171"/>
+      <c r="H38" s="174"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="75">
@@ -2860,9 +2938,9 @@
       <c r="E39" s="128">
         <v>23000</v>
       </c>
-      <c r="F39" s="161"/>
-      <c r="G39" s="164"/>
-      <c r="H39" s="167"/>
+      <c r="F39" s="168"/>
+      <c r="G39" s="171"/>
+      <c r="H39" s="174"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="75">
@@ -2880,9 +2958,9 @@
       <c r="E40" s="128">
         <v>8000</v>
       </c>
-      <c r="F40" s="161"/>
-      <c r="G40" s="164"/>
-      <c r="H40" s="167"/>
+      <c r="F40" s="168"/>
+      <c r="G40" s="171"/>
+      <c r="H40" s="174"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="75">
@@ -2897,12 +2975,12 @@
       <c r="D41" s="101">
         <v>44714</v>
       </c>
-      <c r="E41" s="158">
+      <c r="E41" s="155">
         <v>77200</v>
       </c>
-      <c r="F41" s="161"/>
-      <c r="G41" s="164"/>
-      <c r="H41" s="167"/>
+      <c r="F41" s="168"/>
+      <c r="G41" s="171"/>
+      <c r="H41" s="174"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="75">
@@ -2917,12 +2995,12 @@
       <c r="D42" s="101">
         <v>44715</v>
       </c>
-      <c r="E42" s="158">
+      <c r="E42" s="155">
         <v>22500</v>
       </c>
-      <c r="F42" s="161"/>
-      <c r="G42" s="164"/>
-      <c r="H42" s="167"/>
+      <c r="F42" s="168"/>
+      <c r="G42" s="171"/>
+      <c r="H42" s="174"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="75">
@@ -2937,12 +3015,12 @@
       <c r="D43" s="101">
         <v>44716</v>
       </c>
-      <c r="E43" s="158">
+      <c r="E43" s="155">
         <v>48000</v>
       </c>
-      <c r="F43" s="161"/>
-      <c r="G43" s="164"/>
-      <c r="H43" s="167"/>
+      <c r="F43" s="168"/>
+      <c r="G43" s="171"/>
+      <c r="H43" s="174"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="75">
@@ -2957,12 +3035,12 @@
       <c r="D44" s="101">
         <v>44716</v>
       </c>
-      <c r="E44" s="158">
+      <c r="E44" s="155">
         <v>116000</v>
       </c>
-      <c r="F44" s="161"/>
-      <c r="G44" s="164"/>
-      <c r="H44" s="167"/>
+      <c r="F44" s="168"/>
+      <c r="G44" s="171"/>
+      <c r="H44" s="174"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="75">
@@ -2977,12 +3055,12 @@
       <c r="D45" s="101">
         <v>44720</v>
       </c>
-      <c r="E45" s="158">
+      <c r="E45" s="155">
         <v>185500</v>
       </c>
-      <c r="F45" s="161"/>
-      <c r="G45" s="164"/>
-      <c r="H45" s="167"/>
+      <c r="F45" s="168"/>
+      <c r="G45" s="171"/>
+      <c r="H45" s="174"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="75">
@@ -2997,12 +3075,12 @@
       <c r="D46" s="101">
         <v>44725</v>
       </c>
-      <c r="E46" s="158">
+      <c r="E46" s="155">
         <v>113000</v>
       </c>
-      <c r="F46" s="161"/>
-      <c r="G46" s="164"/>
-      <c r="H46" s="167"/>
+      <c r="F46" s="168"/>
+      <c r="G46" s="171"/>
+      <c r="H46" s="174"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="75">
@@ -3020,9 +3098,9 @@
       <c r="E47" s="128">
         <v>297400</v>
       </c>
-      <c r="F47" s="161"/>
-      <c r="G47" s="164"/>
-      <c r="H47" s="167"/>
+      <c r="F47" s="168"/>
+      <c r="G47" s="171"/>
+      <c r="H47" s="174"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="75">
@@ -3037,12 +3115,12 @@
       <c r="D48" s="101">
         <v>44733</v>
       </c>
-      <c r="E48" s="158">
+      <c r="E48" s="155">
         <v>18000</v>
       </c>
-      <c r="F48" s="161"/>
-      <c r="G48" s="164"/>
-      <c r="H48" s="167"/>
+      <c r="F48" s="168"/>
+      <c r="G48" s="171"/>
+      <c r="H48" s="174"/>
     </row>
     <row r="49" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="76">
@@ -3054,15 +3132,15 @@
       <c r="C49" s="39" t="s">
         <v>140</v>
       </c>
-      <c r="D49" s="156">
+      <c r="D49" s="153">
         <v>44733</v>
       </c>
-      <c r="E49" s="159">
+      <c r="E49" s="156">
         <v>144700</v>
       </c>
-      <c r="F49" s="162"/>
-      <c r="G49" s="165"/>
-      <c r="H49" s="168"/>
+      <c r="F49" s="169"/>
+      <c r="G49" s="172"/>
+      <c r="H49" s="175"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="144">
@@ -3091,9 +3169,15 @@
       <c r="B51" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C51" s="10"/>
-      <c r="D51" s="101"/>
-      <c r="E51" s="11"/>
+      <c r="C51" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="D51" s="101">
+        <v>44658</v>
+      </c>
+      <c r="E51" s="11">
+        <v>62500</v>
+      </c>
       <c r="F51" s="11"/>
       <c r="G51" s="101"/>
       <c r="H51" s="10"/>
@@ -3105,9 +3189,15 @@
       <c r="B52" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C52" s="10"/>
-      <c r="D52" s="101"/>
-      <c r="E52" s="11"/>
+      <c r="C52" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="D52" s="101">
+        <v>44758</v>
+      </c>
+      <c r="E52" s="11">
+        <v>169775</v>
+      </c>
       <c r="F52" s="11"/>
       <c r="G52" s="101"/>
       <c r="H52" s="10"/>
@@ -3119,9 +3209,15 @@
       <c r="B53" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C53" s="10"/>
-      <c r="D53" s="101"/>
-      <c r="E53" s="11"/>
+      <c r="C53" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="D53" s="101">
+        <v>44757</v>
+      </c>
+      <c r="E53" s="11">
+        <v>22000</v>
+      </c>
       <c r="F53" s="11"/>
       <c r="G53" s="101"/>
       <c r="H53" s="10"/>
@@ -3133,9 +3229,15 @@
       <c r="B54" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C54" s="10"/>
-      <c r="D54" s="101"/>
-      <c r="E54" s="11"/>
+      <c r="C54" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="D54" s="101">
+        <v>44760</v>
+      </c>
+      <c r="E54" s="11">
+        <v>54000</v>
+      </c>
       <c r="F54" s="11"/>
       <c r="G54" s="101"/>
       <c r="H54" s="10"/>
@@ -3147,12 +3249,226 @@
       <c r="B55" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C55" s="10"/>
-      <c r="D55" s="101"/>
-      <c r="E55" s="11"/>
+      <c r="C55" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="D55" s="101">
+        <v>44760</v>
+      </c>
+      <c r="E55" s="11">
+        <v>25300</v>
+      </c>
       <c r="F55" s="11"/>
       <c r="G55" s="101"/>
       <c r="H55" s="10"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="158">
+        <v>55</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="D56" s="89">
+        <v>44763</v>
+      </c>
+      <c r="E56" s="6">
+        <v>13300</v>
+      </c>
+      <c r="F56" s="11"/>
+      <c r="G56" s="101"/>
+      <c r="H56" s="10"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="158">
+        <v>56</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D57" s="89">
+        <v>44767</v>
+      </c>
+      <c r="E57" s="6">
+        <v>243500</v>
+      </c>
+      <c r="F57" s="11"/>
+      <c r="G57" s="101"/>
+      <c r="H57" s="10"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="158">
+        <v>57</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C58" s="10"/>
+      <c r="D58" s="101"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="101"/>
+      <c r="H58" s="10"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="158">
+        <v>58</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59" s="10"/>
+      <c r="D59" s="101"/>
+      <c r="E59" s="11"/>
+      <c r="F59" s="11"/>
+      <c r="G59" s="101"/>
+      <c r="H59" s="10"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="158">
+        <v>59</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C60" s="10"/>
+      <c r="D60" s="101"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="11"/>
+      <c r="G60" s="101"/>
+      <c r="H60" s="10"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="158">
+        <v>60</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C61" s="10"/>
+      <c r="D61" s="101"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="101"/>
+      <c r="H61" s="10"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="158">
+        <v>61</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C62" s="10"/>
+      <c r="D62" s="101"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="101"/>
+      <c r="H62" s="10"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="158">
+        <v>62</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63" s="10"/>
+      <c r="D63" s="101"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="11"/>
+      <c r="G63" s="101"/>
+      <c r="H63" s="10"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="158">
+        <v>63</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64" s="10"/>
+      <c r="D64" s="101"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="101"/>
+      <c r="H64" s="10"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="158">
+        <v>64</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C65" s="10"/>
+      <c r="D65" s="101"/>
+      <c r="E65" s="11"/>
+      <c r="F65" s="11"/>
+      <c r="G65" s="101"/>
+      <c r="H65" s="10"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="158">
+        <v>65</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66" s="10"/>
+      <c r="D66" s="101"/>
+      <c r="E66" s="11"/>
+      <c r="F66" s="11"/>
+      <c r="G66" s="101"/>
+      <c r="H66" s="10"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="158">
+        <v>66</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C67" s="10"/>
+      <c r="D67" s="101"/>
+      <c r="E67" s="11"/>
+      <c r="F67" s="11"/>
+      <c r="G67" s="101"/>
+      <c r="H67" s="10"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="158">
+        <v>67</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C68" s="10"/>
+      <c r="D68" s="101"/>
+      <c r="E68" s="11"/>
+      <c r="F68" s="11"/>
+      <c r="G68" s="101"/>
+      <c r="H68" s="10"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="158">
+        <v>68</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C69" s="10"/>
+      <c r="D69" s="101"/>
+      <c r="E69" s="11"/>
+      <c r="F69" s="11"/>
+      <c r="G69" s="101"/>
+      <c r="H69" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -3180,8 +3496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37:E38"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37:F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3197,40 +3513,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="196" t="s">
+      <c r="A1" s="206" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="196" t="s">
+      <c r="B1" s="206" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="196" t="s">
+      <c r="C1" s="206" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="198" t="s">
+      <c r="D1" s="208" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="197" t="s">
+      <c r="E1" s="207" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="181" t="s">
+      <c r="F1" s="188" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="187" t="s">
+      <c r="G1" s="194" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="190" t="s">
+      <c r="H1" s="200" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="196"/>
-      <c r="B2" s="196"/>
-      <c r="C2" s="196"/>
-      <c r="D2" s="198"/>
-      <c r="E2" s="197"/>
-      <c r="F2" s="183"/>
-      <c r="G2" s="189"/>
-      <c r="H2" s="192"/>
+      <c r="A2" s="206"/>
+      <c r="B2" s="206"/>
+      <c r="C2" s="206"/>
+      <c r="D2" s="208"/>
+      <c r="E2" s="207"/>
+      <c r="F2" s="190"/>
+      <c r="G2" s="196"/>
+      <c r="H2" s="201"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="37">
@@ -3248,14 +3564,14 @@
       <c r="E3" s="109">
         <v>227000</v>
       </c>
-      <c r="F3" s="181">
+      <c r="F3" s="188">
         <f>E5+E4+E3</f>
         <v>862800</v>
       </c>
-      <c r="G3" s="184">
+      <c r="G3" s="191">
         <v>44615</v>
       </c>
-      <c r="H3" s="190" t="s">
+      <c r="H3" s="200" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3275,9 +3591,9 @@
       <c r="E4" s="112">
         <v>408400</v>
       </c>
-      <c r="F4" s="182"/>
-      <c r="G4" s="185"/>
-      <c r="H4" s="191"/>
+      <c r="F4" s="189"/>
+      <c r="G4" s="192"/>
+      <c r="H4" s="202"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="76">
@@ -3295,9 +3611,9 @@
       <c r="E5" s="54">
         <v>227400</v>
       </c>
-      <c r="F5" s="183"/>
-      <c r="G5" s="186"/>
-      <c r="H5" s="192"/>
+      <c r="F5" s="190"/>
+      <c r="G5" s="193"/>
+      <c r="H5" s="201"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="33">
@@ -3315,14 +3631,14 @@
       <c r="E6" s="36">
         <v>289000</v>
       </c>
-      <c r="F6" s="181">
+      <c r="F6" s="188">
         <f>E9+E8+E7+E6</f>
         <v>881050</v>
       </c>
-      <c r="G6" s="184">
+      <c r="G6" s="191">
         <v>44638</v>
       </c>
-      <c r="H6" s="190" t="s">
+      <c r="H6" s="200" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3342,9 +3658,9 @@
       <c r="E7" s="112">
         <v>191300</v>
       </c>
-      <c r="F7" s="182"/>
-      <c r="G7" s="185"/>
-      <c r="H7" s="191"/>
+      <c r="F7" s="189"/>
+      <c r="G7" s="192"/>
+      <c r="H7" s="202"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="75">
@@ -3362,9 +3678,9 @@
       <c r="E8" s="6">
         <v>297200</v>
       </c>
-      <c r="F8" s="182"/>
-      <c r="G8" s="185"/>
-      <c r="H8" s="191"/>
+      <c r="F8" s="189"/>
+      <c r="G8" s="192"/>
+      <c r="H8" s="202"/>
     </row>
     <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="76">
@@ -3382,9 +3698,9 @@
       <c r="E9" s="59">
         <v>103550</v>
       </c>
-      <c r="F9" s="183"/>
-      <c r="G9" s="186"/>
-      <c r="H9" s="192"/>
+      <c r="F9" s="190"/>
+      <c r="G9" s="193"/>
+      <c r="H9" s="201"/>
     </row>
     <row r="10" spans="1:8" s="81" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="33">
@@ -3402,14 +3718,14 @@
       <c r="E10" s="79">
         <v>130300</v>
       </c>
-      <c r="F10" s="181">
+      <c r="F10" s="188">
         <f>E15+E14+E13+E12+E11+E10</f>
         <v>1185900</v>
       </c>
-      <c r="G10" s="187">
+      <c r="G10" s="194">
         <v>44655</v>
       </c>
-      <c r="H10" s="202" t="s">
+      <c r="H10" s="203" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3429,9 +3745,9 @@
       <c r="E11" s="112">
         <v>322300</v>
       </c>
-      <c r="F11" s="182"/>
-      <c r="G11" s="188"/>
-      <c r="H11" s="203"/>
+      <c r="F11" s="189"/>
+      <c r="G11" s="195"/>
+      <c r="H11" s="204"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="75">
@@ -3449,9 +3765,9 @@
       <c r="E12" s="112">
         <v>224200</v>
       </c>
-      <c r="F12" s="182"/>
-      <c r="G12" s="188"/>
-      <c r="H12" s="203"/>
+      <c r="F12" s="189"/>
+      <c r="G12" s="195"/>
+      <c r="H12" s="204"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="75">
@@ -3469,9 +3785,9 @@
       <c r="E13" s="112">
         <v>200250</v>
       </c>
-      <c r="F13" s="182"/>
-      <c r="G13" s="188"/>
-      <c r="H13" s="203"/>
+      <c r="F13" s="189"/>
+      <c r="G13" s="195"/>
+      <c r="H13" s="204"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="75">
@@ -3489,9 +3805,9 @@
       <c r="E14" s="112">
         <v>64400</v>
       </c>
-      <c r="F14" s="182"/>
-      <c r="G14" s="188"/>
-      <c r="H14" s="203"/>
+      <c r="F14" s="189"/>
+      <c r="G14" s="195"/>
+      <c r="H14" s="204"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="76">
@@ -3509,9 +3825,9 @@
       <c r="E15" s="54">
         <v>244450</v>
       </c>
-      <c r="F15" s="183"/>
-      <c r="G15" s="189"/>
-      <c r="H15" s="204"/>
+      <c r="F15" s="190"/>
+      <c r="G15" s="196"/>
+      <c r="H15" s="205"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="33">
@@ -3529,14 +3845,14 @@
       <c r="E16" s="36">
         <v>76400</v>
       </c>
-      <c r="F16" s="181">
+      <c r="F16" s="188">
         <f>E19+E18+E17+E16</f>
         <v>1024350</v>
       </c>
-      <c r="G16" s="187">
+      <c r="G16" s="194">
         <v>44673</v>
       </c>
-      <c r="H16" s="190" t="s">
+      <c r="H16" s="200" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3556,9 +3872,9 @@
       <c r="E17" s="112">
         <v>344500</v>
       </c>
-      <c r="F17" s="182"/>
-      <c r="G17" s="188"/>
-      <c r="H17" s="191"/>
+      <c r="F17" s="189"/>
+      <c r="G17" s="195"/>
+      <c r="H17" s="202"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="75">
@@ -3576,9 +3892,9 @@
       <c r="E18" s="112">
         <v>284000</v>
       </c>
-      <c r="F18" s="182"/>
-      <c r="G18" s="188"/>
-      <c r="H18" s="191"/>
+      <c r="F18" s="189"/>
+      <c r="G18" s="195"/>
+      <c r="H18" s="202"/>
     </row>
     <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="76">
@@ -3596,9 +3912,9 @@
       <c r="E19" s="54">
         <v>319450</v>
       </c>
-      <c r="F19" s="183"/>
-      <c r="G19" s="189"/>
-      <c r="H19" s="192"/>
+      <c r="F19" s="190"/>
+      <c r="G19" s="196"/>
+      <c r="H19" s="201"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="33">
@@ -3616,14 +3932,14 @@
       <c r="E20" s="36">
         <v>392200</v>
       </c>
-      <c r="F20" s="193">
+      <c r="F20" s="209">
         <f>E23+E21+E20+E22</f>
         <v>1110200</v>
       </c>
-      <c r="G20" s="188">
+      <c r="G20" s="195">
         <v>44688</v>
       </c>
-      <c r="H20" s="190" t="s">
+      <c r="H20" s="200" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3643,9 +3959,9 @@
       <c r="E21" s="112">
         <v>222000</v>
       </c>
-      <c r="F21" s="194"/>
-      <c r="G21" s="188"/>
-      <c r="H21" s="191"/>
+      <c r="F21" s="210"/>
+      <c r="G21" s="195"/>
+      <c r="H21" s="202"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="75">
@@ -3663,9 +3979,9 @@
       <c r="E22" s="112">
         <v>275700</v>
       </c>
-      <c r="F22" s="194"/>
-      <c r="G22" s="188"/>
-      <c r="H22" s="191"/>
+      <c r="F22" s="210"/>
+      <c r="G22" s="195"/>
+      <c r="H22" s="202"/>
     </row>
     <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="76">
@@ -3683,9 +3999,9 @@
       <c r="E23" s="54">
         <v>220300</v>
       </c>
-      <c r="F23" s="195"/>
-      <c r="G23" s="189"/>
-      <c r="H23" s="192"/>
+      <c r="F23" s="211"/>
+      <c r="G23" s="196"/>
+      <c r="H23" s="201"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="33">
@@ -3703,14 +4019,14 @@
       <c r="E24" s="132">
         <v>221600</v>
       </c>
-      <c r="F24" s="181">
+      <c r="F24" s="188">
         <f>E28+E27+E26+E25+E24</f>
         <v>857200</v>
       </c>
-      <c r="G24" s="187">
+      <c r="G24" s="194">
         <v>44706</v>
       </c>
-      <c r="H24" s="190" t="s">
+      <c r="H24" s="200" t="s">
         <v>61</v>
       </c>
     </row>
@@ -3730,9 +4046,9 @@
       <c r="E25" s="128">
         <v>194500</v>
       </c>
-      <c r="F25" s="182"/>
-      <c r="G25" s="188"/>
-      <c r="H25" s="191"/>
+      <c r="F25" s="189"/>
+      <c r="G25" s="195"/>
+      <c r="H25" s="202"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="75">
@@ -3750,9 +4066,9 @@
       <c r="E26" s="129">
         <v>222200</v>
       </c>
-      <c r="F26" s="182"/>
-      <c r="G26" s="188"/>
-      <c r="H26" s="191"/>
+      <c r="F26" s="189"/>
+      <c r="G26" s="195"/>
+      <c r="H26" s="202"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="75">
@@ -3770,9 +4086,9 @@
       <c r="E27" s="129">
         <v>117700</v>
       </c>
-      <c r="F27" s="182"/>
-      <c r="G27" s="188"/>
-      <c r="H27" s="191"/>
+      <c r="F27" s="189"/>
+      <c r="G27" s="195"/>
+      <c r="H27" s="202"/>
     </row>
     <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="76">
@@ -3790,9 +4106,9 @@
       <c r="E28" s="134">
         <v>101200</v>
       </c>
-      <c r="F28" s="183"/>
-      <c r="G28" s="189"/>
-      <c r="H28" s="192"/>
+      <c r="F28" s="190"/>
+      <c r="G28" s="196"/>
+      <c r="H28" s="201"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="33">
@@ -3810,14 +4126,14 @@
       <c r="E29" s="132">
         <v>270600</v>
       </c>
-      <c r="F29" s="181">
+      <c r="F29" s="188">
         <f>E29+E30+E31+E32+E33+E34+E35+E36</f>
         <v>2019700</v>
       </c>
-      <c r="G29" s="187">
+      <c r="G29" s="194">
         <v>44733</v>
       </c>
-      <c r="H29" s="199" t="s">
+      <c r="H29" s="197" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3828,18 +4144,18 @@
       <c r="B30" s="142" t="s">
         <v>14</v>
       </c>
-      <c r="C30" s="147" t="s">
+      <c r="C30" s="145" t="s">
         <v>117</v>
       </c>
-      <c r="D30" s="148">
+      <c r="D30" s="146">
         <v>44711</v>
       </c>
       <c r="E30" s="129">
         <v>244200</v>
       </c>
-      <c r="F30" s="182"/>
-      <c r="G30" s="188"/>
-      <c r="H30" s="200"/>
+      <c r="F30" s="189"/>
+      <c r="G30" s="195"/>
+      <c r="H30" s="198"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="75">
@@ -3857,9 +4173,9 @@
       <c r="E31" s="128">
         <v>222800</v>
       </c>
-      <c r="F31" s="182"/>
-      <c r="G31" s="188"/>
-      <c r="H31" s="200"/>
+      <c r="F31" s="189"/>
+      <c r="G31" s="195"/>
+      <c r="H31" s="198"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="75">
@@ -3877,9 +4193,9 @@
       <c r="E32" s="128">
         <v>231200</v>
       </c>
-      <c r="F32" s="182"/>
-      <c r="G32" s="188"/>
-      <c r="H32" s="200"/>
+      <c r="F32" s="189"/>
+      <c r="G32" s="195"/>
+      <c r="H32" s="198"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="135">
@@ -3897,9 +4213,9 @@
       <c r="E33" s="128">
         <v>179500</v>
       </c>
-      <c r="F33" s="182"/>
-      <c r="G33" s="188"/>
-      <c r="H33" s="200"/>
+      <c r="F33" s="189"/>
+      <c r="G33" s="195"/>
+      <c r="H33" s="198"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="75">
@@ -3917,9 +4233,9 @@
       <c r="E34" s="128">
         <v>197100</v>
       </c>
-      <c r="F34" s="182"/>
-      <c r="G34" s="188"/>
-      <c r="H34" s="200"/>
+      <c r="F34" s="189"/>
+      <c r="G34" s="195"/>
+      <c r="H34" s="198"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="75">
@@ -3937,9 +4253,9 @@
       <c r="E35" s="128">
         <v>304000</v>
       </c>
-      <c r="F35" s="182"/>
-      <c r="G35" s="188"/>
-      <c r="H35" s="200"/>
+      <c r="F35" s="189"/>
+      <c r="G35" s="195"/>
+      <c r="H35" s="198"/>
     </row>
     <row r="36" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="76">
@@ -3951,139 +4267,178 @@
       <c r="C36" s="58" t="s">
         <v>137</v>
       </c>
-      <c r="D36" s="151">
+      <c r="D36" s="148">
         <v>44729</v>
       </c>
-      <c r="E36" s="152">
+      <c r="E36" s="149">
         <v>370300</v>
       </c>
-      <c r="F36" s="183"/>
-      <c r="G36" s="189"/>
-      <c r="H36" s="201"/>
+      <c r="F36" s="190"/>
+      <c r="G36" s="196"/>
+      <c r="H36" s="199"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="37">
+      <c r="A37" s="33">
         <v>35</v>
       </c>
-      <c r="B37" s="144" t="s">
+      <c r="B37" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="130" t="s">
         <v>141</v>
       </c>
-      <c r="D37" s="89">
+      <c r="D37" s="131">
         <v>44739</v>
       </c>
-      <c r="E37" s="6">
+      <c r="E37" s="132">
         <v>316900</v>
       </c>
-      <c r="F37" s="145"/>
-      <c r="G37" s="149"/>
-      <c r="H37" s="146"/>
+      <c r="F37" s="188">
+        <f>E37+E38+E39+E40+E41+E42+E43</f>
+        <v>1496000</v>
+      </c>
+      <c r="G37" s="194"/>
+      <c r="H37" s="197"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="135">
         <v>36</v>
       </c>
-      <c r="B38" s="116" t="s">
+      <c r="B38" s="161" t="s">
         <v>14</v>
       </c>
-      <c r="C38" s="120" t="s">
+      <c r="C38" s="164" t="s">
         <v>145</v>
       </c>
-      <c r="D38" s="122">
+      <c r="D38" s="165">
         <v>44743</v>
       </c>
-      <c r="E38" s="121">
+      <c r="E38" s="129">
         <v>170700</v>
       </c>
-      <c r="F38" s="118"/>
-      <c r="G38" s="123"/>
-      <c r="H38" s="120"/>
+      <c r="F38" s="189"/>
+      <c r="G38" s="195"/>
+      <c r="H38" s="198"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="117">
+      <c r="A39" s="75">
         <v>37</v>
       </c>
-      <c r="B39" s="117" t="s">
+      <c r="B39" s="159" t="s">
         <v>14</v>
       </c>
-      <c r="C39" s="120"/>
-      <c r="D39" s="122"/>
-      <c r="E39" s="121"/>
-      <c r="F39" s="118"/>
-      <c r="G39" s="123"/>
-      <c r="H39" s="120"/>
+      <c r="C39" s="164" t="s">
+        <v>153</v>
+      </c>
+      <c r="D39" s="165">
+        <v>44746</v>
+      </c>
+      <c r="E39" s="129">
+        <v>146800</v>
+      </c>
+      <c r="F39" s="189"/>
+      <c r="G39" s="195"/>
+      <c r="H39" s="198"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="75">
         <v>38</v>
       </c>
-      <c r="B40" s="117" t="s">
+      <c r="B40" s="159" t="s">
         <v>14</v>
       </c>
-      <c r="C40" s="120"/>
-      <c r="D40" s="122"/>
-      <c r="E40" s="121"/>
-      <c r="F40" s="118"/>
-      <c r="G40" s="123"/>
-      <c r="H40" s="120"/>
+      <c r="C40" s="164" t="s">
+        <v>154</v>
+      </c>
+      <c r="D40" s="165">
+        <v>44749</v>
+      </c>
+      <c r="E40" s="129">
+        <v>193300</v>
+      </c>
+      <c r="F40" s="189"/>
+      <c r="G40" s="195"/>
+      <c r="H40" s="198"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="75">
         <v>39</v>
       </c>
-      <c r="B41" s="117" t="s">
+      <c r="B41" s="159" t="s">
         <v>14</v>
       </c>
-      <c r="C41" s="120"/>
-      <c r="D41" s="122"/>
-      <c r="E41" s="121"/>
-      <c r="F41" s="118"/>
-      <c r="G41" s="123"/>
-      <c r="H41" s="120"/>
+      <c r="C41" s="164" t="s">
+        <v>155</v>
+      </c>
+      <c r="D41" s="165">
+        <v>44753</v>
+      </c>
+      <c r="E41" s="129">
+        <v>196900</v>
+      </c>
+      <c r="F41" s="189"/>
+      <c r="G41" s="195"/>
+      <c r="H41" s="198"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="75">
         <v>40</v>
       </c>
-      <c r="B42" s="117" t="s">
+      <c r="B42" s="159" t="s">
         <v>14</v>
       </c>
-      <c r="C42" s="120"/>
-      <c r="D42" s="122"/>
-      <c r="E42" s="121"/>
-      <c r="F42" s="118"/>
-      <c r="G42" s="123"/>
-      <c r="H42" s="120"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="135">
+      <c r="C42" s="164" t="s">
+        <v>156</v>
+      </c>
+      <c r="D42" s="165">
+        <v>44756</v>
+      </c>
+      <c r="E42" s="129">
+        <v>183900</v>
+      </c>
+      <c r="F42" s="189"/>
+      <c r="G42" s="195"/>
+      <c r="H42" s="198"/>
+    </row>
+    <row r="43" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="76">
         <v>41</v>
       </c>
-      <c r="B43" s="116" t="s">
+      <c r="B43" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="C43" s="120"/>
-      <c r="D43" s="122"/>
-      <c r="E43" s="121"/>
-      <c r="F43" s="118"/>
-      <c r="G43" s="123"/>
-      <c r="H43" s="120"/>
+      <c r="C43" s="53" t="s">
+        <v>157</v>
+      </c>
+      <c r="D43" s="133">
+        <v>44760</v>
+      </c>
+      <c r="E43" s="134">
+        <v>287500</v>
+      </c>
+      <c r="F43" s="190"/>
+      <c r="G43" s="196"/>
+      <c r="H43" s="199"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="117">
+      <c r="A44" s="162">
         <v>42</v>
       </c>
-      <c r="B44" s="117" t="s">
+      <c r="B44" s="162" t="s">
         <v>14</v>
       </c>
-      <c r="C44" s="120"/>
-      <c r="D44" s="122"/>
-      <c r="E44" s="121"/>
-      <c r="F44" s="118"/>
-      <c r="G44" s="123"/>
-      <c r="H44" s="120"/>
+      <c r="C44" s="247" t="s">
+        <v>161</v>
+      </c>
+      <c r="D44" s="248">
+        <v>44763</v>
+      </c>
+      <c r="E44" s="249">
+        <v>125900</v>
+      </c>
+      <c r="F44" s="160"/>
+      <c r="G44" s="166"/>
+      <c r="H44" s="163"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="75">
@@ -4092,9 +4447,15 @@
       <c r="B45" s="117" t="s">
         <v>14</v>
       </c>
-      <c r="C45" s="120"/>
-      <c r="D45" s="122"/>
-      <c r="E45" s="121"/>
+      <c r="C45" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D45" s="89">
+        <v>44767</v>
+      </c>
+      <c r="E45" s="6">
+        <v>160300</v>
+      </c>
       <c r="F45" s="118"/>
       <c r="G45" s="123"/>
       <c r="H45" s="120"/>
@@ -4212,7 +4573,23 @@
       <c r="H53" s="120"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
+  <mergeCells count="32">
+    <mergeCell ref="F37:F43"/>
+    <mergeCell ref="G37:G43"/>
+    <mergeCell ref="H37:H43"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="F24:F28"/>
+    <mergeCell ref="G24:G28"/>
+    <mergeCell ref="H24:H28"/>
+    <mergeCell ref="F20:F23"/>
+    <mergeCell ref="G20:G23"/>
+    <mergeCell ref="H20:H23"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="D1:D2"/>
     <mergeCell ref="F29:F36"/>
     <mergeCell ref="G29:G36"/>
     <mergeCell ref="H29:H36"/>
@@ -4229,19 +4606,6 @@
     <mergeCell ref="G6:G9"/>
     <mergeCell ref="G3:G5"/>
     <mergeCell ref="F3:F5"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="F24:F28"/>
-    <mergeCell ref="G24:G28"/>
-    <mergeCell ref="H24:H28"/>
-    <mergeCell ref="F20:F23"/>
-    <mergeCell ref="G20:G23"/>
-    <mergeCell ref="H20:H23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4250,10 +4614,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4269,40 +4633,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="209" t="s">
+      <c r="A1" s="218" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="196" t="s">
+      <c r="B1" s="206" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="196" t="s">
+      <c r="C1" s="206" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="197" t="s">
+      <c r="D1" s="207" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="211" t="s">
+      <c r="E1" s="220" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="212" t="s">
+      <c r="F1" s="216" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="207" t="s">
+      <c r="G1" s="214" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="205" t="s">
+      <c r="H1" s="212" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="210"/>
-      <c r="B2" s="196"/>
-      <c r="C2" s="196"/>
-      <c r="D2" s="197"/>
-      <c r="E2" s="211"/>
-      <c r="F2" s="213"/>
-      <c r="G2" s="208"/>
-      <c r="H2" s="206"/>
+      <c r="A2" s="219"/>
+      <c r="B2" s="206"/>
+      <c r="C2" s="206"/>
+      <c r="D2" s="207"/>
+      <c r="E2" s="220"/>
+      <c r="F2" s="217"/>
+      <c r="G2" s="215"/>
+      <c r="H2" s="213"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
@@ -4321,7 +4685,7 @@
         <v>44700</v>
       </c>
       <c r="F3" s="19">
-        <f t="shared" ref="F3:F19" si="0">D3</f>
+        <f t="shared" ref="F3:F28" si="0">D3</f>
         <v>200620</v>
       </c>
       <c r="G3" s="22">
@@ -4763,16 +5127,201 @@
         <v>60</v>
       </c>
     </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="157">
+        <v>18</v>
+      </c>
+      <c r="B20" s="157" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="124" t="s">
+        <v>147</v>
+      </c>
+      <c r="D20" s="19">
+        <v>347250</v>
+      </c>
+      <c r="E20" s="22">
+        <v>44746</v>
+      </c>
+      <c r="F20" s="221">
+        <f>D20+D21</f>
+        <v>523280</v>
+      </c>
+      <c r="G20" s="223">
+        <v>44747</v>
+      </c>
+      <c r="H20" s="212" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="157">
+        <v>19</v>
+      </c>
+      <c r="B21" s="157" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="124" t="s">
+        <v>148</v>
+      </c>
+      <c r="D21" s="19">
+        <v>176030</v>
+      </c>
+      <c r="E21" s="22">
+        <v>44739</v>
+      </c>
+      <c r="F21" s="222"/>
+      <c r="G21" s="224"/>
+      <c r="H21" s="213"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="157">
+        <v>20</v>
+      </c>
+      <c r="B22" s="157" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="124" t="s">
+        <v>158</v>
+      </c>
+      <c r="D22" s="19">
+        <v>245100</v>
+      </c>
+      <c r="E22" s="22">
+        <v>44751</v>
+      </c>
+      <c r="F22" s="221">
+        <f>D22+D23</f>
+        <v>618200</v>
+      </c>
+      <c r="G22" s="223">
+        <v>44763</v>
+      </c>
+      <c r="H22" s="212" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="157">
+        <v>21</v>
+      </c>
+      <c r="B23" s="157" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="124" t="s">
+        <v>159</v>
+      </c>
+      <c r="D23" s="19">
+        <v>373100</v>
+      </c>
+      <c r="E23" s="22">
+        <v>44760</v>
+      </c>
+      <c r="F23" s="222"/>
+      <c r="G23" s="224"/>
+      <c r="H23" s="213"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="157">
+        <v>22</v>
+      </c>
+      <c r="B24" s="157" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="124"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="22"/>
+      <c r="H24" s="157"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="157">
+        <v>23</v>
+      </c>
+      <c r="B25" s="157" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="124"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="22"/>
+      <c r="H25" s="157"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="157">
+        <v>24</v>
+      </c>
+      <c r="B26" s="157" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="124"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G26" s="22"/>
+      <c r="H26" s="157"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="157">
+        <v>25</v>
+      </c>
+      <c r="B27" s="157" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="124"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G27" s="22"/>
+      <c r="H27" s="157"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="157">
+        <v>26</v>
+      </c>
+      <c r="B28" s="157" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="124"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G28" s="22"/>
+      <c r="H28" s="157"/>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="14">
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="G1:G2"/>
+    <mergeCell ref="F1:F2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4784,7 +5333,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4800,36 +5349,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="209" t="s">
+      <c r="A1" s="218" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="196" t="s">
+      <c r="B1" s="206" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="196" t="s">
+      <c r="C1" s="206" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="197" t="s">
+      <c r="D1" s="207" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="211" t="s">
+      <c r="E1" s="220" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="212" t="s">
+      <c r="F1" s="216" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="207" t="s">
+      <c r="G1" s="214" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="210"/>
-      <c r="B2" s="196"/>
-      <c r="C2" s="196"/>
-      <c r="D2" s="197"/>
-      <c r="E2" s="211"/>
-      <c r="F2" s="213"/>
-      <c r="G2" s="208"/>
+      <c r="A2" s="219"/>
+      <c r="B2" s="206"/>
+      <c r="C2" s="206"/>
+      <c r="D2" s="207"/>
+      <c r="E2" s="220"/>
+      <c r="F2" s="217"/>
+      <c r="G2" s="215"/>
     </row>
     <row r="3" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="25">
@@ -4938,40 +5487,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="209" t="s">
+      <c r="A1" s="218" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="196" t="s">
+      <c r="B1" s="206" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="196" t="s">
+      <c r="C1" s="206" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="219" t="s">
+      <c r="D1" s="225" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="211" t="s">
+      <c r="E1" s="220" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="212" t="s">
+      <c r="F1" s="216" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="207" t="s">
+      <c r="G1" s="214" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="218" t="s">
+      <c r="H1" s="227" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="210"/>
-      <c r="B2" s="196"/>
-      <c r="C2" s="196"/>
-      <c r="D2" s="220"/>
-      <c r="E2" s="211"/>
-      <c r="F2" s="213"/>
-      <c r="G2" s="208"/>
-      <c r="H2" s="218"/>
+      <c r="A2" s="219"/>
+      <c r="B2" s="206"/>
+      <c r="C2" s="206"/>
+      <c r="D2" s="226"/>
+      <c r="E2" s="220"/>
+      <c r="F2" s="217"/>
+      <c r="G2" s="215"/>
+      <c r="H2" s="227"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
@@ -4989,14 +5538,14 @@
       <c r="E3" s="16">
         <v>44606</v>
       </c>
-      <c r="F3" s="214">
+      <c r="F3" s="221">
         <f>D4+D3</f>
         <v>300000</v>
       </c>
-      <c r="G3" s="216">
+      <c r="G3" s="223">
         <v>44607</v>
       </c>
-      <c r="H3" s="218" t="s">
+      <c r="H3" s="227" t="s">
         <v>60</v>
       </c>
     </row>
@@ -5016,9 +5565,9 @@
       <c r="E4" s="16">
         <v>44606</v>
       </c>
-      <c r="F4" s="215"/>
-      <c r="G4" s="217"/>
-      <c r="H4" s="218"/>
+      <c r="F4" s="222"/>
+      <c r="G4" s="224"/>
+      <c r="H4" s="227"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
@@ -5062,13 +5611,13 @@
       <c r="E6" s="16">
         <v>44657</v>
       </c>
-      <c r="F6" s="214">
+      <c r="F6" s="221">
         <v>300000</v>
       </c>
-      <c r="G6" s="216">
+      <c r="G6" s="223">
         <v>44650</v>
       </c>
-      <c r="H6" s="218" t="s">
+      <c r="H6" s="227" t="s">
         <v>60</v>
       </c>
     </row>
@@ -5088,9 +5637,9 @@
       <c r="E7" s="16">
         <v>44649</v>
       </c>
-      <c r="F7" s="215"/>
-      <c r="G7" s="217"/>
-      <c r="H7" s="218"/>
+      <c r="F7" s="222"/>
+      <c r="G7" s="224"/>
+      <c r="H7" s="227"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
@@ -5108,13 +5657,13 @@
       <c r="E8" s="16">
         <v>44663</v>
       </c>
-      <c r="F8" s="214">
+      <c r="F8" s="221">
         <v>300000</v>
       </c>
-      <c r="G8" s="216">
+      <c r="G8" s="223">
         <v>44665</v>
       </c>
-      <c r="H8" s="218" t="s">
+      <c r="H8" s="227" t="s">
         <v>60</v>
       </c>
     </row>
@@ -5134,9 +5683,9 @@
       <c r="E9" s="16">
         <v>44676</v>
       </c>
-      <c r="F9" s="215"/>
-      <c r="G9" s="217"/>
-      <c r="H9" s="218"/>
+      <c r="F9" s="222"/>
+      <c r="G9" s="224"/>
+      <c r="H9" s="227"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
@@ -5217,19 +5766,19 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="205">
+      <c r="A13" s="212">
         <v>11</v>
       </c>
-      <c r="B13" s="205" t="s">
+      <c r="B13" s="212" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="205" t="s">
+      <c r="C13" s="212" t="s">
         <v>142</v>
       </c>
-      <c r="D13" s="214">
+      <c r="D13" s="221">
         <v>600000</v>
       </c>
-      <c r="E13" s="216">
+      <c r="E13" s="223">
         <v>44741</v>
       </c>
       <c r="F13" s="19">
@@ -5243,11 +5792,11 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="206"/>
-      <c r="B14" s="206"/>
-      <c r="C14" s="206"/>
-      <c r="D14" s="215"/>
-      <c r="E14" s="217"/>
+      <c r="A14" s="213"/>
+      <c r="B14" s="213"/>
+      <c r="C14" s="213"/>
+      <c r="D14" s="222"/>
+      <c r="E14" s="224"/>
       <c r="F14" s="19">
         <v>300000</v>
       </c>
@@ -5287,7 +5836,7 @@
       <c r="H16" s="9"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="150">
+      <c r="A17" s="147">
         <v>14</v>
       </c>
       <c r="B17" s="9" t="s">
@@ -5301,7 +5850,7 @@
       <c r="H17" s="9"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="150">
+      <c r="A18" s="147">
         <v>15</v>
       </c>
       <c r="B18" s="9" t="s">
@@ -5315,7 +5864,7 @@
       <c r="H18" s="9"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="150">
+      <c r="A19" s="147">
         <v>16</v>
       </c>
       <c r="B19" s="9" t="s">
@@ -5329,7 +5878,7 @@
       <c r="H19" s="9"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="150">
+      <c r="A20" s="147">
         <v>17</v>
       </c>
       <c r="B20" s="9" t="s">
@@ -5343,7 +5892,7 @@
       <c r="H20" s="9"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="150">
+      <c r="A21" s="147">
         <v>18</v>
       </c>
       <c r="B21" s="9" t="s">
@@ -5357,7 +5906,7 @@
       <c r="H21" s="9"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="150">
+      <c r="A22" s="147">
         <v>19</v>
       </c>
       <c r="B22" s="9" t="s">
@@ -5371,7 +5920,7 @@
       <c r="H22" s="9"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="150">
+      <c r="A23" s="147">
         <v>20</v>
       </c>
       <c r="B23" s="9" t="s">
@@ -5385,7 +5934,7 @@
       <c r="H23" s="9"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="150">
+      <c r="A24" s="147">
         <v>21</v>
       </c>
       <c r="B24" s="9" t="s">
@@ -5399,7 +5948,7 @@
       <c r="H24" s="9"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="150">
+      <c r="A25" s="147">
         <v>22</v>
       </c>
       <c r="B25" s="9" t="s">
@@ -5413,7 +5962,7 @@
       <c r="H25" s="9"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="150">
+      <c r="A26" s="147">
         <v>23</v>
       </c>
       <c r="B26" s="9" t="s">
@@ -5427,7 +5976,7 @@
       <c r="H26" s="9"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="150">
+      <c r="A27" s="147">
         <v>24</v>
       </c>
       <c r="B27" s="9" t="s">
@@ -5441,7 +5990,7 @@
       <c r="H27" s="9"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="150">
+      <c r="A28" s="147">
         <v>25</v>
       </c>
       <c r="B28" s="9" t="s">
@@ -5455,7 +6004,7 @@
       <c r="H28" s="9"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="150">
+      <c r="A29" s="147">
         <v>26</v>
       </c>
       <c r="B29" s="9" t="s">
@@ -5469,7 +6018,7 @@
       <c r="H29" s="9"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="150">
+      <c r="A30" s="147">
         <v>27</v>
       </c>
       <c r="B30" s="9" t="s">
@@ -5483,7 +6032,7 @@
       <c r="H30" s="9"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="150">
+      <c r="A31" s="147">
         <v>28</v>
       </c>
       <c r="B31" s="9" t="s">
@@ -5501,6 +6050,21 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="G6:G7"/>
@@ -5508,21 +6072,6 @@
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="G3:G4"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5549,36 +6098,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="209" t="s">
+      <c r="A1" s="218" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="196" t="s">
+      <c r="B1" s="206" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="196" t="s">
+      <c r="C1" s="206" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="197" t="s">
+      <c r="D1" s="207" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="211" t="s">
+      <c r="E1" s="220" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="212" t="s">
+      <c r="F1" s="216" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="207" t="s">
+      <c r="G1" s="214" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="225"/>
-      <c r="B2" s="209"/>
-      <c r="C2" s="209"/>
-      <c r="D2" s="212"/>
-      <c r="E2" s="207"/>
-      <c r="F2" s="224"/>
-      <c r="G2" s="221"/>
+      <c r="A2" s="232"/>
+      <c r="B2" s="218"/>
+      <c r="C2" s="218"/>
+      <c r="D2" s="216"/>
+      <c r="E2" s="214"/>
+      <c r="F2" s="231"/>
+      <c r="G2" s="228"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="57">
@@ -5596,11 +6145,11 @@
       <c r="E3" s="65">
         <v>44649</v>
       </c>
-      <c r="F3" s="160">
+      <c r="F3" s="167">
         <f>D4+D3</f>
         <v>530650.96</v>
       </c>
-      <c r="G3" s="222">
+      <c r="G3" s="229">
         <v>44656</v>
       </c>
     </row>
@@ -5620,8 +6169,8 @@
       <c r="E4" s="66">
         <v>44649</v>
       </c>
-      <c r="F4" s="162"/>
-      <c r="G4" s="223"/>
+      <c r="F4" s="169"/>
+      <c r="G4" s="230"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="49">
@@ -5886,32 +6435,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="228" t="s">
+      <c r="A1" s="235" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="230" t="s">
+      <c r="B1" s="237" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="230" t="s">
+      <c r="C1" s="237" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="231" t="s">
+      <c r="D1" s="238" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="232" t="s">
+      <c r="E1" s="239" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="226" t="s">
+      <c r="F1" s="233" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="229"/>
-      <c r="B2" s="230"/>
-      <c r="C2" s="230"/>
-      <c r="D2" s="231"/>
-      <c r="E2" s="232"/>
-      <c r="F2" s="227"/>
+      <c r="A2" s="236"/>
+      <c r="B2" s="237"/>
+      <c r="C2" s="237"/>
+      <c r="D2" s="238"/>
+      <c r="E2" s="239"/>
+      <c r="F2" s="234"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="88">
@@ -6067,32 +6616,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="209" t="s">
+      <c r="A1" s="218" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="196" t="s">
+      <c r="B1" s="206" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="196" t="s">
+      <c r="C1" s="206" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="197" t="s">
+      <c r="D1" s="207" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="235" t="s">
+      <c r="E1" s="242" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="233" t="s">
+      <c r="F1" s="240" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="210"/>
-      <c r="B2" s="196"/>
-      <c r="C2" s="196"/>
-      <c r="D2" s="197"/>
-      <c r="E2" s="235"/>
-      <c r="F2" s="234"/>
+      <c r="A2" s="219"/>
+      <c r="B2" s="206"/>
+      <c r="C2" s="206"/>
+      <c r="D2" s="207"/>
+      <c r="E2" s="242"/>
+      <c r="F2" s="241"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -6169,24 +6718,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="209" t="s">
+      <c r="A1" s="218" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="196" t="s">
+      <c r="B1" s="206" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="197" t="s">
+      <c r="C1" s="207" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="211" t="s">
+      <c r="D1" s="220" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="210"/>
-      <c r="B2" s="196"/>
-      <c r="C2" s="197"/>
-      <c r="D2" s="211"/>
+      <c r="A2" s="219"/>
+      <c r="B2" s="206"/>
+      <c r="C2" s="207"/>
+      <c r="D2" s="220"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -6315,15 +6864,15 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="236" t="s">
+      <c r="A12" s="243" t="s">
         <v>66</v>
       </c>
-      <c r="B12" s="237"/>
-      <c r="C12" s="238">
+      <c r="B12" s="244"/>
+      <c r="C12" s="245">
         <f>SUM(C3:C11)</f>
         <v>272000</v>
       </c>
-      <c r="D12" s="239"/>
+      <c r="D12" s="246"/>
     </row>
   </sheetData>
   <mergeCells count="6">
